--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/CV-and-models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wangge-github\CN-HET-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3434A36A-E316-8546-9E81-8BA79F1D216D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14017EB0-5096-4B13-9E52-0B3E7F43FECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9320" yWindow="-21100" windowWidth="51200" windowHeight="21100" activeTab="5" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="5830" yWindow="5790" windowWidth="28800" windowHeight="15370" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
@@ -34,8 +34,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="185">
   <si>
     <t>Chen, S., Zhang, Q., Wang, G., Zhu, L., Li, Y., 2018. Investment strategy for underground gas storage facilities based on real option model considering gas market reform in china. Energy Economics 70, 132–142. https://doi.org/10.1016/j.eneco.2017.12.034</t>
   </si>
@@ -1101,6 +1099,18 @@
   </si>
   <si>
     <t>校选修课</t>
+  </si>
+  <si>
+    <t>尹亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究生国家奖学金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teng F, Zhang Q, Chen S, Wang G, Huang Z, Wang L. Comprehensive effects of policy mixes on the diffusion of heavy-duty hydrogen fuel cell electric trucks in China considering technology learning. Energy Policy 2024;185:113961. https://doi.org/10.1016/j.enpol.2023.113961.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1317,7 +1327,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1386,6 +1396,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1702,13 +1715,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D26B086-2910-434C-AB97-2AC2ABC062E1}">
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1873,6 +1886,11 @@
     <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="23" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1906,6 +1924,7 @@
     <hyperlink ref="A27" r:id="rId26" display="https://doi.org/10.1016/j.egypro.2017.03.784" xr:uid="{FD7C42F1-BE4C-674E-BEC5-63947A06160C}"/>
     <hyperlink ref="A28" r:id="rId27" display="https://doi.org/10.1016/j.apenergy.2017.07.118" xr:uid="{4CCB93C4-FDB0-A24E-8BCC-662522AB0151}"/>
     <hyperlink ref="A29" r:id="rId28" display="https://doi.org/10.1016/j.egypro.2016.12.057" xr:uid="{94EB7264-AD46-7048-A51D-A53AB4AA52E8}"/>
+    <hyperlink ref="A34" r:id="rId29" display="https://doi.org/10.1016/j.enpol.2023.113961" xr:uid="{0442BB1C-1836-47F4-9D33-1D2D66E231AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1919,7 +1938,7 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -1953,7 +1972,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17">
+    <row r="2" spans="1:10" ht="16.5">
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
@@ -1985,7 +2004,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17">
+    <row r="3" spans="1:10" ht="16.5">
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
@@ -2017,7 +2036,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17">
+    <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
@@ -2258,7 +2277,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17">
+    <row r="12" spans="1:10" ht="16.5">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -2287,7 +2306,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18">
+    <row r="13" spans="1:10" ht="18.5">
       <c r="A13" s="16" t="s">
         <v>126</v>
       </c>
@@ -2333,7 +2352,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -2491,7 +2510,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17">
+    <row r="7" spans="1:8" ht="16.5">
       <c r="A7" t="s">
         <v>122</v>
       </c>
@@ -2514,7 +2533,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17">
+    <row r="8" spans="1:8" ht="16.5">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -2534,7 +2553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -2554,7 +2573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17">
+    <row r="10" spans="1:8" ht="16.5">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -2571,7 +2590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -2698,10 +2717,10 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="12" t="s">
@@ -2918,7 +2937,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17">
+    <row r="9" spans="1:9" ht="17.5">
       <c r="A9" s="17" t="s">
         <v>129</v>
       </c>
@@ -2944,7 +2963,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="18" t="s">
         <v>130</v>
       </c>
@@ -2970,7 +2989,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="18" t="s">
         <v>131</v>
       </c>
@@ -2996,7 +3015,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17">
+    <row r="12" spans="1:9" ht="17.5">
       <c r="A12" s="17" t="s">
         <v>180</v>
       </c>
@@ -3036,7 +3055,7 @@
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -3230,11 +3249,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48A253F-20F1-5F40-90A5-ADDA6B988307}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -3278,7 +3297,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18">
+    <row r="4" spans="1:4" ht="16.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3292,7 +3311,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18">
+    <row r="5" spans="1:4" ht="16.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3317,10 +3336,10 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -3336,7 +3355,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17">
+    <row r="2" spans="1:4" ht="17.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3350,7 +3369,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17">
+    <row r="3" spans="1:4" ht="17.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3364,7 +3383,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17">
+    <row r="4" spans="1:4" ht="17.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3378,7 +3397,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17">
+    <row r="5" spans="1:4" ht="17.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3400,13 +3419,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C14FA6-174E-FB43-BF02-E436B1D6FEA7}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -3422,7 +3441,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17">
+    <row r="2" spans="1:4" ht="17.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3436,7 +3455,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17">
+    <row r="3" spans="1:4" ht="17.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3450,7 +3469,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18">
+    <row r="4" spans="1:4" ht="16.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3464,7 +3483,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18">
+    <row r="5" spans="1:4" ht="16.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3475,11 +3494,26 @@
         <v>179</v>
       </c>
       <c r="D5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6">
         <v>2023</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wangge-github\CN-HET-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14017EB0-5096-4B13-9E52-0B3E7F43FECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4731758C-5377-4DD2-82D3-C051B3A5D35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5830" yWindow="5790" windowWidth="28800" windowHeight="15370" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="5830" yWindow="5510" windowWidth="28800" windowHeight="15370" activeTab="3" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="186">
   <si>
     <t>Chen, S., Zhang, Q., Wang, G., Zhu, L., Li, Y., 2018. Investment strategy for underground gas storage facilities based on real option model considering gas market reform in china. Energy Economics 70, 132–142. https://doi.org/10.1016/j.eneco.2017.12.034</t>
   </si>
@@ -1109,7 +1109,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Teng F, Zhang Q, Chen S, Wang G, Huang Z, Wang L. Comprehensive effects of policy mixes on the diffusion of heavy-duty hydrogen fuel cell electric trucks in China considering technology learning. Energy Policy 2024;185:113961. https://doi.org/10.1016/j.enpol.2023.113961.</t>
+    <t>Teng, F., Zhang, Q., Chen, S., Wang, G., Huang, Z., Wang, L., 2024. Comprehensive effects of policy mixes on the diffusion of heavy-duty hydrogen fuel cell electric trucks in China considering technology learning. Energy Policy 185, 113961. https://doi.org/10.1016/j.enpol.2023.113961</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承担8学时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1398,7 +1402,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1717,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D26B086-2910-434C-AB97-2AC2ABC062E1}">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="A34:XFD34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
@@ -1924,7 +1928,7 @@
     <hyperlink ref="A27" r:id="rId26" display="https://doi.org/10.1016/j.egypro.2017.03.784" xr:uid="{FD7C42F1-BE4C-674E-BEC5-63947A06160C}"/>
     <hyperlink ref="A28" r:id="rId27" display="https://doi.org/10.1016/j.apenergy.2017.07.118" xr:uid="{4CCB93C4-FDB0-A24E-8BCC-662522AB0151}"/>
     <hyperlink ref="A29" r:id="rId28" display="https://doi.org/10.1016/j.egypro.2016.12.057" xr:uid="{94EB7264-AD46-7048-A51D-A53AB4AA52E8}"/>
-    <hyperlink ref="A34" r:id="rId29" display="https://doi.org/10.1016/j.enpol.2023.113961" xr:uid="{0442BB1C-1836-47F4-9D33-1D2D66E231AE}"/>
+    <hyperlink ref="A34" r:id="rId29" display="https://doi.org/10.1016/j.enpol.2023.113961" xr:uid="{E3FF8D0C-C845-416E-9BBF-89191686E2DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2716,8 +2720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F2145B-3863-3D45-AEBD-0C0EC00F327D}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
@@ -3039,6 +3043,9 @@
       </c>
       <c r="H12" t="s">
         <v>80</v>
+      </c>
+      <c r="I12" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wangge-github\CN-HET-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4731758C-5377-4DD2-82D3-C051B3A5D35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D50145C-4895-4A46-B93E-1297E7760C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5830" yWindow="5510" windowWidth="28800" windowHeight="15370" activeTab="3" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="3800" yWindow="3800" windowWidth="28800" windowHeight="15370" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="188">
   <si>
     <t>Chen, S., Zhang, Q., Wang, G., Zhu, L., Li, Y., 2018. Investment strategy for underground gas storage facilities based on real option model considering gas market reform in china. Energy Economics 70, 132–142. https://doi.org/10.1016/j.eneco.2017.12.034</t>
   </si>
@@ -1115,6 +1115,13 @@
   <si>
     <t>承担8学时</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘玮, 万燕鸣, 陈思源, 刘畅, 刘琦, 张岩, 王歌, 2023. 基于场景模拟的公路货运新能源车成本效益分析研究. 中国环境科学 43, 5624–5632. https://doi.org/10.19674/j.cnki.issn1000-6923.20230808.003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang, L., Zhang, Q., Liu, J., Wang, G., 2024. Science mapping the knowledge domain of electrochemical energy storage technology: A bibliometric review. Journal of Energy Storage 77, 109819. https://doi.org/10.1016/j.est.2023.109819</t>
   </si>
 </sst>
 </file>
@@ -1719,10 +1726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D26B086-2910-434C-AB97-2AC2ABC062E1}">
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
@@ -1895,6 +1902,16 @@
     <row r="34" spans="1:1">
       <c r="A34" s="23" t="s">
         <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="23" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1929,6 +1946,8 @@
     <hyperlink ref="A28" r:id="rId27" display="https://doi.org/10.1016/j.apenergy.2017.07.118" xr:uid="{4CCB93C4-FDB0-A24E-8BCC-662522AB0151}"/>
     <hyperlink ref="A29" r:id="rId28" display="https://doi.org/10.1016/j.egypro.2016.12.057" xr:uid="{94EB7264-AD46-7048-A51D-A53AB4AA52E8}"/>
     <hyperlink ref="A34" r:id="rId29" display="https://doi.org/10.1016/j.enpol.2023.113961" xr:uid="{E3FF8D0C-C845-416E-9BBF-89191686E2DB}"/>
+    <hyperlink ref="A35" r:id="rId30" display="https://doi.org/10.19674/j.cnki.issn1000-6923.20230808.003" xr:uid="{963064A2-B7EC-464F-9EE8-56D41B392947}"/>
+    <hyperlink ref="A36" r:id="rId31" display="https://doi.org/10.1016/j.est.2023.109819" xr:uid="{1AFCA61F-8FC0-46A9-A34E-15E08796E503}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2720,8 +2739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F2145B-3863-3D45-AEBD-0C0EC00F327D}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>

--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wangge-github\CN-HET-Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CN-HET-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D50145C-4895-4A46-B93E-1297E7760C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C494F8B-964F-4BB3-B899-321F49E57015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="3800" windowWidth="28800" windowHeight="15370" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="2620" yWindow="4100" windowWidth="19200" windowHeight="11180" activeTab="3" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
     <sheet name="承担项目" sheetId="2" r:id="rId2"/>
     <sheet name="获得奖项" sheetId="4" r:id="rId3"/>
-    <sheet name="教授本科课程" sheetId="3" r:id="rId4"/>
-    <sheet name="指导本科生毕业论文" sheetId="5" r:id="rId5"/>
-    <sheet name="本科生获得奖励" sheetId="6" r:id="rId6"/>
-    <sheet name="指导研究生毕业论文" sheetId="7" r:id="rId7"/>
-    <sheet name="研究生获得奖励" sheetId="8" r:id="rId8"/>
+    <sheet name="软件著作权" sheetId="9" r:id="rId4"/>
+    <sheet name="教授本科课程" sheetId="3" r:id="rId5"/>
+    <sheet name="指导本科生毕业论文" sheetId="5" r:id="rId6"/>
+    <sheet name="本科生获得奖励" sheetId="6" r:id="rId7"/>
+    <sheet name="指导研究生毕业论文" sheetId="7" r:id="rId8"/>
+    <sheet name="研究生获得奖励" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="195">
   <si>
     <t>Chen, S., Zhang, Q., Wang, G., Zhu, L., Li, Y., 2018. Investment strategy for underground gas storage facilities based on real option model considering gas market reform in china. Energy Economics 70, 132–142. https://doi.org/10.1016/j.eneco.2017.12.034</t>
   </si>
@@ -199,30 +200,6 @@
     <t>北京能源发展研究基地研究项目</t>
   </si>
   <si>
-    <r>
-      <t>基于“车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电”协同的北京市碳中和路径优化与政策创新研究</t>
-    </r>
-  </si>
-  <si>
     <t>结题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,39 +211,6 @@
   </si>
   <si>
     <t xml:space="preserve">基于多市场均衡模型的初始可再生能源配额对中国电力市场影响的研究 </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>中国石油</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="FandolSong-Bold-Identity-H"/>
-      </rPr>
-      <t xml:space="preserve">大学(北京)博士研究生基础研究创新基金 </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2030 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="FandolSong-Regular-Identity-H"/>
-      </rPr>
-      <t xml:space="preserve">年能源生产和消费革命战略实施方案 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">国家能源局研究课题 </t>
@@ -649,10 +593,6 @@
   </si>
   <si>
     <t>北京国氢中联氢能科技研究院有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王歌,张奇, 李彦, 余乐安, 2022. 区块链共享模式下的分布式光伏扩散演化模拟研究. 系统工程学报 （已接收）.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1121,14 +1061,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>王歌,张奇, 李彦, 余乐安, 2022. 区块链共享模式下的分布式光伏扩散演化模拟研究. 系统工程学报.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gao Z, Zhang Q, Liu B, Liu J, Wang G, Ni R, Yang K,  2024. The driving factors and mitigation strategy of CO2 emissions from China’s passenger vehicle sector towards carbon neutrality. Energy 294:130830. https://doi.org/10.1016/j.energy.2024.130830.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Wang, L., Zhang, Q., Liu, J., Wang, G., 2024. Science mapping the knowledge domain of electrochemical energy storage technology: A bibliometric review. Journal of Energy Storage 77, 109819. https://doi.org/10.1016/j.est.2023.109819</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于“车-电”协同的北京市碳中和路径优化与政策创新研究</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中国石油大学(北京)博士研究生基础研究创新基金 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2030 年能源生产和消费革命战略实施方案 </t>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于技术-经济-政策的碳中和技术决策优化软件平台</t>
+  </si>
+  <si>
+    <t>车辆技术经济政策分析软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>天然气产供</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7D939A"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>储销系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF7D939A"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统安全模拟与分析软件平台</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>油气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF95A8AB"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产和消费革</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF95A8AB"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命战略</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF95A8AB"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分析软件平台</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1155,72 +1184,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF666666"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="FandolSong-Regular-Identity-H"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="FandolSong-Bold-Identity-H"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="FandolSong-Bold-Identity-H"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cochineal"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1255,13 +1226,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="仿宋_GB2312"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1312,6 +1276,42 @@
       <name val="微软雅黑, Microsoft YaHei, arial, h"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF7D939A"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF7D939A"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF95A8AB"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF95A8AB"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1338,17 +1338,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1357,7 +1351,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1366,23 +1366,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1390,26 +1390,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1430,9 +1412,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1470,7 +1452,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1576,7 +1558,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1718,7 +1700,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1726,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D26B086-2910-434C-AB97-2AC2ABC062E1}">
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
@@ -1740,142 +1722,142 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1896,22 +1878,27 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="12" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="23" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1948,6 +1935,7 @@
     <hyperlink ref="A34" r:id="rId29" display="https://doi.org/10.1016/j.enpol.2023.113961" xr:uid="{E3FF8D0C-C845-416E-9BBF-89191686E2DB}"/>
     <hyperlink ref="A35" r:id="rId30" display="https://doi.org/10.19674/j.cnki.issn1000-6923.20230808.003" xr:uid="{963064A2-B7EC-464F-9EE8-56D41B392947}"/>
     <hyperlink ref="A36" r:id="rId31" display="https://doi.org/10.1016/j.est.2023.109819" xr:uid="{1AFCA61F-8FC0-46A9-A34E-15E08796E503}"/>
+    <hyperlink ref="A37" r:id="rId32" display="https://doi.org/10.1016/j.energy.2024.130830" xr:uid="{1692811C-DDCD-449F-B771-971B059B4DA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1958,407 +1946,413 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="16.5">
+      <c r="A1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5">
+      <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="13">
+        <v>30</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="13">
+        <v>2023</v>
+      </c>
+      <c r="G2" s="13">
+        <v>1</v>
+      </c>
+      <c r="H2" s="13">
+        <v>2025</v>
+      </c>
+      <c r="I2" s="13">
+        <v>12</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5">
+      <c r="A3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="13">
+        <v>6</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="13">
+        <v>2020</v>
+      </c>
+      <c r="G3" s="13">
+        <v>6</v>
+      </c>
+      <c r="H3" s="13">
+        <v>2023</v>
+      </c>
+      <c r="I3" s="13">
+        <v>6</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5">
+      <c r="A4" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="13">
+        <v>3</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="13">
+        <v>2021</v>
+      </c>
+      <c r="G4" s="13">
+        <v>7</v>
+      </c>
+      <c r="H4" s="13">
+        <v>2022</v>
+      </c>
+      <c r="I4" s="13">
+        <v>6</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5">
+      <c r="A5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="13">
+        <v>8</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="13">
+        <v>2020</v>
+      </c>
+      <c r="G5" s="13">
+        <v>4</v>
+      </c>
+      <c r="H5" s="13">
+        <v>2022</v>
+      </c>
+      <c r="I5" s="13">
+        <v>12</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5">
+      <c r="A6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="13">
+        <v>5</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="13">
+        <v>2016</v>
+      </c>
+      <c r="G6" s="13">
+        <v>9</v>
+      </c>
+      <c r="H6" s="13">
+        <v>2017</v>
+      </c>
+      <c r="I6" s="13">
+        <v>9</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5">
+      <c r="A7" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="13">
+        <v>2016</v>
+      </c>
+      <c r="G7" s="13">
+        <v>8</v>
+      </c>
+      <c r="H7" s="13">
+        <v>2016</v>
+      </c>
+      <c r="I7" s="13">
+        <v>12</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5">
+      <c r="A8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="13">
+        <v>2018</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
+        <v>2021</v>
+      </c>
+      <c r="I8" s="13">
+        <v>12</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5">
+      <c r="A9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="13">
+        <v>2020</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13">
+        <v>2023</v>
+      </c>
+      <c r="I9" s="13">
+        <v>12</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5">
+      <c r="A10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="13">
+        <v>2021</v>
+      </c>
+      <c r="G10" s="13">
+        <v>4</v>
+      </c>
+      <c r="H10" s="13">
+        <v>2023</v>
+      </c>
+      <c r="I10" s="13">
+        <v>12</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5">
+      <c r="A11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="13">
+        <v>2018</v>
+      </c>
+      <c r="G11" s="13">
+        <v>8</v>
+      </c>
+      <c r="H11" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I11" s="13">
+        <v>6</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5">
+      <c r="A12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5">
-      <c r="A2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="13">
+        <v>2020</v>
+      </c>
+      <c r="G12" s="13">
+        <v>8</v>
+      </c>
+      <c r="H12" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I12" s="13">
+        <v>12</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.5">
+      <c r="A13" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="13">
+        <v>15</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F2">
-        <v>2023</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>2025</v>
-      </c>
-      <c r="I2">
+      <c r="F13" s="13">
+        <v>2022</v>
+      </c>
+      <c r="G13" s="13">
+        <v>10</v>
+      </c>
+      <c r="H13" s="13">
+        <v>2022</v>
+      </c>
+      <c r="I13" s="13">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J13" s="13" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="16.5">
-      <c r="A3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3">
-        <v>2020</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>2023</v>
-      </c>
-      <c r="I3">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5">
-      <c r="A4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4">
-        <v>2021</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>2022</v>
-      </c>
-      <c r="I4">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5">
-        <v>2020</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>2022</v>
-      </c>
-      <c r="I5">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6">
-        <v>2016</v>
-      </c>
-      <c r="G6">
-        <v>9</v>
-      </c>
-      <c r="H6">
-        <v>2017</v>
-      </c>
-      <c r="I6">
-        <v>9</v>
-      </c>
-      <c r="J6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7">
-        <v>2016</v>
-      </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="H7">
-        <v>2016</v>
-      </c>
-      <c r="I7">
-        <v>12</v>
-      </c>
-      <c r="J7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8">
-        <v>2018</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>2021</v>
-      </c>
-      <c r="I8">
-        <v>12</v>
-      </c>
-      <c r="J8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9">
-        <v>2020</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>2023</v>
-      </c>
-      <c r="I9">
-        <v>12</v>
-      </c>
-      <c r="J9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10">
-        <v>2021</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <v>2023</v>
-      </c>
-      <c r="I10">
-        <v>12</v>
-      </c>
-      <c r="J10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11">
-        <v>2018</v>
-      </c>
-      <c r="G11">
-        <v>8</v>
-      </c>
-      <c r="H11">
-        <v>2020</v>
-      </c>
-      <c r="I11">
-        <v>6</v>
-      </c>
-      <c r="J11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5">
-      <c r="A12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12">
-        <v>2020</v>
-      </c>
-      <c r="G12">
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <v>2020</v>
-      </c>
-      <c r="I12">
-        <v>12</v>
-      </c>
-      <c r="J12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="18.5">
-      <c r="A13" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13">
-        <v>2022</v>
-      </c>
-      <c r="G13">
-        <v>10</v>
-      </c>
-      <c r="H13">
-        <v>2022</v>
-      </c>
-      <c r="I13">
-        <v>12</v>
-      </c>
-      <c r="J13" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2379,42 +2373,42 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" t="s">
         <v>94</v>
-      </c>
-      <c r="F1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2431,16 +2425,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -2457,16 +2451,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -2483,16 +2477,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -2509,16 +2503,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
         <v>120</v>
-      </c>
-      <c r="B6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" t="s">
-        <v>123</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -2535,13 +2529,13 @@
     </row>
     <row r="7" spans="1:8" ht="16.5">
       <c r="A7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>112</v>
+        <v>119</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2558,10 +2552,10 @@
     </row>
     <row r="8" spans="1:8" ht="16.5">
       <c r="A8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>113</v>
+        <v>119</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2578,10 +2572,10 @@
     </row>
     <row r="9" spans="1:8" ht="16.5">
       <c r="A9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>109</v>
+        <v>119</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2598,10 +2592,10 @@
     </row>
     <row r="10" spans="1:8" ht="16.5">
       <c r="A10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>110</v>
+        <v>119</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2615,10 +2609,10 @@
     </row>
     <row r="11" spans="1:8" ht="16.5">
       <c r="A11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>111</v>
+        <v>119</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2632,16 +2626,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>115</v>
+        <v>96</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -2658,16 +2652,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>116</v>
+        <v>99</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -2684,13 +2678,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="15" t="s">
         <v>119</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -2707,10 +2701,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2726,8 +2720,8 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2736,335 +2730,68 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F2145B-3863-3D45-AEBD-0C0EC00F327D}">
-  <dimension ref="A1:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97835992-E917-4687-8577-521ABE5EB3AA}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
-        <v>71</v>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>190</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>75</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="C2">
-        <v>40</v>
-      </c>
-      <c r="D2">
-        <v>2021</v>
-      </c>
-      <c r="E2">
-        <v>2022</v>
-      </c>
-      <c r="F2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.5">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="G2">
-        <v>61</v>
-      </c>
-      <c r="H2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" t="s">
-        <v>76</v>
+      <c r="B3" s="15" t="s">
+        <v>191</v>
       </c>
       <c r="C3">
-        <v>40</v>
-      </c>
-      <c r="D3">
-        <v>2020</v>
-      </c>
-      <c r="E3">
-        <v>2021</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>51</v>
-      </c>
-      <c r="H3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="C4">
-        <v>40</v>
-      </c>
-      <c r="D4">
-        <v>2019</v>
-      </c>
-      <c r="E4">
-        <v>2020</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" t="s">
-        <v>84</v>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="C5">
-        <v>32</v>
-      </c>
-      <c r="D5">
-        <v>2021</v>
-      </c>
-      <c r="E5">
-        <v>2022</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>2020</v>
-      </c>
-      <c r="E6">
-        <v>2021</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7">
-        <v>32</v>
-      </c>
-      <c r="D7">
-        <v>2021</v>
-      </c>
-      <c r="E7">
-        <v>2022</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="H7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>2022</v>
-      </c>
-      <c r="E8">
-        <v>2023</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <f>110+131+96+85+84</f>
-        <v>506</v>
-      </c>
-      <c r="H8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17.5">
-      <c r="A9" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9">
-        <v>32</v>
-      </c>
-      <c r="D9">
-        <v>2022</v>
-      </c>
-      <c r="E9">
-        <v>2023</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5">
-      <c r="A10" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10">
-        <v>32</v>
-      </c>
-      <c r="D10">
-        <v>2022</v>
-      </c>
-      <c r="E10">
-        <v>2023</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5">
-      <c r="A11" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>2022</v>
-      </c>
-      <c r="E11">
-        <v>2023</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>71</v>
-      </c>
-      <c r="H11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="17.5">
-      <c r="A12" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>2023</v>
-      </c>
-      <c r="E12">
-        <v>2024</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>37</v>
-      </c>
-      <c r="H12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" t="s">
-        <v>185</v>
+        <v>2018</v>
       </c>
     </row>
   </sheetData>
@@ -3074,6 +2801,344 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F2145B-3863-3D45-AEBD-0C0EC00F327D}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>2021</v>
+      </c>
+      <c r="E2">
+        <v>2022</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>2020</v>
+      </c>
+      <c r="E3">
+        <v>2021</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>2019</v>
+      </c>
+      <c r="E4">
+        <v>2020</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>2021</v>
+      </c>
+      <c r="E5">
+        <v>2022</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>2020</v>
+      </c>
+      <c r="E6">
+        <v>2021</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>2021</v>
+      </c>
+      <c r="E7">
+        <v>2022</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>2022</v>
+      </c>
+      <c r="E8">
+        <v>2023</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f>110+131+96+85+84</f>
+        <v>506</v>
+      </c>
+      <c r="H8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.5">
+      <c r="A9" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>2022</v>
+      </c>
+      <c r="E9">
+        <v>2023</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5">
+      <c r="A10" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10">
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <v>2022</v>
+      </c>
+      <c r="E10">
+        <v>2023</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5">
+      <c r="A11" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>2022</v>
+      </c>
+      <c r="E11">
+        <v>2023</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>71</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.5">
+      <c r="A12" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>2023</v>
+      </c>
+      <c r="E12">
+        <v>2024</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043C31DB-9752-464C-8454-299AF5C51F83}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -3085,16 +3150,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3105,10 +3170,10 @@
         <v>2020</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>151</v>
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3119,10 +3184,10 @@
         <v>2020</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="D3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3133,10 +3198,10 @@
         <v>2020</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>155</v>
+        <v>150</v>
+      </c>
+      <c r="D4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3147,10 +3212,10 @@
         <v>2020</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>157</v>
+        <v>152</v>
+      </c>
+      <c r="D5" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3161,10 +3226,10 @@
         <v>2020</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>159</v>
+        <v>154</v>
+      </c>
+      <c r="D6" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3175,10 +3240,10 @@
         <v>2021</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>147</v>
+        <v>142</v>
+      </c>
+      <c r="D7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3189,10 +3254,10 @@
         <v>2021</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>149</v>
+        <v>144</v>
+      </c>
+      <c r="D8" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3203,10 +3268,10 @@
         <v>2022</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>143</v>
+        <v>138</v>
+      </c>
+      <c r="D9" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3217,10 +3282,10 @@
         <v>2022</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+      <c r="D10" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3230,11 +3295,11 @@
       <c r="B11">
         <v>2023</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="22" t="s">
+      <c r="C11" t="s">
         <v>133</v>
+      </c>
+      <c r="D11" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3244,11 +3309,11 @@
       <c r="B12">
         <v>2023</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>139</v>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3258,11 +3323,11 @@
       <c r="B13">
         <v>2023</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>141</v>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3271,7 +3336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48A253F-20F1-5F40-90A5-ADDA6B988307}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -3283,27 +3348,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>163</v>
+      <c r="B2" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="D2">
         <v>2021</v>
@@ -3313,11 +3378,11 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>162</v>
+      <c r="B3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="D3">
         <v>2022</v>
@@ -3327,11 +3392,11 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>165</v>
+      <c r="B4" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="D4">
         <v>2023</v>
@@ -3341,11 +3406,11 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>166</v>
+      <c r="B5" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="D5">
         <v>2023</v>
@@ -3357,7 +3422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D8C139-ACC1-6D4D-BEB1-4CC3D49C0724}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -3369,16 +3434,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.5">
@@ -3388,11 +3453,11 @@
       <c r="B2">
         <v>2023</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>167</v>
+      <c r="C2" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.5">
@@ -3402,11 +3467,11 @@
       <c r="B3">
         <v>2023</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>169</v>
+      <c r="C3" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.5">
@@ -3416,11 +3481,11 @@
       <c r="B4">
         <v>2023</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>172</v>
+      <c r="C4" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.5">
@@ -3430,11 +3495,11 @@
       <c r="B5">
         <v>2023</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>174</v>
+      <c r="C5" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3443,39 +3508,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C14FA6-174E-FB43-BF02-E436B1D6FEA7}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.5">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>168</v>
+      <c r="B2" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D2">
         <v>2023</v>
@@ -3485,11 +3550,11 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>168</v>
+      <c r="B3" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D3">
         <v>2023</v>
@@ -3500,10 +3565,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>179</v>
+        <v>173</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="D4">
         <v>2023</v>
@@ -3514,10 +3579,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>179</v>
+        <v>174</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="D5">
         <v>2023</v>
@@ -3528,10 +3593,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D6">
         <v>2023</v>

--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CN-HET-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C494F8B-964F-4BB3-B899-321F49E57015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AF2E44-FB65-475C-B1FC-0D3C82588D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="4100" windowWidth="19200" windowHeight="11180" activeTab="3" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="201">
   <si>
     <t>Chen, S., Zhang, Q., Wang, G., Zhu, L., Li, Y., 2018. Investment strategy for underground gas storage facilities based on real option model considering gas market reform in china. Energy Economics 70, 132–142. https://doi.org/10.1016/j.eneco.2017.12.034</t>
   </si>
@@ -639,7 +639,7 @@
   </si>
   <si>
     <r>
-      <t>韩培葉</t>
+      <t>W供电公司产品创新研究</t>
     </r>
     <r>
       <rPr>
@@ -657,7 +657,7 @@
   </si>
   <si>
     <r>
-      <t>樊熙翔</t>
+      <t>疫情影响下的电子产品行业营销风险和应对策略研究</t>
     </r>
     <r>
       <rPr>
@@ -674,8 +674,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>W供电公司产品创新研究</t>
+    <t>周智宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>基于巴斯模型的中国绿色技术营销策略研究</t>
     </r>
     <r>
       <rPr>
@@ -692,8 +696,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>宋洹</t>
+    <t>李楠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>考虑用户异质性的充电桩共享机制研究</t>
     </r>
     <r>
       <rPr>
@@ -710,8 +718,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>疫情影响下的电子产品行业营销风险和应对策略研究</t>
+    <t>田政昊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>农村分布式光伏营销策略研究</t>
     </r>
     <r>
       <rPr>
@@ -728,12 +740,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周智宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>基于巴斯模型的中国绿色技术营销策略研究</t>
+    <t>王聂娟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大理市电动汽车营销策略研究</t>
     </r>
     <r>
       <rPr>
@@ -750,12 +762,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李楠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>考虑用户异质性的充电桩共享机制研究</t>
+    <t>管宇舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>考虑电力跨省传输的电动汽车清洁性研究</t>
     </r>
     <r>
       <rPr>
@@ -772,12 +784,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>田政昊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>农村分布式光伏营销策略研究</t>
+    <t>陆永香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>“垃圾分类回收”的综合效益评价研究</t>
     </r>
     <r>
       <rPr>
@@ -794,12 +806,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王聂娟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>大理市电动汽车营销策略研究</t>
+    <t>郑海涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>居民用户需求响应的营销机制研究</t>
     </r>
     <r>
       <rPr>
@@ -816,12 +828,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管宇舟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>考虑电力跨省传输的电动汽车清洁性研究</t>
+    <t>林嘉琳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>可再生能源配额制对分布式光伏企业的影响分析</t>
     </r>
     <r>
       <rPr>
@@ -838,12 +850,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陆永香</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>“垃圾分类回收”的综合效益评价研究</t>
+    <t>聶志峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>售电侧市场化后电价设计与推广机制研究</t>
     </r>
     <r>
       <rPr>
@@ -860,72 +872,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>郑海涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>居民用户需求响应的营销机制研究</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林嘉琳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>可再生能源配额制对分布式光伏企业的影响分析</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聶志峰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>售电侧市场化后电价设计与推广机制研究</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1061,10 +1007,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王歌,张奇, 李彦, 余乐安, 2022. 区块链共享模式下的分布式光伏扩散演化模拟研究. 系统工程学报.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gao Z, Zhang Q, Liu B, Liu J, Wang G, Ni R, Yang K,  2024. The driving factors and mitigation strategy of CO2 emissions from China’s passenger vehicle sector towards carbon neutrality. Energy 294:130830. https://doi.org/10.1016/j.energy.2024.130830.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1091,10 +1033,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>车辆技术经济政策分析软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>基于技术-经济-政策的碳中和技术决策优化软件平台</t>
-  </si>
-  <si>
-    <t>车辆技术经济政策分析软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>油气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF95A8AB"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产和消费革</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF95A8AB"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命战略</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF95A8AB"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分析软件平台</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1119,38 +1095,56 @@
       </rPr>
       <t>统安全模拟与分析软件平台</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>油气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公路货运低碳转型与路径规划分析软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋洹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樊熙翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩培葉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡饮料市场价格竞争策略有效性与可持续性研究 </t>
+  </si>
+  <si>
+    <t>国货崛起背景下电商平台服装市场营销策略研究 </t>
+  </si>
+  <si>
+    <t>吴泽文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>第九届全国大学生能源经济学术创意大赛</t>
     </r>
     <r>
       <rPr>
-        <sz val="15"/>
-        <color rgb="FF95A8AB"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
+        <sz val="12"/>
+        <color rgb="FFED7D31"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
       </rPr>
-      <t>生产和消费革</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF95A8AB"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>命战略</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF95A8AB"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分析软件平台</t>
-    </r>
+      <t>北京赛区一等奖</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王歌,张奇, 李彦, 余乐安, 2024. 区块链共享模式下的分布式光伏扩散演化模拟研究. 系统工程学报.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1283,12 +1277,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="15"/>
       <color rgb="FF7D939A"/>
       <name val="SimSun"/>
@@ -1310,6 +1298,13 @@
       <sz val="15"/>
       <color rgb="FF95A8AB"/>
       <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1338,7 +1333,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1384,13 +1379,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1710,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D26B086-2910-434C-AB97-2AC2ABC062E1}">
   <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
@@ -1878,27 +1870,27 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1945,8 +1937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA794A-9001-A74B-80D1-3BD53AFA6286}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
@@ -2049,7 +2041,7 @@
     </row>
     <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="13" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>47</v>
@@ -2116,7 +2108,7 @@
         <v>51</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C6" s="13">
         <v>5</v>
@@ -2145,7 +2137,7 @@
     </row>
     <row r="7" spans="1:10" ht="16.5">
       <c r="A7" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>52</v>
@@ -2731,67 +2723,81 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97835992-E917-4687-8577-521ABE5EB3AA}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
+  <cols>
+    <col min="2" max="2" width="15.23046875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B1" t="s">
         <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="46.5">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>192</v>
+      <c r="B2" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="C2">
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.5">
+    <row r="3" spans="1:3" ht="93">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C3">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.5">
+    <row r="4" spans="1:3" ht="111.5">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>194</v>
+      <c r="B4" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="C4">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.5">
+    <row r="5" spans="1:3" ht="73.5">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>193</v>
+      <c r="B5" s="15" t="s">
+        <v>190</v>
       </c>
       <c r="C5">
         <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6">
+        <v>2024</v>
       </c>
     </row>
   </sheetData>
@@ -2802,10 +2808,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F2145B-3863-3D45-AEBD-0C0EC00F327D}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
@@ -3105,10 +3111,10 @@
     </row>
     <row r="12" spans="1:9" ht="17.5">
       <c r="A12" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -3129,7 +3135,114 @@
         <v>77</v>
       </c>
       <c r="I12" t="s">
-        <v>181</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.5">
+      <c r="A13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>2023</v>
+      </c>
+      <c r="E13">
+        <v>2024</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.5">
+      <c r="A14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>2023</v>
+      </c>
+      <c r="E14">
+        <v>2024</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5">
+      <c r="A15" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>2023</v>
+      </c>
+      <c r="E15">
+        <v>2024</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5">
+      <c r="A16" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>2023</v>
+      </c>
+      <c r="E16">
+        <v>2024</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>56</v>
+      </c>
+      <c r="H16" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3140,17 +3253,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043C31DB-9752-464C-8454-299AF5C51F83}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
         <v>92</v>
@@ -3170,10 +3283,10 @@
         <v>2020</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3184,10 +3297,10 @@
         <v>2020</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3198,10 +3311,10 @@
         <v>2020</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3212,10 +3325,10 @@
         <v>2020</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3226,10 +3339,10 @@
         <v>2020</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3240,10 +3353,10 @@
         <v>2021</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3254,10 +3367,10 @@
         <v>2021</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3268,10 +3381,10 @@
         <v>2022</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3282,10 +3395,10 @@
         <v>2022</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3296,7 +3409,7 @@
         <v>2023</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="D11" t="s">
         <v>129</v>
@@ -3310,10 +3423,10 @@
         <v>2023</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3324,10 +3437,38 @@
         <v>2023</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2024</v>
+      </c>
+      <c r="C14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2024</v>
+      </c>
+      <c r="C15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3338,23 +3479,26 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48A253F-20F1-5F40-90A5-ADDA6B988307}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="3" max="3" width="47.84375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
         <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D1" t="s">
         <v>92</v>
@@ -3368,7 +3512,7 @@
         <v>132</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D2">
         <v>2021</v>
@@ -3382,7 +3526,7 @@
         <v>132</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D3">
         <v>2022</v>
@@ -3393,10 +3537,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D4">
         <v>2023</v>
@@ -3407,13 +3551,27 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D5">
         <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6">
+        <v>2024</v>
       </c>
     </row>
   </sheetData>
@@ -3434,7 +3592,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
         <v>92</v>
@@ -3454,10 +3612,10 @@
         <v>2023</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.5">
@@ -3468,10 +3626,10 @@
         <v>2023</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.5">
@@ -3482,10 +3640,10 @@
         <v>2023</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.5">
@@ -3496,10 +3654,10 @@
         <v>2023</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3513,20 +3671,20 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
         <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D1" t="s">
         <v>92</v>
@@ -3537,10 +3695,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D2">
         <v>2023</v>
@@ -3551,10 +3709,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D3">
         <v>2023</v>
@@ -3565,10 +3723,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>175</v>
+        <v>170</v>
+      </c>
+      <c r="C4" t="s">
+        <v>172</v>
       </c>
       <c r="D4">
         <v>2023</v>
@@ -3579,10 +3737,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
+      </c>
+      <c r="C5" t="s">
+        <v>172</v>
       </c>
       <c r="D5">
         <v>2023</v>
@@ -3593,10 +3751,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D6">
         <v>2023</v>

--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CN-HET-Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wangge-github\CN-HET-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AF2E44-FB65-475C-B1FC-0D3C82588D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45142060-FDD5-4C1D-B76B-7126F11898F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="202">
   <si>
     <t>Chen, S., Zhang, Q., Wang, G., Zhu, L., Li, Y., 2018. Investment strategy for underground gas storage facilities based on real option model considering gas market reform in china. Energy Economics 70, 132–142. https://doi.org/10.1016/j.eneco.2017.12.034</t>
   </si>
@@ -1143,7 +1143,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王歌,张奇, 李彦, 余乐安, 2024. 区块链共享模式下的分布式光伏扩散演化模拟研究. 系统工程学报.</t>
+    <t>碳中和关键金属技术-经济-政策决策优化系统软件</t>
+  </si>
+  <si>
+    <t>王歌, 张奇, 李彦, 余乐安, 2024. 区块链共享模式下的分布式光伏扩散演化模拟. 系统工程学报 39:189–99. https://doi.org/10.13383/j.cnki.jse.2024.02.003.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1404,9 +1407,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1444,7 +1447,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1550,7 +1553,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1692,7 +1695,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1702,11 +1705,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D26B086-2910-434C-AB97-2AC2ABC062E1}">
   <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42:G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1869,28 +1872,28 @@
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>200</v>
+      <c r="A33" s="12" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="12" t="s">
-        <v>180</v>
+      <c r="A37" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1924,10 +1927,10 @@
     <hyperlink ref="A27" r:id="rId26" display="https://doi.org/10.1016/j.egypro.2017.03.784" xr:uid="{FD7C42F1-BE4C-674E-BEC5-63947A06160C}"/>
     <hyperlink ref="A28" r:id="rId27" display="https://doi.org/10.1016/j.apenergy.2017.07.118" xr:uid="{4CCB93C4-FDB0-A24E-8BCC-662522AB0151}"/>
     <hyperlink ref="A29" r:id="rId28" display="https://doi.org/10.1016/j.egypro.2016.12.057" xr:uid="{94EB7264-AD46-7048-A51D-A53AB4AA52E8}"/>
-    <hyperlink ref="A34" r:id="rId29" display="https://doi.org/10.1016/j.enpol.2023.113961" xr:uid="{E3FF8D0C-C845-416E-9BBF-89191686E2DB}"/>
-    <hyperlink ref="A35" r:id="rId30" display="https://doi.org/10.19674/j.cnki.issn1000-6923.20230808.003" xr:uid="{963064A2-B7EC-464F-9EE8-56D41B392947}"/>
-    <hyperlink ref="A36" r:id="rId31" display="https://doi.org/10.1016/j.est.2023.109819" xr:uid="{1AFCA61F-8FC0-46A9-A34E-15E08796E503}"/>
-    <hyperlink ref="A37" r:id="rId32" display="https://doi.org/10.1016/j.energy.2024.130830" xr:uid="{1692811C-DDCD-449F-B771-971B059B4DA8}"/>
+    <hyperlink ref="A33" r:id="rId29" display="https://doi.org/10.1016/j.enpol.2023.113961" xr:uid="{E3FF8D0C-C845-416E-9BBF-89191686E2DB}"/>
+    <hyperlink ref="A34" r:id="rId30" display="https://doi.org/10.19674/j.cnki.issn1000-6923.20230808.003" xr:uid="{963064A2-B7EC-464F-9EE8-56D41B392947}"/>
+    <hyperlink ref="A35" r:id="rId31" display="https://doi.org/10.1016/j.est.2023.109819" xr:uid="{1AFCA61F-8FC0-46A9-A34E-15E08796E503}"/>
+    <hyperlink ref="A36" r:id="rId32" display="https://doi.org/10.1016/j.energy.2024.130830" xr:uid="{1692811C-DDCD-449F-B771-971B059B4DA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1937,11 +1940,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA794A-9001-A74B-80D1-3BD53AFA6286}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5">
       <c r="A1" s="13" t="s">
@@ -2358,10 +2361,10 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -2723,15 +2726,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97835992-E917-4687-8577-521ABE5EB3AA}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="15.23046875" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2745,7 +2748,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="46.5">
+    <row r="2" spans="1:3" ht="31.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2756,7 +2759,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="93">
+    <row r="3" spans="1:3" ht="63">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2767,7 +2770,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="111.5">
+    <row r="4" spans="1:3" ht="58.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2778,7 +2781,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="73.5">
+    <row r="5" spans="1:3" ht="77.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2797,6 +2800,17 @@
         <v>191</v>
       </c>
       <c r="C6">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7">
         <v>2024</v>
       </c>
     </row>
@@ -2814,7 +2828,7 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
@@ -3031,7 +3045,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.5">
+    <row r="9" spans="1:9" ht="18.75">
       <c r="A9" s="7" t="s">
         <v>125</v>
       </c>
@@ -3109,7 +3123,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.5">
+    <row r="12" spans="1:9" ht="18.75">
       <c r="A12" s="7" t="s">
         <v>173</v>
       </c>
@@ -3138,7 +3152,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.5">
+    <row r="13" spans="1:9" ht="18.75">
       <c r="A13" s="7" t="s">
         <v>173</v>
       </c>
@@ -3167,7 +3181,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.5">
+    <row r="14" spans="1:9" ht="18.75">
       <c r="A14" s="7" t="s">
         <v>125</v>
       </c>
@@ -3259,7 +3273,7 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -3485,9 +3499,9 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="47.84375" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3532,7 +3546,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5">
+    <row r="4" spans="1:4" ht="17.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3546,7 +3560,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5">
+    <row r="5" spans="1:4" ht="17.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3560,7 +3574,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5">
+    <row r="6" spans="1:4" ht="17.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3588,7 +3602,7 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -3604,7 +3618,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.5">
+    <row r="2" spans="1:4" ht="18.75">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3618,7 +3632,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.5">
+    <row r="3" spans="1:4" ht="18.75">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3632,7 +3646,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.5">
+    <row r="4" spans="1:4" ht="18.75">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3646,7 +3660,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.5">
+    <row r="5" spans="1:4" ht="18.75">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3674,7 +3688,7 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -3690,7 +3704,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.5">
+    <row r="2" spans="1:4" ht="18.75">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3704,7 +3718,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.5">
+    <row r="3" spans="1:4" ht="18.75">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3718,7 +3732,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5">
+    <row r="4" spans="1:4" ht="17.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3732,7 +3746,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5">
+    <row r="5" spans="1:4" ht="17.25">
       <c r="A5">
         <v>4</v>
       </c>

--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wangge-github\CN-HET-Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CN-HET-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45142060-FDD5-4C1D-B76B-7126F11898F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160E979F-963E-4102-ABE2-963EF2D6E5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" firstSheet="1" activeTab="8" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="213">
   <si>
     <t>Chen, S., Zhang, Q., Wang, G., Zhu, L., Li, Y., 2018. Investment strategy for underground gas storage facilities based on real option model considering gas market reform in china. Energy Economics 70, 132–142. https://doi.org/10.1016/j.eneco.2017.12.034</t>
   </si>
@@ -354,9 +354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Harnessing nudge interventions on blockchain energy sharing for promoting distributed PV diffusion in the post-subsidy era</t>
-  </si>
-  <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,24 +370,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中国技术经济学会优秀论文</t>
-  </si>
-  <si>
-    <t>三等奖</t>
-  </si>
-  <si>
     <t>基于区块链共享的分布式光伏扩散演化与政策模拟研究</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中国能源经济与管理优秀研究生论文</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一等奖</t>
-  </si>
-  <si>
-    <t>Theoretical modelling and guarantee mechanism simulation for renewable subsidy reverse auction</t>
   </si>
   <si>
     <t>三等奖</t>
@@ -549,20 +534,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>能源生产和消费革命战略实施方案研究</t>
-  </si>
-  <si>
-    <t>以立德树人为目标的问题链教学育人基地的创新与实践</t>
-  </si>
-  <si>
     <t>2021年北京市教育教学成果奖</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市课程思政示范课程教学名师和团队</t>
-  </si>
-  <si>
-    <t>管理学原理</t>
   </si>
   <si>
     <t>科学研究奖</t>
@@ -1041,95 +1014,162 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>油气</t>
-    </r>
+    <t>公路货运低碳转型与路径规划分析软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋洹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樊熙翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩培葉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡饮料市场价格竞争策略有效性与可持续性研究 </t>
+  </si>
+  <si>
+    <t>国货崛起背景下电商平台服装市场营销策略研究 </t>
+  </si>
+  <si>
+    <t>吴泽文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳中和关键金属技术-经济-政策决策优化系统软件</t>
+  </si>
+  <si>
+    <t>王歌, 张奇, 李彦, 余乐安, 2024. 区块链共享模式下的分布式光伏扩散演化模拟. 系统工程学报 39:189–99. https://doi.org/10.13383/j.cnki.jse.2024.02.003.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liu, J., Zhang, Q., Teng, F., Wang, L., Wang, G., 2024. A New Investment Decision-Making Model of Hydrogen Energy Storage Technology Based on Real-Time Operation Optimization and Learning Effects. Journal of Energy Storage 96, 112745. https://doi.org/10.2139/ssrn.4761945</t>
+  </si>
+  <si>
+    <t>Zhang, Q., Liu, J., Wang, G., Gao, Z., 2024. A New Optimization Model for Carbon Capture Utilization and Storage (Ccus) Layout Based on High-Resolution Geological Variability. Applied Energy. https://doi.org/10.2139/ssrn.4671244</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油气生产和消费革命战略分析软件平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天然气产供储销系统安全模拟与分析软件平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harnessing nudge interventions on blockchain energy sharing for promoting distributed PV diffusion in the post-subsidy era</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Theoretical modelling and guarantee mechanism simulation for renewable subsidy reverse auction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国技术经济学会优秀论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源生产和消费革命战略实施方案研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以立德树人为目标的问题链教学育人基地的创新与实践</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市课程思政示范课程教学名师和团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理学原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
-        <sz val="15"/>
-        <color rgb="FF95A8AB"/>
-        <rFont val="SimSun"/>
+        <sz val="12"/>
+        <color rgb="FFED7D31"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>生产和消费革</t>
+      <t>赵云瑞</t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
-        <color rgb="FF95A8AB"/>
-        <rFont val="SimSun"/>
+        <sz val="12"/>
+        <color rgb="FFED7D31"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFED7D31"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>命战略</t>
+      <t>薛春晖</t>
     </r>
     <r>
       <rPr>
-        <sz val="15"/>
-        <color rgb="FF95A8AB"/>
-        <rFont val="SimSun"/>
+        <sz val="12"/>
+        <color rgb="FFED7D31"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFED7D31"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>分析软件平台</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>天然气产供</t>
+      <t>罗艺</t>
     </r>
     <r>
       <rPr>
-        <sz val="14"/>
-        <color rgb="FF7D939A"/>
-        <rFont val="SimSun"/>
+        <sz val="12"/>
+        <color rgb="FFED7D31"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFED7D31"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>储销系</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF7D939A"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>统安全模拟与分析软件平台</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公路货运低碳转型与路径规划分析软件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宋洹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樊熙翔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩培葉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咖啡饮料市场价格竞争策略有效性与可持续性研究 </t>
-  </si>
-  <si>
-    <t>国货崛起背景下电商平台服装市场营销策略研究 </t>
-  </si>
-  <si>
-    <t>吴泽文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>第九届全国大学生能源经济学术创意大赛</t>
+      <t>方桢</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>第十届全国大学生能源经济学术创意大赛</t>
     </r>
     <r>
       <rPr>
@@ -1143,10 +1183,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>碳中和关键金属技术-经济-政策决策优化系统软件</t>
-  </si>
-  <si>
-    <t>王歌, 张奇, 李彦, 余乐安, 2024. 区块链共享模式下的分布式光伏扩散演化模拟. 系统工程学报 39:189–99. https://doi.org/10.13383/j.cnki.jse.2024.02.003.</t>
+    <r>
+      <t>第十届全国大学生能源经济学术创意大赛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFED7D31"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>全国三等奖</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱嘉琪</t>
+  </si>
+  <si>
+    <t>生命周期视角下煤炭运输的碳排放测算及优化研究</t>
+  </si>
+  <si>
+    <t>面向碳中和的氢能货运汽车多区域协同发展研究</t>
+  </si>
+  <si>
+    <t>李智</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向碳中和的区域绿氢供应链网络优化研究</t>
+  </si>
+  <si>
+    <t>郑越</t>
+  </si>
+  <si>
+    <t>面向碳中和的煤炭行业碳市场机制模拟与路径分析</t>
+  </si>
+  <si>
+    <t>晏嘉泽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1154,7 +1228,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1182,11 +1256,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="FandolSong-Regular-Identity-H"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1200,29 +1269,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="FandolSong-Regular-Identity-H"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1280,35 +1328,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color rgb="FF7D939A"/>
-      <name val="SimSun"/>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFED7D31"/>
+      <name val="Menlo"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF7D939A"/>
-      <name val="SimSun"/>
+      <sz val="12"/>
+      <color rgb="FFED7D31"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF95A8AB"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF95A8AB"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
+      <sz val="12"/>
+      <color rgb="FFED7D31"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1336,11 +1380,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1349,43 +1393,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1407,9 +1439,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1447,7 +1479,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1553,7 +1585,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1695,7 +1727,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1703,13 +1735,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D26B086-2910-434C-AB97-2AC2ABC062E1}">
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42:G43"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1717,142 +1749,142 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1872,28 +1904,38 @@
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="12" t="s">
-        <v>177</v>
+      <c r="A33" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="12" t="s">
-        <v>179</v>
+      <c r="A34" s="7" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="12" t="s">
-        <v>181</v>
+      <c r="A35" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="12" t="s">
-        <v>180</v>
+      <c r="A36" s="7" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>201</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1931,6 +1973,8 @@
     <hyperlink ref="A34" r:id="rId30" display="https://doi.org/10.19674/j.cnki.issn1000-6923.20230808.003" xr:uid="{963064A2-B7EC-464F-9EE8-56D41B392947}"/>
     <hyperlink ref="A35" r:id="rId31" display="https://doi.org/10.1016/j.est.2023.109819" xr:uid="{1AFCA61F-8FC0-46A9-A34E-15E08796E503}"/>
     <hyperlink ref="A36" r:id="rId32" display="https://doi.org/10.1016/j.energy.2024.130830" xr:uid="{1692811C-DDCD-449F-B771-971B059B4DA8}"/>
+    <hyperlink ref="A38" r:id="rId33" display="https://doi.org/10.2139/ssrn.4761945" xr:uid="{D8F4F9DD-75F4-4391-8E66-93DF15C7CBFA}"/>
+    <hyperlink ref="A39" r:id="rId34" display="https://doi.org/10.2139/ssrn.4671244" xr:uid="{9AA03955-F948-44BC-8084-ADC7599E413C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1944,409 +1988,409 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="8">
         <v>30</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="8">
         <v>2023</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="8">
         <v>1</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="8">
         <v>2025</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="8">
         <v>12</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="8">
         <v>6</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="8">
         <v>2020</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="8">
         <v>6</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="8">
         <v>2023</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="8">
         <v>6</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5">
-      <c r="A4" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="8">
         <v>3</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="8">
         <v>2021</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="8">
         <v>7</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="8">
         <v>2022</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="8">
         <v>6</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="8">
         <v>8</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="8">
         <v>2020</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="8">
         <v>4</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="8">
         <v>2022</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="8">
         <v>12</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="B6" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="8">
         <v>5</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="8">
         <v>2016</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="8">
         <v>9</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="8">
         <v>2017</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="8">
         <v>9</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="8">
         <v>2016</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="8">
         <v>8</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="8">
         <v>2016</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="8">
         <v>12</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.5">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="8">
         <v>2018</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="8">
         <v>1</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="8">
         <v>2021</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="8">
         <v>12</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="8">
         <v>2020</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="8">
         <v>1</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="8">
         <v>2023</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="8">
         <v>12</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="8">
         <v>2021</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="8">
         <v>4</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="8">
         <v>2023</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="8">
         <v>12</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:10">
+      <c r="A11" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="8">
         <v>2018</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="8">
         <v>8</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="8">
         <v>2020</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="8">
         <v>6</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:10">
+      <c r="A12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="8">
         <v>2020</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="8">
         <v>8</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="8">
         <v>2020</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="8">
         <v>12</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5">
-      <c r="A13" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="13">
+    <row r="13" spans="1:10">
+      <c r="A13" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="8">
         <v>15</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="8">
         <v>2022</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="8">
         <v>10</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="8">
         <v>2022</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="8">
         <v>12</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2358,13 +2402,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2095B75-DB61-6845-8E62-D94BF38E48B3}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A2" sqref="A2:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -2380,16 +2424,16 @@
         <v>87</v>
       </c>
       <c r="E1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
         <v>91</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>92</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>93</v>
-      </c>
-      <c r="H1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2397,13 +2441,13 @@
         <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2423,13 +2467,13 @@
         <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -2449,13 +2493,13 @@
         <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
         <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -2475,13 +2519,13 @@
         <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" t="s">
         <v>99</v>
-      </c>
-      <c r="D5" t="s">
-        <v>104</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -2498,16 +2542,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
         <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -2522,15 +2566,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2545,12 +2589,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="2" t="s">
         <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2565,12 +2609,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2585,12 +2629,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2602,12 +2646,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2621,16 +2665,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
       </c>
       <c r="C12" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>112</v>
+      <c r="D12" t="s">
+        <v>198</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -2647,16 +2691,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>113</v>
+        <v>195</v>
+      </c>
+      <c r="D13" t="s">
+        <v>199</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -2673,13 +2717,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" t="s">
+        <v>201</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -2696,10 +2740,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2713,10 +2757,6 @@
       <c r="H15">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2729,75 +2769,75 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="15.234375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
         <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="31.5">
-      <c r="A2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>187</v>
+      <c r="B2" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="C2">
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="63">
-      <c r="A3">
+    <row r="3" spans="1:3" ht="60">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>188</v>
+      <c r="B3" s="11" t="s">
+        <v>179</v>
       </c>
       <c r="C3">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="58.5">
-      <c r="A4">
+    <row r="4" spans="1:3" ht="45">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>189</v>
+      <c r="B4" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="C4">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="77.25">
-      <c r="A5">
+    <row r="5" spans="1:3" ht="45">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>190</v>
+      <c r="B5" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="C5">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+    <row r="6" spans="1:3" ht="45">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>191</v>
+      <c r="B6" s="11" t="s">
+        <v>180</v>
       </c>
       <c r="C6">
         <v>2024</v>
@@ -2808,7 +2848,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C7">
         <v>2024</v>
@@ -2828,10 +2868,10 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B1" t="s">
@@ -3045,9 +3085,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75">
-      <c r="A9" s="7" t="s">
-        <v>125</v>
+    <row r="9" spans="1:9" ht="17.649999999999999">
+      <c r="A9" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="B9" t="s">
         <v>81</v>
@@ -3072,8 +3112,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5">
-      <c r="A10" s="8" t="s">
-        <v>126</v>
+      <c r="A10" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -3098,11 +3138,11 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5">
-      <c r="A11" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>128</v>
+      <c r="A11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C11">
         <v>32</v>
@@ -3123,12 +3163,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75">
-      <c r="A12" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>174</v>
+    <row r="12" spans="1:9" ht="17.649999999999999">
+      <c r="A12" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -3149,15 +3189,15 @@
         <v>77</v>
       </c>
       <c r="I12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75">
-      <c r="A13" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.649999999999999">
+      <c r="A13" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -3178,12 +3218,12 @@
         <v>77</v>
       </c>
       <c r="I13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.75">
-      <c r="A14" s="7" t="s">
-        <v>125</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.649999999999999">
+      <c r="A14" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="B14" t="s">
         <v>81</v>
@@ -3208,8 +3248,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5">
-      <c r="A15" s="8" t="s">
-        <v>126</v>
+      <c r="A15" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -3234,11 +3274,11 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5">
-      <c r="A16" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>128</v>
+      <c r="A16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C16">
         <v>32</v>
@@ -3273,20 +3313,20 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3297,10 +3337,10 @@
         <v>2020</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3311,10 +3351,10 @@
         <v>2020</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3325,10 +3365,10 @@
         <v>2020</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3339,10 +3379,10 @@
         <v>2020</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3353,10 +3393,10 @@
         <v>2020</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3367,10 +3407,10 @@
         <v>2021</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3381,10 +3421,10 @@
         <v>2021</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3395,10 +3435,10 @@
         <v>2022</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3409,10 +3449,10 @@
         <v>2022</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3423,10 +3463,10 @@
         <v>2023</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3437,10 +3477,10 @@
         <v>2023</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3451,10 +3491,10 @@
         <v>2023</v>
       </c>
       <c r="C13" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3465,10 +3505,10 @@
         <v>2024</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D14" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3479,10 +3519,10 @@
         <v>2024</v>
       </c>
       <c r="C15" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D15" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3493,40 +3533,40 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48A253F-20F1-5F40-90A5-ADDA6B988307}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="3" max="3" width="47.87890625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>156</v>
+      <c r="B2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="D2">
         <v>2021</v>
@@ -3536,55 +3576,69 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>155</v>
+      <c r="B3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="D3">
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.25">
+    <row r="4" spans="1:4" ht="16.149999999999999">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>158</v>
+      <c r="B4" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="D4">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25">
+    <row r="5" spans="1:4" ht="16.149999999999999">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>159</v>
+      <c r="B5" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="D5">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.25">
+    <row r="6" spans="1:4" ht="16.149999999999999">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>199</v>
+      <c r="B6" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="D6">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.149999999999999">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7">
         <v>2024</v>
       </c>
     </row>
@@ -3596,83 +3650,147 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D8C139-ACC1-6D4D-BEB1-4CC3D49C0724}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="A6" sqref="A6:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.649999999999999">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>2023</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75">
+      <c r="C2" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.649999999999999">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>2023</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75">
+      <c r="C3" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.649999999999999">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2023</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75">
+      <c r="C4" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.649999999999999">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>2023</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>167</v>
-      </c>
+      <c r="C5" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.649999999999999">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="17.649999999999999">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="17.649999999999999">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="17.649999999999999">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3684,77 +3802,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C14FA6-174E-FB43-BF02-E436B1D6FEA7}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>161</v>
+      <c r="B2" t="s">
+        <v>212</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D2">
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>161</v>
+      <c r="B3" t="s">
+        <v>212</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D3">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.25">
+    <row r="4" spans="1:4" ht="16.149999999999999">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D4">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25">
+    <row r="5" spans="1:4" ht="16.149999999999999">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D5">
         <v>2023</v>
@@ -3765,10 +3883,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D6">
         <v>2023</v>

--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CN-HET-Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wangge-github\CN-HET-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160E979F-963E-4102-ABE2-963EF2D6E5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916BE7D2-7F6B-45FD-9005-979DE396DBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" firstSheet="1" activeTab="8" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
-    <sheet name="承担项目" sheetId="2" r:id="rId2"/>
-    <sheet name="获得奖项" sheetId="4" r:id="rId3"/>
-    <sheet name="软件著作权" sheetId="9" r:id="rId4"/>
-    <sheet name="教授本科课程" sheetId="3" r:id="rId5"/>
-    <sheet name="指导本科生毕业论文" sheetId="5" r:id="rId6"/>
-    <sheet name="本科生获得奖励" sheetId="6" r:id="rId7"/>
-    <sheet name="指导研究生毕业论文" sheetId="7" r:id="rId8"/>
-    <sheet name="研究生获得奖励" sheetId="8" r:id="rId9"/>
+    <sheet name="出版著作" sheetId="10" r:id="rId2"/>
+    <sheet name="承担项目" sheetId="2" r:id="rId3"/>
+    <sheet name="获得奖项" sheetId="4" r:id="rId4"/>
+    <sheet name="软件著作权" sheetId="9" r:id="rId5"/>
+    <sheet name="教授本科课程" sheetId="3" r:id="rId6"/>
+    <sheet name="指导本科生毕业论文" sheetId="5" r:id="rId7"/>
+    <sheet name="本科生获得奖励" sheetId="6" r:id="rId8"/>
+    <sheet name="指导研究生毕业论文" sheetId="7" r:id="rId9"/>
+    <sheet name="研究生获得奖励" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="222">
   <si>
     <t>Chen, S., Zhang, Q., Wang, G., Zhu, L., Li, Y., 2018. Investment strategy for underground gas storage facilities based on real option model considering gas market reform in china. Energy Economics 70, 132–142. https://doi.org/10.1016/j.eneco.2017.12.034</t>
   </si>
@@ -1221,6 +1222,41 @@
   </si>
   <si>
     <t>晏嘉泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>著作标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>著作类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专著</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳中和技术决策优化与政策分析</t>
+  </si>
+  <si>
+    <t>张奇，王歌，刘江枫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出版社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济管理出版社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1439,9 +1475,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1479,7 +1515,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1585,7 +1621,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1727,7 +1763,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1737,11 +1773,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D26B086-2910-434C-AB97-2AC2ABC062E1}">
   <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1980,418 +2016,155 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA794A-9001-A74B-80D1-3BD53AFA6286}">
-  <dimension ref="A1:J13"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C14FA6-174E-FB43-BF02-E436B1D6FEA7}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6">
+        <v>2023</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FFF91B-78E0-4A8D-AC15-0F3D3EB2758B}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5">
       <c r="A1" s="8" t="s">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="8">
-        <v>30</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="8">
-        <v>2023</v>
-      </c>
-      <c r="G2" s="8">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8">
-        <v>2025</v>
-      </c>
-      <c r="I2" s="8">
-        <v>12</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="8">
-        <v>6</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="8">
-        <v>2020</v>
-      </c>
-      <c r="G3" s="8">
-        <v>6</v>
-      </c>
-      <c r="H3" s="8">
-        <v>2023</v>
-      </c>
-      <c r="I3" s="8">
-        <v>6</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="8">
-        <v>3</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="8">
-        <v>2021</v>
-      </c>
-      <c r="G4" s="8">
-        <v>7</v>
-      </c>
-      <c r="H4" s="8">
-        <v>2022</v>
-      </c>
-      <c r="I4" s="8">
-        <v>6</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="8">
-        <v>8</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="8">
-        <v>2020</v>
-      </c>
-      <c r="G5" s="8">
-        <v>4</v>
-      </c>
-      <c r="H5" s="8">
-        <v>2022</v>
-      </c>
-      <c r="I5" s="8">
-        <v>12</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" s="8">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="8">
-        <v>2016</v>
-      </c>
-      <c r="G6" s="8">
-        <v>9</v>
-      </c>
-      <c r="H6" s="8">
-        <v>2017</v>
-      </c>
-      <c r="I6" s="8">
-        <v>9</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="8">
-        <v>2016</v>
-      </c>
-      <c r="G7" s="8">
-        <v>8</v>
-      </c>
-      <c r="H7" s="8">
-        <v>2016</v>
-      </c>
-      <c r="I7" s="8">
-        <v>12</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="8">
-        <v>2018</v>
-      </c>
-      <c r="G8" s="8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8">
-        <v>2021</v>
-      </c>
-      <c r="I8" s="8">
-        <v>12</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="8">
-        <v>2020</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8">
-        <v>2023</v>
-      </c>
-      <c r="I9" s="8">
-        <v>12</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="8">
-        <v>2021</v>
-      </c>
-      <c r="G10" s="8">
-        <v>4</v>
-      </c>
-      <c r="H10" s="8">
-        <v>2023</v>
-      </c>
-      <c r="I10" s="8">
-        <v>12</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="8">
-        <v>2018</v>
-      </c>
-      <c r="G11" s="8">
-        <v>8</v>
-      </c>
-      <c r="H11" s="8">
-        <v>2020</v>
-      </c>
-      <c r="I11" s="8">
-        <v>6</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="8">
-        <v>2020</v>
-      </c>
-      <c r="G12" s="8">
-        <v>8</v>
-      </c>
-      <c r="H12" s="8">
-        <v>2020</v>
-      </c>
-      <c r="I12" s="8">
-        <v>12</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="8">
-        <v>15</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="8">
-        <v>2022</v>
-      </c>
-      <c r="G13" s="8">
-        <v>10</v>
-      </c>
-      <c r="H13" s="8">
-        <v>2022</v>
-      </c>
-      <c r="I13" s="8">
-        <v>12</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>66</v>
+        <v>214</v>
+      </c>
+      <c r="C1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2">
+        <v>2024</v>
+      </c>
+      <c r="E2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2401,6 +2174,426 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA794A-9001-A74B-80D1-3BD53AFA6286}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.5">
+      <c r="A1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5">
+      <c r="A2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="8">
+        <v>30</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>2025</v>
+      </c>
+      <c r="I2" s="8">
+        <v>12</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5">
+      <c r="A3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="8">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G3" s="8">
+        <v>6</v>
+      </c>
+      <c r="H3" s="8">
+        <v>2023</v>
+      </c>
+      <c r="I3" s="8">
+        <v>6</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5">
+      <c r="A4" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2021</v>
+      </c>
+      <c r="G4" s="8">
+        <v>7</v>
+      </c>
+      <c r="H4" s="8">
+        <v>2022</v>
+      </c>
+      <c r="I4" s="8">
+        <v>6</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5">
+      <c r="A5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="8">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4</v>
+      </c>
+      <c r="H5" s="8">
+        <v>2022</v>
+      </c>
+      <c r="I5" s="8">
+        <v>12</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5">
+      <c r="A6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2016</v>
+      </c>
+      <c r="G6" s="8">
+        <v>9</v>
+      </c>
+      <c r="H6" s="8">
+        <v>2017</v>
+      </c>
+      <c r="I6" s="8">
+        <v>9</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5">
+      <c r="A7" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2016</v>
+      </c>
+      <c r="G7" s="8">
+        <v>8</v>
+      </c>
+      <c r="H7" s="8">
+        <v>2016</v>
+      </c>
+      <c r="I7" s="8">
+        <v>12</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5">
+      <c r="A8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2018</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8">
+        <v>2021</v>
+      </c>
+      <c r="I8" s="8">
+        <v>12</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5">
+      <c r="A9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8">
+        <v>2023</v>
+      </c>
+      <c r="I9" s="8">
+        <v>12</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5">
+      <c r="A10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2021</v>
+      </c>
+      <c r="G10" s="8">
+        <v>4</v>
+      </c>
+      <c r="H10" s="8">
+        <v>2023</v>
+      </c>
+      <c r="I10" s="8">
+        <v>12</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5">
+      <c r="A11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="8">
+        <v>2018</v>
+      </c>
+      <c r="G11" s="8">
+        <v>8</v>
+      </c>
+      <c r="H11" s="8">
+        <v>2020</v>
+      </c>
+      <c r="I11" s="8">
+        <v>6</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5">
+      <c r="A12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G12" s="8">
+        <v>8</v>
+      </c>
+      <c r="H12" s="8">
+        <v>2020</v>
+      </c>
+      <c r="I12" s="8">
+        <v>12</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.5">
+      <c r="A13" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="8">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="8">
+        <v>2022</v>
+      </c>
+      <c r="G13" s="8">
+        <v>10</v>
+      </c>
+      <c r="H13" s="8">
+        <v>2022</v>
+      </c>
+      <c r="I13" s="8">
+        <v>12</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2095B75-DB61-6845-8E62-D94BF38E48B3}">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -2408,7 +2601,7 @@
       <selection activeCell="A2" sqref="A2:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -2566,7 +2759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="16.5">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -2589,7 +2782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="16.5">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -2646,7 +2839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -2764,7 +2957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97835992-E917-4687-8577-521ABE5EB3AA}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -2772,9 +2965,9 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="15.234375" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2788,7 +2981,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30">
+    <row r="2" spans="1:3" ht="31.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2799,7 +2992,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="60">
+    <row r="3" spans="1:3" ht="63">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -2810,7 +3003,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45">
+    <row r="4" spans="1:3" ht="47.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -2821,7 +3014,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45">
+    <row r="5" spans="1:3" ht="47.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -2832,7 +3025,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45">
+    <row r="6" spans="1:3" ht="47.25">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -2860,7 +3053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F2145B-3863-3D45-AEBD-0C0EC00F327D}">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -2868,7 +3061,7 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -3085,7 +3278,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.649999999999999">
+    <row r="9" spans="1:9" ht="18.75">
       <c r="A9" s="2" t="s">
         <v>116</v>
       </c>
@@ -3163,7 +3356,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.649999999999999">
+    <row r="12" spans="1:9" ht="18.75">
       <c r="A12" s="2" t="s">
         <v>164</v>
       </c>
@@ -3192,7 +3385,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.649999999999999">
+    <row r="13" spans="1:9" ht="18.75">
       <c r="A13" s="2" t="s">
         <v>164</v>
       </c>
@@ -3221,7 +3414,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.649999999999999">
+    <row r="14" spans="1:9" ht="18.75">
       <c r="A14" s="2" t="s">
         <v>116</v>
       </c>
@@ -3305,7 +3498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043C31DB-9752-464C-8454-299AF5C51F83}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -3313,7 +3506,7 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -3531,7 +3724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48A253F-20F1-5F40-90A5-ADDA6B988307}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -3539,9 +3732,9 @@
       <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="47.87890625" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3586,7 +3779,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.149999999999999">
+    <row r="4" spans="1:4" ht="17.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3600,7 +3793,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.149999999999999">
+    <row r="5" spans="1:4" ht="17.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3614,7 +3807,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.149999999999999">
+    <row r="6" spans="1:4" ht="17.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3628,7 +3821,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.149999999999999">
+    <row r="7" spans="1:4" ht="17.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3648,7 +3841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D8C139-ACC1-6D4D-BEB1-4CC3D49C0724}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -3656,7 +3849,7 @@
       <selection activeCell="A6" sqref="A6:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -3672,7 +3865,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.649999999999999">
+    <row r="2" spans="1:6" ht="18.75">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3686,7 +3879,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.649999999999999">
+    <row r="3" spans="1:6" ht="18.75">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3700,7 +3893,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.649999999999999">
+    <row r="4" spans="1:6" ht="18.75">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3714,7 +3907,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.649999999999999">
+    <row r="5" spans="1:6" ht="18.75">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3728,7 +3921,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.649999999999999">
+    <row r="6" spans="1:6" ht="18.75">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3744,7 +3937,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="17.649999999999999">
+    <row r="7" spans="1:6" ht="18.75">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3760,7 +3953,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="17.649999999999999">
+    <row r="8" spans="1:6" ht="18.75">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3776,7 +3969,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="17.649999999999999">
+    <row r="9" spans="1:6" ht="18.75">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3796,105 +3989,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C14FA6-174E-FB43-BF02-E436B1D6FEA7}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.149999999999999">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D4">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.149999999999999">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6">
-        <v>2023</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wangge-github\CN-HET-Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CN-HET-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916BE7D2-7F6B-45FD-9005-979DE396DBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CB495F-5473-4BEE-92EF-41113DEC5F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="226">
   <si>
     <t>Chen, S., Zhang, Q., Wang, G., Zhu, L., Li, Y., 2018. Investment strategy for underground gas storage facilities based on real option model considering gas market reform in china. Energy Economics 70, 132–142. https://doi.org/10.1016/j.eneco.2017.12.034</t>
   </si>
@@ -1241,22 +1241,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>张奇，王歌，刘江枫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出版社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济管理出版社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛瑀璇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向碳中和的氢能重卡与加氢站协同发展优化研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭宇璇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第八届全国青年能源环境政策与管理学术会议优秀论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>碳中和技术决策优化与政策分析</t>
-  </si>
-  <si>
-    <t>张奇，王歌，刘江枫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出版社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经济管理出版社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1264,7 +1281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1365,13 +1382,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFED7D31"/>
       <name val="Menlo"/>
       <family val="2"/>
@@ -1416,7 +1426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1447,13 +1457,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1773,11 +1777,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D26B086-2910-434C-AB97-2AC2ABC062E1}">
   <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -2018,13 +2022,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C14FA6-174E-FB43-BF02-E436B1D6FEA7}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -2068,7 +2072,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.25">
+    <row r="4" spans="1:4" ht="16.149999999999999">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2082,7 +2086,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25">
+    <row r="5" spans="1:4" ht="16.149999999999999">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2108,6 +2112,20 @@
       </c>
       <c r="D6">
         <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7">
+        <v>2024</v>
       </c>
     </row>
   </sheetData>
@@ -2121,13 +2139,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FFF91B-78E0-4A8D-AC15-0F3D3EB2758B}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5">
+    <row r="1" spans="1:6">
       <c r="A1" s="8" t="s">
         <v>213</v>
       </c>
@@ -2141,7 +2159,7 @@
         <v>176</v>
       </c>
       <c r="E1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F1" t="s">
         <v>83</v>
@@ -2149,22 +2167,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
         <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D2">
         <v>2024</v>
       </c>
       <c r="E2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" t="s">
         <v>220</v>
-      </c>
-      <c r="F2" t="s">
-        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2181,9 +2199,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5">
+    <row r="1" spans="1:10">
       <c r="A1" s="8" t="s">
         <v>32</v>
       </c>
@@ -2215,7 +2233,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5">
+    <row r="2" spans="1:10">
       <c r="A2" s="8" t="s">
         <v>42</v>
       </c>
@@ -2247,7 +2265,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5">
+    <row r="3" spans="1:10">
       <c r="A3" s="8" t="s">
         <v>46</v>
       </c>
@@ -2279,7 +2297,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5">
+    <row r="4" spans="1:10">
       <c r="A4" s="8" t="s">
         <v>173</v>
       </c>
@@ -2311,7 +2329,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5">
+    <row r="5" spans="1:10">
       <c r="A5" s="8" t="s">
         <v>50</v>
       </c>
@@ -2343,7 +2361,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5">
+    <row r="6" spans="1:10">
       <c r="A6" s="8" t="s">
         <v>51</v>
       </c>
@@ -2375,7 +2393,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5">
+    <row r="7" spans="1:10">
       <c r="A7" s="8" t="s">
         <v>175</v>
       </c>
@@ -2405,7 +2423,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.5">
+    <row r="8" spans="1:10">
       <c r="A8" s="8" t="s">
         <v>54</v>
       </c>
@@ -2435,7 +2453,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5">
+    <row r="9" spans="1:10">
       <c r="A9" s="8" t="s">
         <v>56</v>
       </c>
@@ -2465,7 +2483,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5">
+    <row r="10" spans="1:10">
       <c r="A10" s="8" t="s">
         <v>59</v>
       </c>
@@ -2495,7 +2513,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5">
+    <row r="11" spans="1:10">
       <c r="A11" s="8" t="s">
         <v>61</v>
       </c>
@@ -2525,7 +2543,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5">
+    <row r="12" spans="1:10">
       <c r="A12" s="8" t="s">
         <v>64</v>
       </c>
@@ -2555,7 +2573,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5">
+    <row r="13" spans="1:10">
       <c r="A13" s="8" t="s">
         <v>114</v>
       </c>
@@ -2598,10 +2616,10 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H16"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -2759,7 +2777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -2782,7 +2800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -2839,7 +2857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -2962,12 +2980,12 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="34.9375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2981,55 +2999,55 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5">
-      <c r="A2" s="10">
+    <row r="2" spans="1:3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" t="s">
         <v>178</v>
       </c>
       <c r="C2">
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="63">
-      <c r="A3" s="10">
+    <row r="3" spans="1:3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" t="s">
         <v>179</v>
       </c>
       <c r="C3">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="47.25">
-      <c r="A4" s="10">
+    <row r="4" spans="1:3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" t="s">
         <v>192</v>
       </c>
       <c r="C4">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="47.25">
-      <c r="A5" s="10">
+    <row r="5" spans="1:3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" t="s">
         <v>193</v>
       </c>
       <c r="C5">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="47.25">
-      <c r="A6" s="10">
+    <row r="6" spans="1:3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" t="s">
         <v>180</v>
       </c>
       <c r="C6">
@@ -3055,13 +3073,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F2145B-3863-3D45-AEBD-0C0EC00F327D}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -3278,7 +3296,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75">
+    <row r="9" spans="1:9" ht="17.649999999999999">
       <c r="A9" s="2" t="s">
         <v>116</v>
       </c>
@@ -3356,7 +3374,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75">
+    <row r="12" spans="1:9" ht="17.649999999999999">
       <c r="A12" s="2" t="s">
         <v>164</v>
       </c>
@@ -3385,7 +3403,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75">
+    <row r="13" spans="1:9" ht="17.649999999999999">
       <c r="A13" s="2" t="s">
         <v>164</v>
       </c>
@@ -3414,7 +3432,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75">
+    <row r="14" spans="1:9" ht="17.649999999999999">
       <c r="A14" s="2" t="s">
         <v>116</v>
       </c>
@@ -3490,6 +3508,35 @@
       </c>
       <c r="H16" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17.649999999999999">
+      <c r="A17" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>2024</v>
+      </c>
+      <c r="E17">
+        <v>2025</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3506,7 +3553,7 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -3732,9 +3779,9 @@
       <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="3" max="3" width="47.87890625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3779,7 +3826,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.25">
+    <row r="4" spans="1:4" ht="16.149999999999999">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3793,7 +3840,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25">
+    <row r="5" spans="1:4" ht="16.149999999999999">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3807,11 +3854,11 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.25">
+    <row r="6" spans="1:4" ht="16.149999999999999">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>202</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -3821,11 +3868,11 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17.25">
+    <row r="7" spans="1:4" ht="16.149999999999999">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>202</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -3843,13 +3890,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D8C139-ACC1-6D4D-BEB1-4CC3D49C0724}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -3865,7 +3912,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75">
+    <row r="2" spans="1:6" ht="17.649999999999999">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3879,7 +3926,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75">
+    <row r="3" spans="1:6" ht="17.649999999999999">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3893,7 +3940,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75">
+    <row r="4" spans="1:6" ht="17.649999999999999">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3907,7 +3954,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75">
+    <row r="5" spans="1:6" ht="17.649999999999999">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3921,7 +3968,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75">
+    <row r="6" spans="1:6" ht="17.649999999999999">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3937,7 +3984,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="18.75">
+    <row r="7" spans="1:6" ht="17.649999999999999">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3953,7 +4000,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="18.75">
+    <row r="8" spans="1:6" ht="17.649999999999999">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3969,7 +4016,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="18.75">
+    <row r="9" spans="1:6" ht="17.649999999999999">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3984,6 +4031,20 @@
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="17.649999999999999">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2024</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" t="s">
+        <v>222</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CN-HET-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CB495F-5473-4BEE-92EF-41113DEC5F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5E4BBA-35D8-40E0-A50E-9B974D4CE585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" firstSheet="2" activeTab="9" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="227">
   <si>
     <t>Chen, S., Zhang, Q., Wang, G., Zhu, L., Li, Y., 2018. Investment strategy for underground gas storage facilities based on real option model considering gas market reform in china. Energy Economics 70, 132–142. https://doi.org/10.1016/j.eneco.2017.12.034</t>
   </si>
@@ -1274,6 +1274,10 @@
   </si>
   <si>
     <t>碳中和技术决策优化与政策分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十届全国大学生能源经济学术创意大赛华北电力大学校赛研究生组三等奖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1479,9 +1483,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1519,7 +1523,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1625,7 +1629,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1767,7 +1771,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1777,7 +1781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D26B086-2910-434C-AB97-2AC2ABC062E1}">
   <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
@@ -2022,10 +2026,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C14FA6-174E-FB43-BF02-E436B1D6FEA7}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
@@ -2125,6 +2129,20 @@
         <v>224</v>
       </c>
       <c r="D7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8">
         <v>2024</v>
       </c>
     </row>

--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CN-HET-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5E4BBA-35D8-40E0-A50E-9B974D4CE585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53F5829-1388-4BCC-A9FD-F7E6219EC94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" firstSheet="2" activeTab="9" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" firstSheet="2" activeTab="7" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="228">
   <si>
     <t>Chen, S., Zhang, Q., Wang, G., Zhu, L., Li, Y., 2018. Investment strategy for underground gas storage facilities based on real option model considering gas market reform in china. Energy Economics 70, 132–142. https://doi.org/10.1016/j.eneco.2017.12.034</t>
   </si>
@@ -609,9 +609,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周智宇</t>
-  </si>
-  <si>
     <r>
       <t>W供电公司产品创新研究</t>
     </r>
@@ -854,52 +851,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>华北电力大学2022届校级优秀毕业生</t>
-  </si>
-  <si>
-    <t>中国学术英语教学研究会“中国大学生 5 分钟科研英语演讲”全国总决赛特等奖</t>
-  </si>
-  <si>
-    <t>赵云瑞, 罗艺, 方桢</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFED7D31"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第九届全国大学生能源经济学术创意大赛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFED7D31"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>北京赛区二等奖</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>第九届全国大学生能源经济学术创意大赛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFED7D31"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>全国二等奖</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基于平台经济的货运行业新能源车推广机制研究</t>
   </si>
   <si>
@@ -1099,106 +1050,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFED7D31"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赵云瑞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFED7D31"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFED7D31"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>薛春晖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFED7D31"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFED7D31"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>罗艺</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFED7D31"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFED7D31"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方桢</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>第十届全国大学生能源经济学术创意大赛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFED7D31"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>北京赛区一等奖</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>第十届全国大学生能源经济学术创意大赛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFED7D31"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>全国三等奖</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>钱嘉琪</t>
   </si>
   <si>
@@ -1278,6 +1129,46 @@
   </si>
   <si>
     <t>第十届全国大学生能源经济学术创意大赛华北电力大学校赛研究生组三等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国学术英语教学研究会“中国大学生 5 分钟科研英语演讲”全国总决赛特等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华北电力大学2022届校级优秀毕业生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵云瑞, 罗艺, 方桢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨儒楠、王致远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第九届全国大学生能源经济学术创意大赛北京赛区二等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第九届全国大学生能源经济学术创意大赛全国二等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵云瑞, 薛春晖, 罗艺, 方桢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十届全国大学生能源经济学术创意大赛北京赛区一等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十届全国大学生能源经济学术创意大赛全国三等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十届全国大学生能源经济学术创意大赛华北电力大学校赛本科生组二等奖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1285,7 +1176,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1356,19 +1247,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFED7D31"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFED7D31"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFED7D31"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
     </font>
@@ -1386,23 +1264,9 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFED7D31"/>
-      <name val="Menlo"/>
+      <name val="Microsoft YaHei Light"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFED7D31"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFED7D31"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1430,7 +1294,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1443,25 +1307,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1793,142 +1651,142 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1948,38 +1806,38 @@
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="7" t="s">
-        <v>168</v>
+      <c r="A33" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="7" t="s">
-        <v>170</v>
+      <c r="A34" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="7" t="s">
-        <v>172</v>
+      <c r="A35" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="7" t="s">
-        <v>171</v>
+      <c r="A36" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +1886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C14FA6-174E-FB43-BF02-E436B1D6FEA7}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -2036,13 +1894,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
         <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" t="s">
         <v>91</v>
@@ -2053,10 +1911,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D2">
         <v>2023</v>
@@ -2067,10 +1925,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D3">
         <v>2023</v>
@@ -2081,10 +1939,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D4">
         <v>2023</v>
@@ -2095,10 +1953,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D5">
         <v>2023</v>
@@ -2109,10 +1967,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D6">
         <v>2023</v>
@@ -2123,10 +1981,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D7">
         <v>2024</v>
@@ -2137,10 +1995,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D8">
         <v>2024</v>
@@ -2164,20 +2022,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>214</v>
+      <c r="A1" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="C1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F1" t="s">
         <v>83</v>
@@ -2185,22 +2043,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D2">
         <v>2024</v>
       </c>
       <c r="E2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2220,406 +2078,406 @@
   <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>30</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <v>2023</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="6">
         <v>2025</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="6">
         <v>12</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>2020</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <v>6</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="6">
         <v>2023</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="6">
         <v>6</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>3</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>2021</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <v>7</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="6">
         <v>2022</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="6">
         <v>6</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>8</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>2020</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <v>4</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="6">
         <v>2022</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="6">
         <v>12</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="B6" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="6">
         <v>5</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>2016</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>9</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <v>2017</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="6">
         <v>9</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>2016</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <v>8</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="6">
         <v>2016</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="6">
         <v>12</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>2018</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <v>1</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="6">
         <v>2021</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="6">
         <v>12</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>2020</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="6">
         <v>2023</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="6">
         <v>12</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>2021</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <v>4</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <v>2023</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="6">
         <v>12</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>2018</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <v>8</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="6">
         <v>2020</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="6">
         <v>6</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <v>2020</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <v>8</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="6">
         <v>2020</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="6">
         <v>12</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>15</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <v>2022</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="6">
         <v>10</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="6">
         <v>2022</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="6">
         <v>12</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2676,7 +2534,7 @@
         <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2699,10 +2557,10 @@
         <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -2722,7 +2580,7 @@
         <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
         <v>96</v>
@@ -2751,7 +2609,7 @@
         <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D5" t="s">
         <v>99</v>
@@ -2903,7 +2761,7 @@
         <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -2926,10 +2784,10 @@
         <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -2949,10 +2807,10 @@
         <v>110</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D14" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -3008,13 +2866,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
         <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3022,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3033,7 +2891,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3044,7 +2902,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C4">
         <v>2018</v>
@@ -3055,7 +2913,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C5">
         <v>2018</v>
@@ -3066,7 +2924,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C6">
         <v>2024</v>
@@ -3077,7 +2935,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C7">
         <v>2024</v>
@@ -3394,10 +3252,10 @@
     </row>
     <row r="12" spans="1:9" ht="17.649999999999999">
       <c r="A12" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -3418,15 +3276,15 @@
         <v>77</v>
       </c>
       <c r="I12" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.649999999999999">
       <c r="A13" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -3447,7 +3305,7 @@
         <v>77</v>
       </c>
       <c r="I13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="17.649999999999999">
@@ -3530,10 +3388,10 @@
     </row>
     <row r="17" spans="1:9" ht="17.649999999999999">
       <c r="A17" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -3554,7 +3412,7 @@
         <v>77</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3575,7 +3433,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
         <v>91</v>
@@ -3595,10 +3453,10 @@
         <v>2020</v>
       </c>
       <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
         <v>134</v>
-      </c>
-      <c r="D2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3609,10 +3467,10 @@
         <v>2020</v>
       </c>
       <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" t="s">
         <v>136</v>
-      </c>
-      <c r="D3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3623,10 +3481,10 @@
         <v>2020</v>
       </c>
       <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" t="s">
         <v>138</v>
-      </c>
-      <c r="D4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3637,10 +3495,10 @@
         <v>2020</v>
       </c>
       <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" t="s">
         <v>140</v>
-      </c>
-      <c r="D5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3651,10 +3509,10 @@
         <v>2020</v>
       </c>
       <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
         <v>142</v>
-      </c>
-      <c r="D6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3665,10 +3523,10 @@
         <v>2021</v>
       </c>
       <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" t="s">
         <v>130</v>
-      </c>
-      <c r="D7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3679,10 +3537,10 @@
         <v>2021</v>
       </c>
       <c r="C8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" t="s">
         <v>132</v>
-      </c>
-      <c r="D8" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3693,10 +3551,10 @@
         <v>2022</v>
       </c>
       <c r="C9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" t="s">
         <v>126</v>
-      </c>
-      <c r="D9" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3707,10 +3565,10 @@
         <v>2022</v>
       </c>
       <c r="C10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" t="s">
         <v>128</v>
-      </c>
-      <c r="D10" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3721,7 +3579,7 @@
         <v>2023</v>
       </c>
       <c r="C11" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D11" t="s">
         <v>120</v>
@@ -3735,10 +3593,10 @@
         <v>2023</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3749,10 +3607,10 @@
         <v>2023</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3763,10 +3621,10 @@
         <v>2024</v>
       </c>
       <c r="C14" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D14" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3777,10 +3635,10 @@
         <v>2024</v>
       </c>
       <c r="C15" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D15" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3791,10 +3649,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48A253F-20F1-5F40-90A5-ADDA6B988307}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
@@ -3804,99 +3662,113 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
         <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+    <row r="2" spans="1:4" ht="16.899999999999999">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="8">
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+    <row r="3" spans="1:4" ht="16.899999999999999">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="8">
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.149999999999999">
-      <c r="A4">
+    <row r="4" spans="1:4" ht="16.899999999999999">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="8">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.149999999999999">
-      <c r="A5">
+    <row r="5" spans="1:4" ht="16.899999999999999">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="8">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.149999999999999">
-      <c r="A6">
+    <row r="6" spans="1:4" ht="16.899999999999999">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" s="8">
         <v>2024</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.149999999999999">
-      <c r="A7">
+    <row r="7" spans="1:4" ht="16.899999999999999">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D7">
+      <c r="B7" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.899999999999999">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="8">
         <v>2024</v>
       </c>
     </row>
@@ -3918,7 +3790,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
         <v>91</v>
@@ -3937,11 +3809,11 @@
       <c r="B2">
         <v>2023</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>151</v>
+      <c r="C2" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.649999999999999">
@@ -3951,11 +3823,11 @@
       <c r="B3">
         <v>2023</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>153</v>
+      <c r="C3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.649999999999999">
@@ -3965,11 +3837,11 @@
       <c r="B4">
         <v>2023</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>156</v>
+      <c r="C4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.649999999999999">
@@ -3979,11 +3851,11 @@
       <c r="B5">
         <v>2023</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>158</v>
+      <c r="C5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.649999999999999">
@@ -3993,14 +3865,14 @@
       <c r="B6">
         <v>2024</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="C6" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="17.649999999999999">
       <c r="A7">
@@ -4009,14 +3881,14 @@
       <c r="B7">
         <v>2024</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="C7" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="17.649999999999999">
       <c r="A8">
@@ -4025,14 +3897,14 @@
       <c r="B8">
         <v>2024</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="C8" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="17.649999999999999">
       <c r="A9">
@@ -4041,14 +3913,14 @@
       <c r="B9">
         <v>2024</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="C9" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="17.649999999999999">
       <c r="A10">
@@ -4057,11 +3929,11 @@
       <c r="B10">
         <v>2024</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>221</v>
+      <c r="C10" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="D10" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CN-HET-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53F5829-1388-4BCC-A9FD-F7E6219EC94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9600A3AE-4906-4513-87E9-0D777A6CFDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" firstSheet="2" activeTab="7" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="230">
   <si>
     <t>Chen, S., Zhang, Q., Wang, G., Zhu, L., Li, Y., 2018. Investment strategy for underground gas storage facilities based on real option model considering gas market reform in china. Energy Economics 70, 132–142. https://doi.org/10.1016/j.eneco.2017.12.034</t>
   </si>
@@ -1169,6 +1169,14 @@
   </si>
   <si>
     <t>第十届全国大学生能源经济学术创意大赛华北电力大学校赛本科生组二等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全国碳捕集、利用与封存（CCUS）技术研讨会优秀论文二等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yin, T., Chen, S., Wang, G., Tan, Y., Teng, F., Zhang, Q., 2024. Can Subsidy Policies Achieve Fuel Cell Logistics Vehicle (FCLV) Promotion Targets? Evidence from the Beijing-Tianjin-Hebei Fuel Cell Vehicle Demonstration City Cluster in China. Energy 133270. https://doi.org/10.1016/j.energy.2024.133270</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1637,10 +1645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D26B086-2910-434C-AB97-2AC2ABC062E1}">
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
@@ -1838,6 +1846,11 @@
     <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="5" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -1877,6 +1890,7 @@
     <hyperlink ref="A36" r:id="rId32" display="https://doi.org/10.1016/j.energy.2024.130830" xr:uid="{1692811C-DDCD-449F-B771-971B059B4DA8}"/>
     <hyperlink ref="A38" r:id="rId33" display="https://doi.org/10.2139/ssrn.4761945" xr:uid="{D8F4F9DD-75F4-4391-8E66-93DF15C7CBFA}"/>
     <hyperlink ref="A39" r:id="rId34" display="https://doi.org/10.2139/ssrn.4671244" xr:uid="{9AA03955-F948-44BC-8084-ADC7599E413C}"/>
+    <hyperlink ref="A40" r:id="rId35" display="https://doi.org/10.1016/j.energy.2024.133270" xr:uid="{283DFC01-4C78-4682-A678-FEEDCD4449CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1884,10 +1898,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C14FA6-174E-FB43-BF02-E436B1D6FEA7}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
@@ -1962,7 +1976,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="16.149999999999999">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1970,10 +1984,10 @@
         <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>228</v>
       </c>
       <c r="D6">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1981,13 +1995,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="D7">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1995,12 +2009,26 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>160</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>217</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>2024</v>
       </c>
     </row>
@@ -3651,7 +3679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48A253F-20F1-5F40-90A5-ADDA6B988307}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CN-HET-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9600A3AE-4906-4513-87E9-0D777A6CFDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4D93C3-00BB-443F-A9BC-D8E3380D4509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="234">
   <si>
     <t>Chen, S., Zhang, Q., Wang, G., Zhu, L., Li, Y., 2018. Investment strategy for underground gas storage facilities based on real option model considering gas market reform in china. Energy Economics 70, 132–142. https://doi.org/10.1016/j.eneco.2017.12.034</t>
   </si>
@@ -1177,6 +1177,22 @@
   </si>
   <si>
     <t>Yin, T., Chen, S., Wang, G., Tan, Y., Teng, F., Zhang, Q., 2024. Can Subsidy Policies Achieve Fuel Cell Logistics Vehicle (FCLV) Promotion Targets? Evidence from the Beijing-Tianjin-Hebei Fuel Cell Vehicle Demonstration City Cluster in China. Energy 133270. https://doi.org/10.1016/j.energy.2024.133270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳管理学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李彦斌,王辉, 张硕, 李赟, 王歌, 张峰, 薛晓达, 张玥, 陈思源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国电力出版社</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1349,9 +1365,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1389,7 +1405,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1495,7 +1511,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1637,7 +1653,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1647,11 +1663,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D26B086-2910-434C-AB97-2AC2ABC062E1}">
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1904,7 +1920,7 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1948,7 +1964,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.149999999999999">
+    <row r="4" spans="1:4" ht="17.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1962,7 +1978,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.149999999999999">
+    <row r="5" spans="1:4" ht="17.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1976,7 +1992,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.149999999999999">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2041,15 +2057,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FFF91B-78E0-4A8D-AC15-0F3D3EB2758B}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="16.5">
       <c r="A1" s="6" t="s">
         <v>204</v>
       </c>
@@ -2087,6 +2103,26 @@
       </c>
       <c r="F2" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3">
+        <v>2023</v>
+      </c>
+      <c r="E3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F3" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2103,9 +2139,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="16.5">
       <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
@@ -2137,7 +2173,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="16.5">
       <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
@@ -2169,7 +2205,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="16.5">
       <c r="A3" s="6" t="s">
         <v>46</v>
       </c>
@@ -2201,7 +2237,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="6" t="s">
         <v>167</v>
       </c>
@@ -2233,7 +2269,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="16.5">
       <c r="A5" s="6" t="s">
         <v>50</v>
       </c>
@@ -2265,7 +2301,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="16.5">
       <c r="A6" s="6" t="s">
         <v>51</v>
       </c>
@@ -2297,7 +2333,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="16.5">
       <c r="A7" s="6" t="s">
         <v>169</v>
       </c>
@@ -2327,7 +2363,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="16.5">
       <c r="A8" s="6" t="s">
         <v>54</v>
       </c>
@@ -2357,7 +2393,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="6" t="s">
         <v>56</v>
       </c>
@@ -2387,7 +2423,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="16.5">
       <c r="A10" s="6" t="s">
         <v>59</v>
       </c>
@@ -2417,7 +2453,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="6" t="s">
         <v>61</v>
       </c>
@@ -2447,7 +2483,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="16.5">
       <c r="A12" s="6" t="s">
         <v>64</v>
       </c>
@@ -2477,7 +2513,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="16.5">
       <c r="A13" s="6" t="s">
         <v>114</v>
       </c>
@@ -2523,7 +2559,7 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -2681,7 +2717,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="16.5">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -2704,7 +2740,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="16.5">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -2761,7 +2797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -2887,9 +2923,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="34.9375" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2983,7 +3019,7 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -3200,7 +3236,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.649999999999999">
+    <row r="9" spans="1:9" ht="18.75">
       <c r="A9" s="2" t="s">
         <v>116</v>
       </c>
@@ -3278,7 +3314,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.649999999999999">
+    <row r="12" spans="1:9" ht="18.75">
       <c r="A12" s="2" t="s">
         <v>158</v>
       </c>
@@ -3307,7 +3343,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.649999999999999">
+    <row r="13" spans="1:9" ht="18.75">
       <c r="A13" s="2" t="s">
         <v>158</v>
       </c>
@@ -3336,7 +3372,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.649999999999999">
+    <row r="14" spans="1:9" ht="18.75">
       <c r="A14" s="2" t="s">
         <v>116</v>
       </c>
@@ -3414,7 +3450,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.649999999999999">
+    <row r="17" spans="1:9" ht="18.75">
       <c r="A17" s="2" t="s">
         <v>158</v>
       </c>
@@ -3457,7 +3493,7 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -3683,9 +3719,9 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="47.87890625" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3702,7 +3738,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.899999999999999">
+    <row r="2" spans="1:4" ht="17.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -3716,7 +3752,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.899999999999999">
+    <row r="3" spans="1:4" ht="17.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -3730,7 +3766,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.899999999999999">
+    <row r="4" spans="1:4" ht="17.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -3744,7 +3780,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.899999999999999">
+    <row r="5" spans="1:4" ht="17.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -3758,7 +3794,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.899999999999999">
+    <row r="6" spans="1:4" ht="17.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -3772,7 +3808,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.899999999999999">
+    <row r="7" spans="1:4" ht="17.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -3786,7 +3822,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.899999999999999">
+    <row r="8" spans="1:4" ht="17.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -3814,7 +3850,7 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -3830,7 +3866,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.649999999999999">
+    <row r="2" spans="1:6" ht="18.75">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3844,7 +3880,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.649999999999999">
+    <row r="3" spans="1:6" ht="18.75">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3858,7 +3894,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.649999999999999">
+    <row r="4" spans="1:6" ht="18.75">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3872,7 +3908,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.649999999999999">
+    <row r="5" spans="1:6" ht="18.75">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3886,7 +3922,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.649999999999999">
+    <row r="6" spans="1:6" ht="18.75">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3902,7 +3938,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="17.649999999999999">
+    <row r="7" spans="1:6" ht="18.75">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3918,7 +3954,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="17.649999999999999">
+    <row r="8" spans="1:6" ht="18.75">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3934,7 +3970,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="17.649999999999999">
+    <row r="9" spans="1:6" ht="18.75">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3950,7 +3986,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="17.649999999999999">
+    <row r="10" spans="1:6" ht="18.75">
       <c r="A10">
         <v>9</v>
       </c>

--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CN-HET-Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/CN-HET-Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4D93C3-00BB-443F-A9BC-D8E3380D4509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531F1297-8712-8448-91F8-D6DB76008966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="-5300" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="指导研究生毕业论文" sheetId="7" r:id="rId9"/>
     <sheet name="研究生获得奖励" sheetId="8" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">发表论文!$A$2:$A$82</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,100 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="234">
-  <si>
-    <t>Chen, S., Zhang, Q., Wang, G., Zhu, L., Li, Y., 2018. Investment strategy for underground gas storage facilities based on real option model considering gas market reform in china. Energy Economics 70, 132–142. https://doi.org/10.1016/j.eneco.2017.12.034</t>
-  </si>
-  <si>
-    <t>Li, Y., Li, H., Wang, G., Liu, X., Zhang, Q., 2019a. Study on the optimal deployment for photovoltaic components recycle in china. Energy Procedia 158, 4298–4303. https://doi.org/10.1016/j.egypro.2019.01.794</t>
-  </si>
-  <si>
-    <t>Li, Y., Wang, G., Mclellan, B., Chen, S.-Y., Zhang, Q., 2018a. Study of the impacts of upstream natural gas market reform in china on infrastructure deployment and social welfare using an SVM-based rolling horizon stochastic game analysis. Petroleum Science 15, 898–911. https://doi.org/10.1007/s12182-018-0238-x</t>
-  </si>
-  <si>
-    <t>Li, Y., Wang, G., Shen, B., Zhang, Q., Liu, B., Xu, R., 2021a. Conception and policy implications of photovoltaic modules end-of-life management in China. WIREs Energy and Environment 10, e387. https://doi.org/10.1002/wene.387</t>
-  </si>
-  <si>
-    <t>Li, Y., Zhang, Q., Wang, G., Liu, X., McLellan, B., 2021b. Modeling and Policy Study for Information Asymmetry Problem of Photovoltaic Module Quality in China. Emerging Markets Finance and Trade 57, 653–667. https://doi.org/10.1080/1540496X.2019.1604337</t>
-  </si>
-  <si>
-    <t>Li, Y., Zhang, Q., Wang, G., Liu, X., Mclellan, B., 2019b. Promotion policies for third party financing in photovoltaic poverty alleviation projects considering social reputation. Journal of Cleaner Production 211, 350–359. https://doi.org/10.1016/j.jclepro.2018.11.179</t>
-  </si>
-  <si>
-    <t>Li, Y., Zhang, Q., Wang, G., Lu, X., 2022. Recycling schemes and supporting policies modeling for photovoltaic modules considering heterogeneous risks. Resources, Conservation and Recycling 180, 106165. https://doi.org/10.1016/j.resconrec.2022.106165</t>
-  </si>
-  <si>
-    <t>Li, Y., Zhang, Q., Wang, G., McLellan, B., Liu, X.F., Wang, L., 2018b. A review of photovoltaic poverty alleviation projects in china: current status, challenge and policy recommendations. Renewable and Sustainable Energy Reviews 94, 214–223. https://doi.org/10.1016/j.rser.2018.06.012</t>
-  </si>
-  <si>
-    <t>Su, D., Zhang, Q., Wang, G., Li, H., 2015. Market analysis of natural gas for district heating in china. Energy Procedia, Clean, Efficient and Affordable Energy for a Sustainable Future: The 7th International Conference on Applied Energy (ICAE2015) 75, 2713–2717. https://doi.org/10.1016/j.egypro.2015.07.693</t>
-  </si>
-  <si>
-    <t>Tang, Y., Zhang, Q., Li, Yaoming, Wang, G., Li, Yan, 2018. Recycling mechanisms and policy suggestions for spent electric vehicles’ power battery -a case of beijing. Journal of Cleaner Production 186, 388–406. https://doi.org/10.1016/j.jclepro.2018.03.043</t>
-  </si>
-  <si>
-    <t>Teng, F., Zhang, Q., Wang, G., Liu, J., Li, H., 2021. A comprehensive review of energy blockchain: Application scenarios and development trends. Int J Energy Res er.7109. https://doi.org/10.1002/er.7109</t>
-  </si>
-  <si>
-    <t>Tian, R., Zhang, Q., Wang, G., 2015. Market analysis of natural gas for power generation in china. Energy Procedia, Clean, Efficient and Affordable Energy for a Sustainable Future: The 7th International Conference on Applied Energy (ICAE2015) 75, 2718–2723. https://doi.org/10.1016/j.egypro.2015.07.699</t>
-  </si>
-  <si>
-    <t>Tian, R., Zhang, Q., Wang, G., Li, H., Chen, S., Li, Y., Tian, Y., 2017. Study on the promotion of natural gas-fired electricity with energy market reform in china using a dynamic game-theoretic model. Applied Energy, Clean, Efficient and Affordable Energy for a Sustainable Future 185, Part 2, 1832–1839. https://doi.org/10.1016/j.apenergy.2015.11.079</t>
-  </si>
-  <si>
-    <t>Wang, G., Zhang, Q., Li, H., Li, Y., Chen, S., 2017a. The impact of social network on the adoption of real-time electricity pricing mechanism. Energy Procedia 142, 3154–3159. https://doi.org/10.1016/j.egypro.2017.12.383</t>
-  </si>
-  <si>
-    <t>Wang, G., Zhang, Q., Li, H., McLellan, B.C., Chen, S., Li, Y., Tian, Y., 2017b. Study on the promotion impact of demand response on distributed PV penetration by using non-cooperative game theoretical analysis. Applied Energy 185, 1869–1878. https://doi.org/10.1016/j.apenergy.2016.01.016</t>
-  </si>
-  <si>
-    <t>Wang, G., Zhang, Q., Li, Y., Li, H., 2018. Policy simulation for promoting residential PV considering anecdotal information exchanges based on social network modelling. Applied Energy 223, 1–10. https://doi.org/10.1016/j.apenergy.2018.04.028</t>
-  </si>
-  <si>
-    <t>Wang, G., Zhang, Q., Li, Y., Mclellan, B.C., 2019a. Efficient and equitable allocation of renewable portfolio standards targets among china’s provinces. Energy Policy 125, 170–180. https://doi.org/10.1016/j.enpol.2018.10.044</t>
-  </si>
-  <si>
-    <t>Wang, G., Zhang, Q., Li, Y., Mclellan, B.C., Pan, X., 2019b. Corrective regulations on renewable energy certificates trading: pursuing an equity-efficiency trade-off. Energy Economics 80, 970–982. https://doi.org/10.1016/j.eneco.2019.03.008</t>
-  </si>
-  <si>
-    <t>Wang, G., Zhang, Q., Mclellan, B.C., Li, H., 2016. Multi-region optimal deployment of renewable energy considering different interregional transmission scenarios. Energy, Sustainable Energy and Environmental Protection 2014 108, 108–118. https://doi.org/10.1016/j.energy.2015.08.060</t>
-  </si>
-  <si>
-    <t>Wang, G., Zhang, Q., Su, B., Shen, B., Li, Y., Li, Z., 2021. Coordination of tradable carbon emission permits market and renewable electricity certificates market in China. Energy Economics 93, 105038. https://doi.org/10.1016/j.eneco.2020.105038</t>
-  </si>
-  <si>
-    <t>Wang, G., Zhang, Q., Tian, R., Li, H., 2015. Combined impacts of RTP and FIT on optimal management for a residential micro-grid. Energy Procedia, Clean, Efficient and Affordable Energy for a Sustainable Future: The 7th International Conference on Applied Energy (ICAE2015) 75, 1666–1672. https://doi.org/10.1016/j.egypro.2015.07.410</t>
-  </si>
-  <si>
-    <t>Yan, J., Wang, G., Chen, S., Zhang, H., Qian, J., Mao, Y., 2022. Harnessing freight platforms to promote the penetration of long-haul heavy-duty hydrogen fuel-cell trucks. Energy 254, 124225. https://doi.org/10.1016/j.energy.2022.124225</t>
-  </si>
-  <si>
-    <t>Zhang, Q., Li, Y., Li, H., Wang, G., Chen, S., 2017a. Study on the impacts of the LNG market reform in china using a SVM based rolling horizon stochastic game analysis. Energy Procedia 105, 3850–3855. https://doi.org/10.1016/j.egypro.2017.03.786</t>
-  </si>
-  <si>
-    <t>Zhang, Q., Li, Z., Wang, G., Li, H., 2016. Study on the impacts of natural gas supply cost on gas flow and infrastructure deployment in china. Applied Energy 162, 1385–1398. https://doi.org/10.1016/j.apenergy.2015.06.058</t>
-  </si>
-  <si>
-    <t>Zhang, Q., Liu, J., Yang, K., Liu, B., Wang, G., 2022. Market adoption simulation of electric vehicle based on social network model considering nudge policies. Energy 259, 124984. https://doi.org/10.1016/j.energy.2022.124984</t>
-  </si>
-  <si>
-    <t>Zhang, Q., Wang, G., Li, H., Li, Y., Chen, S., 2017b. Study on the implementation pathways and key impacts of RPS target in china using a dynamic game-theoretical equilibrium power market model. Energy Procedia 105, 3844–3849. https://doi.org/10.1016/j.egypro.2017.03.784</t>
-  </si>
-  <si>
-    <t>Zhang, Q., Wang, G., Li, Y., Li, H., McLellan, B., Chen, S., 2018. Substitution effect of renewable portfolio standards and renewable energy certificate trading for feed-in tariff. Applied Energy 227, 426–435. https://doi.org/10.1016/j.apenergy.2017.07.118</t>
-  </si>
-  <si>
-    <t>Zhu, L., Lu, H., Zhang, Q., Li, H., Pan, X., Wang, G., Li, Y., 2016. Application of crowdfunding on the financing of EV’s charging piles. Energy Procedia, Clean Energy for Clean City: CUE 2016--Applied Energy Symposium and Forum: Low-Carbon Cities and Urban Energy Systems 104, 336–341. https://doi.org/10.1016/j.egypro.2016.12.057</t>
-  </si>
-  <si>
-    <t>刘雪飞, 张奇, 李彦, 余乐安, 王歌, 2020. 普惠金融支持光伏发电发展的空间效应研究. 中国管理科学 1–10.</t>
-  </si>
-  <si>
-    <t>张奇, 李彦, 王歌, 朱丽晶, 胡滢, 王乐, 2019. 基于复杂网络的电动汽车充电桩众筹市场信用风险建模与分析. 中国管理科学 27, 66–74.</t>
-  </si>
-  <si>
-    <t>陈思源, 张奇, 王歌, 李彦, 2016. 基于博弈分析的我国天然气储气库开发策略及运营模式研究. 石油科学通报 175–182.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="235">
   <si>
     <t>papers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -920,26 +830,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Teng, F., Zhang, Q., Chen, S., Wang, G., Huang, Z., Wang, L., 2024. Comprehensive effects of policy mixes on the diffusion of heavy-duty hydrogen fuel cell electric trucks in China considering technology learning. Energy Policy 185, 113961. https://doi.org/10.1016/j.enpol.2023.113961</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>承担8学时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘玮, 万燕鸣, 陈思源, 刘畅, 刘琦, 张岩, 王歌, 2023. 基于场景模拟的公路货运新能源车成本效益分析研究. 中国环境科学 43, 5624–5632. https://doi.org/10.19674/j.cnki.issn1000-6923.20230808.003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gao Z, Zhang Q, Liu B, Liu J, Wang G, Ni R, Yang K,  2024. The driving factors and mitigation strategy of CO2 emissions from China’s passenger vehicle sector towards carbon neutrality. Energy 294:130830. https://doi.org/10.1016/j.energy.2024.130830.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang, L., Zhang, Q., Liu, J., Wang, G., 2024. Science mapping the knowledge domain of electrochemical energy storage technology: A bibliometric review. Journal of Energy Storage 77, 109819. https://doi.org/10.1016/j.est.2023.109819</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基于“车-电”协同的北京市碳中和路径优化与政策创新研究</t>
   </si>
   <si>
@@ -999,17 +893,6 @@
     <t>碳中和关键金属技术-经济-政策决策优化系统软件</t>
   </si>
   <si>
-    <t>王歌, 张奇, 李彦, 余乐安, 2024. 区块链共享模式下的分布式光伏扩散演化模拟. 系统工程学报 39:189–99. https://doi.org/10.13383/j.cnki.jse.2024.02.003.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liu, J., Zhang, Q., Teng, F., Wang, L., Wang, G., 2024. A New Investment Decision-Making Model of Hydrogen Energy Storage Technology Based on Real-Time Operation Optimization and Learning Effects. Journal of Energy Storage 96, 112745. https://doi.org/10.2139/ssrn.4761945</t>
-  </si>
-  <si>
-    <t>Zhang, Q., Liu, J., Wang, G., Gao, Z., 2024. A New Optimization Model for Carbon Capture Utilization and Storage (Ccus) Layout Based on High-Resolution Geological Variability. Applied Energy. https://doi.org/10.2139/ssrn.4671244</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>油气生产和消费革命战略分析软件平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1176,10 +1059,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Yin, T., Chen, S., Wang, G., Tan, Y., Teng, F., Zhang, Q., 2024. Can Subsidy Policies Achieve Fuel Cell Logistics Vehicle (FCLV) Promotion Targets? Evidence from the Beijing-Tianjin-Hebei Fuel Cell Vehicle Demonstration City Cluster in China. Energy 133270. https://doi.org/10.1016/j.energy.2024.133270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>碳管理学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1194,6 +1073,126 @@
   <si>
     <t>中国电力出版社</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈思源, 张奇, 王歌, 李彦. 基于博弈分析的我国天然气储气库开发策略及运营模式研究[J]. 石油科学通报, 2016(01): 175-182.</t>
+  </si>
+  <si>
+    <t>刘玮, 万燕鸣, 陈思源, 刘畅, 刘琦, 张岩, 王歌. 基于场景模拟的公路货运新能源车成本效益分析研究[J/OL]. 中国环境科学, 2023, 43(10): 5624-5632. DOI:10.19674/j.cnki.issn1000-6923.20230808.003.</t>
+  </si>
+  <si>
+    <t>刘雪飞, 张奇, 李彦, 余乐安, 王歌. 普惠金融支持光伏发电发展的空间效应研究[J/OL]. 中国管理科学, 2021, 29(8): 24-34. DOI:10.16381/j.cnki.issn1003-207x.2019.2128.</t>
+  </si>
+  <si>
+    <t>王歌, 张奇, 李彦, 余乐安. 区块链共享模式下的分布式光伏扩散演化模拟[J/OL]. 系统工程学报, 2024, 39(2): 189-199. DOI:10.13383/j.cnki.jse.2024.02.003.</t>
+  </si>
+  <si>
+    <t>张奇, 李彦, 王歌, 朱丽晶, 胡滢, 王乐. 基于复杂网络的电动汽车充电桩众筹市场信用风险建模与分析[J]. 中国管理科学, 2019, 27(08): 66-74.</t>
+  </si>
+  <si>
+    <t>Chen Siyuan, Zhang Qi, Wang Ge, Zhu Lijing, Li Yan. Investment strategy for underground gas storage facilities based on real option model considering gas market reform in china[J/OL]. Energy Economics, 2018, 70: 132-142. DOI:10.1016/j.eneco.2017.12.034.</t>
+  </si>
+  <si>
+    <t>Gao Zhihui, Zhang Qi, Liu Boyu, Liu Jiangfeng, Wang Ge, Ni Ruiyan, Yang Kexin. The driving factors and mitigation strategy of CO2 emissions from China’s passenger vehicle sector towards carbon neutrality[J/OL]. Energy, 2024, 294: 130830. DOI:10.1016/j.energy.2024.130830.</t>
+  </si>
+  <si>
+    <t>Li Yan, Li Hailong, Wang Ge, Liu Xuefei, Zhang Qi. Study on the optimal deployment for photovoltaic components recycle in china[J/OL]. Energy Procedia, 2019, 158: 4298-4303. DOI:10.1016/j.egypro.2019.01.794.</t>
+  </si>
+  <si>
+    <t>Li Yan, Wang Ge, Mclellan Benjamin, Chen Si-Yuan, Zhang Qi. Study of the impacts of upstream natural gas market reform in china on infrastructure deployment and social welfare using an SVM-based rolling horizon stochastic game analysis[J/OL]. Petroleum Science, 2018, 15(4): 898-911. DOI:10.1007/s12182-018-0238-x.</t>
+  </si>
+  <si>
+    <t>Li Yan, Wang Ge, Shen Bo, Zhang Qi, Liu Boyu, Xu Ruoxi. Conception and policy implications of photovoltaic modules end-of-life management in China[J/OL]. WIREs Energy and Environment, 2021, 10(1): e387. DOI:https://doi.org/10.1002/wene.387.</t>
+  </si>
+  <si>
+    <t>Li Yan, Zhang Qi, Wang Ge, McLellan Benjamin, Liu Xue Fei, Wang Le. A review of photovoltaic poverty alleviation projects in china: current status, challenge and policy recommendations[J/OL]. Renewable and Sustainable Energy Reviews, 2018, 94: 214-223. DOI:10.1016/j.rser.2018.06.012.</t>
+  </si>
+  <si>
+    <t>Li Yan, Zhang Qi, Wang Ge, Liu Xuefei, Mclellan Benjamin. Promotion policies for third party financing in photovoltaic poverty alleviation projects considering social reputation[J/OL]. Journal of Cleaner Production, 2019, 211: 350-359. DOI:10.1016/j.jclepro.2018.11.179.</t>
+  </si>
+  <si>
+    <t>Li Yan, Zhang Qi, Wang Ge, Liu Xuefei, McLellan Benjamin. Modeling and Policy Study for Information Asymmetry Problem of Photovoltaic Module Quality in China[J/OL]. Emerging Markets Finance and Trade, 2021, 57(3): 653-667. DOI:10.1080/1540496X.2019.1604337.</t>
+  </si>
+  <si>
+    <t>Li Yan, Zhang Qi, Wang Ge, Lu Xi. Recycling schemes and supporting policies modeling for photovoltaic modules considering heterogeneous risks[J/OL]. Resources, Conservation and Recycling, 2022, 180: 106165. DOI:10.1016/j.resconrec.2022.106165.</t>
+  </si>
+  <si>
+    <t>Liu Jiangfeng, Zhang Qi, Teng Fei, Wang Lu, Wang Ge. A New Investment Decision-Making Model of Hydrogen Energy Storage Technology Based on Real-Time Operation Optimization and Learning Effects[J/OL]. Journal of Energy Storage, 2024, 96: 112745. DOI:10.2139/ssrn.4761945.</t>
+  </si>
+  <si>
+    <t>Qian Jiaqi, Wang Ge, Yin Ting, Mao Yuxuan, Chen Siyuan, Li Yan, Liu Jiangfeng, Zhang Qi. Policy implications of electrifying land freight transport towards carbon-neutral in China[J/OL]. Transport Policy, 2025, 160: 116-124. DOI:10.1016/j.tranpol.2024.11.004.</t>
+  </si>
+  <si>
+    <t>Su Difei, Zhang Qi, Wang Ge, Li Hailong. Market analysis of natural gas for district heating in china[J/OL]. Energy Procedia, 2015, 75: 2713-2717. DOI:10.1016/j.egypro.2015.07.693.</t>
+  </si>
+  <si>
+    <t>Tang Yanyan, Zhang Qi, Li Yaoming, Wang Ge, Li Yan. Recycling mechanisms and policy suggestions for spent electric vehicles’ power battery -a case of beijing[J/OL]. Journal of Cleaner Production, 2018, 186: 388-406. DOI:10.1016/j.jclepro.2018.03.043.</t>
+  </si>
+  <si>
+    <t>Teng Fei, Zhang Qi, Chen Siyuan, Wang Ge, Huang Zhenyue, Wang Lu. Comprehensive effects of policy mixes on the diffusion of heavy-duty hydrogen fuel cell electric trucks in China considering technology learning[J/OL]. Energy Policy, 2024, 185: 113961. DOI:10.1016/j.enpol.2023.113961.</t>
+  </si>
+  <si>
+    <t>Teng Fei, Zhang Qi, Wang Ge, Liu Jiangfeng, Li Hailong. A comprehensive review of energy blockchain: Application scenarios and development trends[J/OL]. International Journal of Energy Research, 2021: er.7109. DOI:10.1002/er.7109.</t>
+  </si>
+  <si>
+    <t>Tian Ruijie, Zhang Qi, Wang Ge. Market analysis of natural gas for power generation in china[J/OL]. Energy Procedia, 2015, 75: 2718-2723. DOI:10.1016/j.egypro.2015.07.699.</t>
+  </si>
+  <si>
+    <t>Tian Ruijie, Zhang Qi, Wang Ge, Li Hailong, Chen Siyuan, Li Yan, Tian Yulu. Study on the promotion of natural gas-fired electricity with energy market reform in china using a dynamic game-theoretic model[J/OL]. Applied Energy, 2017, 185, Part 2: 1832-1839. DOI:10.1016/j.apenergy.2015.11.079.</t>
+  </si>
+  <si>
+    <t>Wang Ge, Zhang Qi, Li Hailong, McLellan Benjamin C., Chen Siyuan, Li Yan, Tian Yulu. Study on the promotion impact of demand response on distributed PV penetration by using non-cooperative game theoretical analysis[J/OL]. Applied Energy, 2017, 185: 1869-1878. DOI:10.1016/j.apenergy.2016.01.016.</t>
+  </si>
+  <si>
+    <t>Wang Ge, Zhang Qi, Li Hailong, Li Yan, Chen Siyuan. The impact of social network on the adoption of real-time electricity pricing mechanism[J/OL]. Energy Procedia, 2017, 142: 3154-3159. DOI:10.1016/j.egypro.2017.12.383.</t>
+  </si>
+  <si>
+    <t>Wang Ge, Zhang Qi, Li Yan, Li Hailong. Policy simulation for promoting residential PV considering anecdotal information exchanges based on social network modelling[J/OL]. Applied Energy, 2018, 223: 1-10. DOI:10.1016/j.apenergy.2018.04.028.</t>
+  </si>
+  <si>
+    <t>Wang Ge, Zhang Qi, Li Yan, Mclellan Benjamin C. Efficient and equitable allocation of renewable portfolio standards targets among china’s provinces[J/OL]. Energy Policy, 2019, 125: 170-180. DOI:10.1016/j.enpol.2018.10.044.</t>
+  </si>
+  <si>
+    <t>Wang Ge, Zhang Qi, Li Yan, Mclellan Benjamin C., Pan Xunzhang. Corrective regulations on renewable energy certificates trading: pursuing an equity-efficiency trade-off[J/OL]. Energy Economics, 2019, 80: 970-982. DOI:10.1016/j.eneco.2019.03.008.</t>
+  </si>
+  <si>
+    <t>Wang Ge, Zhang Qi, Mclellan Benjamin C., Li Hailong. Multi-region optimal deployment of renewable energy considering different interregional transmission scenarios[J/OL]. Energy, 2016, 108: 108-118. DOI:10.1016/j.energy.2015.08.060.</t>
+  </si>
+  <si>
+    <t>Wang Ge, Zhang Qi, Su Bin, Shen Bo, Li Yan, Li Zhengjun. Coordination of tradable carbon emission permits market and renewable electricity certificates market in China[J/OL]. Energy Economics, 2021, 93: 105038. DOI:10.1016/j.eneco.2020.105038.</t>
+  </si>
+  <si>
+    <t>Wang Ge, Zhang Qi, Tian Ruijie, Li Hailong. Combined impacts of RTP and FIT on optimal management for a residential micro-grid[J/OL]. Energy Procedia, 2015, 75: 1666-1672. DOI:10.1016/j.egypro.2015.07.410.</t>
+  </si>
+  <si>
+    <t>Wang Lu, Zhang Qi, Liu Jiangfeng, Wang Ge. Science mapping the knowledge domain of electrochemical energy storage technology: A bibliometric review[J/OL]. Journal of Energy Storage, 2024, 77: 109819. DOI:10.1016/j.est.2023.109819.</t>
+  </si>
+  <si>
+    <t>Yan Jiaze, Wang Ge, Chen Siyuan, Zhang He, Qian Jiaqi, Mao Yuxuan. Harnessing freight platforms to promote the penetration of long-haul heavy-duty hydrogen fuel-cell trucks[J/OL]. Energy, 2022, 254: 124225. DOI:10.1016/j.energy.2022.124225.</t>
+  </si>
+  <si>
+    <t>Yin Ting, Chen Siyuan, Wang Ge, Tan Yuxuan, Teng Fei, Zhang Qi. Can Subsidy Policies Achieve Fuel Cell Logistics Vehicle (FCLV) Promotion Targets? Evidence from the Beijing-Tianjin-Hebei Fuel Cell Vehicle Demonstration City Cluster in China[J/OL]. Energy, 2024: 133270. DOI:10.1016/j.energy.2024.133270.</t>
+  </si>
+  <si>
+    <t>Zhang Qi, Li Yan, Li Hailong, Wang Ge, Chen Siyuan. Study on the impacts of the LNG market reform in china using a SVM based rolling horizon stochastic game analysis[J/OL]. Energy Procedia, 2017, 105: 3850-3855. DOI:10.1016/j.egypro.2017.03.786.</t>
+  </si>
+  <si>
+    <t>Zhang Qi, Li Zhan, Wang Ge, Li Hailong. Study on the impacts of natural gas supply cost on gas flow and infrastructure deployment in china[J/OL]. Applied Energy, 2016, 162: 1385-1398. DOI:10.1016/j.apenergy.2015.06.058.</t>
+  </si>
+  <si>
+    <t>Zhang Qi, Liu Jiangfeng, Wang Ge, Gao Zhihui. A new optimization model for carbon capture utilization and storage (CCUS) layout based on high-resolution geological variability[J/OL]. Applied Energy, 2024, 363: 123065. DOI:10.1016/j.apenergy.2024.123065.</t>
+  </si>
+  <si>
+    <t>Zhang Qi, Liu Jiangfeng, Yang Kexin, Liu Boyu, Wang Ge. Market adoption simulation of electric vehicle based on social network model considering nudge policies[J/OL]. Energy, 2022, 259: 124984. DOI:10.1016/j.energy.2022.124984.</t>
+  </si>
+  <si>
+    <t>Zhang Qi, Wang Ge, Li Hailong, Li Yan, Chen Siyuan. Study on the implementation pathways and key impacts of RPS target in china using a dynamic game-theoretical equilibrium power market model[J/OL]. Energy Procedia, 2017, 105: 3844-3849. DOI:10.1016/j.egypro.2017.03.784.</t>
+  </si>
+  <si>
+    <t>Zhang Qi, Wang Ge, Li Yan, Li Hailong, McLellan Benjamin, Chen Siyuan. Substitution effect of renewable portfolio standards and renewable energy certificate trading for feed-in tariff[J/OL]. Applied Energy, 2018, 227: 426-435. DOI:10.1016/j.apenergy.2017.07.118.</t>
+  </si>
+  <si>
+    <t>Zhu Lijing, Lu Huihui, Zhang Qi, Li Hailong, Pan Xunzhang, Wang Ge, Li Yan. Application of crowdfunding on the financing of EV’s charging piles[J/OL]. Energy Procedia, 2016, 104: 336-341. DOI:10.1016/j.egypro.2016.12.057.</t>
   </si>
 </sst>
 </file>
@@ -1334,9 +1333,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1344,6 +1340,9 @@
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1365,9 +1364,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1405,7 +1404,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1511,7 +1510,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1653,7 +1652,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1661,252 +1660,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D26B086-2910-434C-AB97-2AC2ABC062E1}">
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
+      <c r="A3" s="8" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
+      <c r="A4" s="8" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
+      <c r="A5" s="8" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
+      <c r="A6" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
+      <c r="A7" s="8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
+      <c r="A8" s="8" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
+      <c r="A9" s="8" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
+      <c r="A10" s="8" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="5" t="s">
-        <v>9</v>
+      <c r="A11" s="8" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
+      <c r="A12" s="8" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
+      <c r="A13" s="8" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
+      <c r="A14" s="8" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="5" t="s">
-        <v>13</v>
+      <c r="A15" s="8" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="5" t="s">
-        <v>14</v>
+      <c r="A16" s="8" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="5" t="s">
-        <v>15</v>
+      <c r="A17" s="8" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="5" t="s">
-        <v>16</v>
+      <c r="A18" s="8" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="5" t="s">
-        <v>17</v>
+      <c r="A19" s="8" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="5" t="s">
-        <v>18</v>
+      <c r="A20" s="8" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="5" t="s">
-        <v>19</v>
+      <c r="A21" s="8" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="5" t="s">
-        <v>20</v>
+      <c r="A22" s="8" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="5" t="s">
-        <v>21</v>
+      <c r="A23" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="5" t="s">
-        <v>22</v>
+      <c r="A24" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="5" t="s">
-        <v>23</v>
+      <c r="A25" s="8" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="5" t="s">
-        <v>24</v>
+      <c r="A26" s="8" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="5" t="s">
-        <v>25</v>
+      <c r="A27" s="8" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="5" t="s">
-        <v>26</v>
+      <c r="A28" s="8" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="5" t="s">
-        <v>27</v>
+      <c r="A29" s="8" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>28</v>
+      <c r="A30" s="8" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>29</v>
+      <c r="A31" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>30</v>
+      <c r="A32" s="8" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="5" t="s">
-        <v>162</v>
+      <c r="A33" s="8" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="5" t="s">
-        <v>164</v>
+      <c r="A34" s="8" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="5" t="s">
-        <v>166</v>
+      <c r="A35" s="8" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="5" t="s">
-        <v>165</v>
+      <c r="A36" s="8" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>183</v>
+      <c r="A37" s="8" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>184</v>
+      <c r="A38" s="8" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>185</v>
+      <c r="A39" s="8" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="5" t="s">
-        <v>229</v>
+      <c r="A40" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A81">
+    <sortCondition descending="1" ref="A2:A81"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://doi.org/10.1016/j.eneco.2017.12.034" xr:uid="{0AD98BA2-42BF-9B4C-AD98-D765DB4C18CC}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://doi.org/10.1016/j.egypro.2019.01.794" xr:uid="{5358BF61-D809-D44B-89CE-FAD254281DCA}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://doi.org/10.1007/s12182-018-0238-x" xr:uid="{EAB2E539-07D9-0642-821C-22761B69691D}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://doi.org/10.1002/wene.387" xr:uid="{108D4E1A-6A88-6E4A-9530-AE786A9D94A0}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://doi.org/10.1080/1540496X.2019.1604337" xr:uid="{B1B65355-AB7B-4341-B2C3-8B76C5DDCC90}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://doi.org/10.1016/j.jclepro.2018.11.179" xr:uid="{EDDAAE44-36E2-684E-A93D-407D401257F8}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://doi.org/10.1016/j.resconrec.2022.106165" xr:uid="{04191113-07B1-AD48-8B21-81BA2E8BC88A}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://doi.org/10.1016/j.rser.2018.06.012" xr:uid="{A7AE0646-2390-B84E-A095-C4B4EB8A4CDB}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://doi.org/10.1016/j.egypro.2015.07.693" xr:uid="{5463A9BE-B366-574D-A28B-F9D1B5915615}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://doi.org/10.1016/j.jclepro.2018.03.043" xr:uid="{BE1B15E7-3C0D-E944-964F-A1C70D4116A8}"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://doi.org/10.1002/er.7109" xr:uid="{7D819EC7-7F77-7649-83E6-19ABCADBDD87}"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://doi.org/10.1016/j.egypro.2015.07.699" xr:uid="{39DD0553-34B6-0842-8E8F-6EE6F88C1578}"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://doi.org/10.1016/j.apenergy.2015.11.079" xr:uid="{D4E35FF5-1493-CD40-924F-396E9EC13D51}"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://doi.org/10.1016/j.egypro.2017.12.383" xr:uid="{3A7D1CA1-E05B-9C48-99AB-EEEAC4195E96}"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://doi.org/10.1016/j.apenergy.2016.01.016" xr:uid="{35E729BA-CB46-DA49-8061-438DDECE546D}"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://doi.org/10.1016/j.apenergy.2018.04.028" xr:uid="{691553EF-9EDE-8247-8DBC-1D36448A8027}"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://doi.org/10.1016/j.enpol.2018.10.044" xr:uid="{8F01B7E2-1B45-9C4A-9ECC-FD0767D33BAA}"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://doi.org/10.1016/j.eneco.2019.03.008" xr:uid="{CDFF7970-2D39-F141-B070-49D219551906}"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://doi.org/10.1016/j.energy.2015.08.060" xr:uid="{1920461B-775A-8C41-85CF-D637CD57F9DD}"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://doi.org/10.1016/j.eneco.2020.105038" xr:uid="{896163B8-29BB-1146-83B0-B6F9A0B6F882}"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://doi.org/10.1016/j.egypro.2015.07.410" xr:uid="{A6F605EA-0ADA-5446-94C9-F0A3E5C0E082}"/>
-    <hyperlink ref="A23" r:id="rId22" display="https://doi.org/10.1016/j.energy.2022.124225" xr:uid="{BF520865-A496-4E4F-B8AB-C3692EE77C28}"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://doi.org/10.1016/j.egypro.2017.03.786" xr:uid="{F4B0A055-8752-8040-9D20-6BF43B792BB2}"/>
-    <hyperlink ref="A25" r:id="rId24" display="https://doi.org/10.1016/j.apenergy.2015.06.058" xr:uid="{DAE897A2-8CBA-B042-B9EF-75A2C4EDA64E}"/>
-    <hyperlink ref="A26" r:id="rId25" display="https://doi.org/10.1016/j.energy.2022.124984" xr:uid="{2518DE09-060F-A148-8F26-8EF931C86B88}"/>
-    <hyperlink ref="A27" r:id="rId26" display="https://doi.org/10.1016/j.egypro.2017.03.784" xr:uid="{FD7C42F1-BE4C-674E-BEC5-63947A06160C}"/>
-    <hyperlink ref="A28" r:id="rId27" display="https://doi.org/10.1016/j.apenergy.2017.07.118" xr:uid="{4CCB93C4-FDB0-A24E-8BCC-662522AB0151}"/>
-    <hyperlink ref="A29" r:id="rId28" display="https://doi.org/10.1016/j.egypro.2016.12.057" xr:uid="{94EB7264-AD46-7048-A51D-A53AB4AA52E8}"/>
-    <hyperlink ref="A33" r:id="rId29" display="https://doi.org/10.1016/j.enpol.2023.113961" xr:uid="{E3FF8D0C-C845-416E-9BBF-89191686E2DB}"/>
-    <hyperlink ref="A34" r:id="rId30" display="https://doi.org/10.19674/j.cnki.issn1000-6923.20230808.003" xr:uid="{963064A2-B7EC-464F-9EE8-56D41B392947}"/>
-    <hyperlink ref="A35" r:id="rId31" display="https://doi.org/10.1016/j.est.2023.109819" xr:uid="{1AFCA61F-8FC0-46A9-A34E-15E08796E503}"/>
-    <hyperlink ref="A36" r:id="rId32" display="https://doi.org/10.1016/j.energy.2024.130830" xr:uid="{1692811C-DDCD-449F-B771-971B059B4DA8}"/>
-    <hyperlink ref="A38" r:id="rId33" display="https://doi.org/10.2139/ssrn.4761945" xr:uid="{D8F4F9DD-75F4-4391-8E66-93DF15C7CBFA}"/>
-    <hyperlink ref="A39" r:id="rId34" display="https://doi.org/10.2139/ssrn.4671244" xr:uid="{9AA03955-F948-44BC-8084-ADC7599E413C}"/>
-    <hyperlink ref="A40" r:id="rId35" display="https://doi.org/10.1016/j.energy.2024.133270" xr:uid="{283DFC01-4C78-4682-A678-FEEDCD4449CB}"/>
+    <hyperlink ref="A5" r:id="rId1" display="https://doi.org/10.19674/j.cnki.issn1000-6923.20230808.003" xr:uid="{E6F5D7C3-AD73-084C-A11E-89FFB859914E}"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://doi.org/10.16381/j.cnki.issn1003-207x.2019.2128" xr:uid="{F1FEB1D2-F59A-BC4B-8526-F5EA31C92011}"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://doi.org/10.13383/j.cnki.jse.2024.02.003" xr:uid="{1A3C937D-5BA3-774C-8B9C-1D62952E3406}"/>
+    <hyperlink ref="A41" r:id="rId4" display="https://doi.org/10.1016/j.eneco.2017.12.034" xr:uid="{D37EE526-EFA4-2940-A8A9-1A8554388FA0}"/>
+    <hyperlink ref="A40" r:id="rId5" display="https://doi.org/10.1016/j.energy.2024.130830" xr:uid="{F7E39713-D7C9-B348-8E4F-B67F9659F86D}"/>
+    <hyperlink ref="A39" r:id="rId6" display="https://doi.org/10.1016/j.egypro.2019.01.794" xr:uid="{1FE0767D-7EBF-BB4E-84F4-A4E133E10E83}"/>
+    <hyperlink ref="A38" r:id="rId7" display="https://doi.org/10.1007/s12182-018-0238-x" xr:uid="{13BBE4D4-11A0-F84A-A940-811559DE87FC}"/>
+    <hyperlink ref="A37" r:id="rId8" display="https://doi.org/10.1002/wene.387" xr:uid="{D51EF494-A5AE-E248-8C97-54DE4C3E8653}"/>
+    <hyperlink ref="A33" r:id="rId9" display="https://doi.org/10.1016/j.rser.2018.06.012" xr:uid="{8A986EFB-DC14-C640-B0B1-956360F647BA}"/>
+    <hyperlink ref="A35" r:id="rId10" display="https://doi.org/10.1016/j.jclepro.2018.11.179" xr:uid="{9EFC670C-51F4-5E43-836F-87C81135239E}"/>
+    <hyperlink ref="A36" r:id="rId11" display="https://doi.org/10.1080/1540496X.2019.1604337" xr:uid="{8CEC154A-1F28-F44A-BCA7-E362C11FF31A}"/>
+    <hyperlink ref="A34" r:id="rId12" display="https://doi.org/10.1016/j.resconrec.2022.106165" xr:uid="{02EAFF08-B812-A941-BCEC-5A4000497D40}"/>
+    <hyperlink ref="A32" r:id="rId13" display="https://doi.org/10.2139/ssrn.4761945" xr:uid="{76359DB5-208F-3C44-A3B9-9C3BEAF27B1C}"/>
+    <hyperlink ref="A31" r:id="rId14" display="https://doi.org/10.1016/j.tranpol.2024.11.004" xr:uid="{50218D27-4D23-B74A-BC9B-9DF02D2BB1CD}"/>
+    <hyperlink ref="A30" r:id="rId15" display="https://doi.org/10.1016/j.egypro.2015.07.693" xr:uid="{201B86B5-E187-654A-BA40-D80CF97621BD}"/>
+    <hyperlink ref="A29" r:id="rId16" display="https://doi.org/10.1016/j.jclepro.2018.03.043" xr:uid="{C3CAEC7A-E3BF-D746-8D26-2219254523DE}"/>
+    <hyperlink ref="A28" r:id="rId17" display="https://doi.org/10.1016/j.enpol.2023.113961" xr:uid="{109AA462-DCA1-824B-B389-153FC46E0D78}"/>
+    <hyperlink ref="A27" r:id="rId18" display="https://doi.org/10.1002/er.7109" xr:uid="{DFF70265-AF6F-0742-8229-551071C6B600}"/>
+    <hyperlink ref="A25" r:id="rId19" display="https://doi.org/10.1016/j.egypro.2015.07.699" xr:uid="{CC55E01C-0770-E644-AE01-B1C87081A3F2}"/>
+    <hyperlink ref="A26" r:id="rId20" display="https://doi.org/10.1016/j.apenergy.2015.11.079" xr:uid="{81F1092F-9250-A542-8BDB-BBD51C1F1160}"/>
+    <hyperlink ref="A23" r:id="rId21" display="https://doi.org/10.1016/j.apenergy.2016.01.016" xr:uid="{06B94FC3-F022-1D43-A33C-11966CF05BDF}"/>
+    <hyperlink ref="A24" r:id="rId22" display="https://doi.org/10.1016/j.egypro.2017.12.383" xr:uid="{AFC1E29B-1F8C-4347-9732-8B65A9BAB848}"/>
+    <hyperlink ref="A22" r:id="rId23" display="https://doi.org/10.1016/j.apenergy.2018.04.028" xr:uid="{25730D09-2888-544F-A3B5-2C52AA662C2B}"/>
+    <hyperlink ref="A21" r:id="rId24" display="https://doi.org/10.1016/j.enpol.2018.10.044" xr:uid="{08E2A237-DF83-5142-8A0B-292A93A4B9CF}"/>
+    <hyperlink ref="A20" r:id="rId25" display="https://doi.org/10.1016/j.eneco.2019.03.008" xr:uid="{CF028DFD-2CAE-144F-B8F2-6E25A18F65FE}"/>
+    <hyperlink ref="A19" r:id="rId26" display="https://doi.org/10.1016/j.energy.2015.08.060" xr:uid="{B2CBAFA1-002D-E544-BFB2-6ED53D88038D}"/>
+    <hyperlink ref="A18" r:id="rId27" display="https://doi.org/10.1016/j.eneco.2020.105038" xr:uid="{1ACFE16B-FDCB-7542-AC32-FFD1C44B3105}"/>
+    <hyperlink ref="A17" r:id="rId28" display="https://doi.org/10.1016/j.egypro.2015.07.410" xr:uid="{07583A04-4DD2-8B4C-A55C-A2904BD5D44D}"/>
+    <hyperlink ref="A16" r:id="rId29" display="https://doi.org/10.1016/j.est.2023.109819" xr:uid="{9285C00D-8657-9946-A3EC-940D6D13C82B}"/>
+    <hyperlink ref="A15" r:id="rId30" display="https://doi.org/10.1016/j.energy.2022.124225" xr:uid="{6572EA05-680B-E64B-AC1E-806D1A2872CD}"/>
+    <hyperlink ref="A14" r:id="rId31" display="https://doi.org/10.1016/j.energy.2024.133270" xr:uid="{A7891C99-97C3-B14D-9EDE-AAC9A8898F15}"/>
+    <hyperlink ref="A13" r:id="rId32" display="https://doi.org/10.1016/j.egypro.2017.03.786" xr:uid="{74945587-1292-5044-AC85-B11D9A133EE5}"/>
+    <hyperlink ref="A12" r:id="rId33" display="https://doi.org/10.1016/j.apenergy.2015.06.058" xr:uid="{0013A21F-C6A1-9C4F-8DCD-AFF67E057617}"/>
+    <hyperlink ref="A11" r:id="rId34" display="https://doi.org/10.1016/j.apenergy.2024.123065" xr:uid="{C444A3A6-BFBB-6043-8111-467979FD8B85}"/>
+    <hyperlink ref="A10" r:id="rId35" display="https://doi.org/10.1016/j.energy.2022.124984" xr:uid="{840132B1-4DE6-BC41-9FA6-00E5CCF0DC69}"/>
+    <hyperlink ref="A9" r:id="rId36" display="https://doi.org/10.1016/j.egypro.2017.03.784" xr:uid="{D753D908-32D2-7E49-A534-15401F2BB4F2}"/>
+    <hyperlink ref="A8" r:id="rId37" display="https://doi.org/10.1016/j.apenergy.2017.07.118" xr:uid="{661092D1-CF00-CD4A-99E7-AD0C07DA78FF}"/>
+    <hyperlink ref="A7" r:id="rId38" display="https://doi.org/10.1016/j.egypro.2016.12.057" xr:uid="{90B8C809-78BA-7643-BBF7-7B2B000B6ACB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1920,20 +1930,20 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1941,10 +1951,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="D2">
         <v>2023</v>
@@ -1955,38 +1965,38 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="D3">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.25">
+    <row r="4" spans="1:4" ht="18">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="D4">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25">
+    <row r="5" spans="1:4" ht="18">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="D5">
         <v>2023</v>
@@ -1997,10 +2007,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="D6">
         <v>2024</v>
@@ -2011,10 +2021,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="D7">
         <v>2023</v>
@@ -2025,10 +2035,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="D8">
         <v>2024</v>
@@ -2039,10 +2049,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="D9">
         <v>2024</v>
@@ -2059,70 +2069,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FFF91B-78E0-4A8D-AC15-0F3D3EB2758B}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5">
-      <c r="A1" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>205</v>
+    <row r="1" spans="1:6" ht="17">
+      <c r="A1" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="C1" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="E1" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="D2">
         <v>2024</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="D3">
         <v>2023</v>
       </c>
       <c r="E3" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="F3" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2139,410 +2149,410 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" ht="17">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2023</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2025</v>
+      </c>
+      <c r="I2" s="5">
+        <v>12</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="17">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2020</v>
+      </c>
+      <c r="G3" s="5">
+        <v>6</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="I3" s="5">
+        <v>6</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17">
+      <c r="A4" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2021</v>
+      </c>
+      <c r="G4" s="5">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2022</v>
+      </c>
+      <c r="I4" s="5">
+        <v>6</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2020</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2022</v>
+      </c>
+      <c r="I5" s="5">
+        <v>12</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2016</v>
+      </c>
+      <c r="G6" s="5">
+        <v>9</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2017</v>
+      </c>
+      <c r="I6" s="5">
+        <v>9</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17">
+      <c r="A7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2016</v>
+      </c>
+      <c r="G7" s="5">
+        <v>8</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2016</v>
+      </c>
+      <c r="I7" s="5">
+        <v>12</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17">
+      <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2021</v>
+      </c>
+      <c r="I8" s="5">
+        <v>12</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17">
+      <c r="A9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2020</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2023</v>
+      </c>
+      <c r="I9" s="5">
+        <v>12</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17">
+      <c r="A10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2021</v>
+      </c>
+      <c r="G10" s="5">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2023</v>
+      </c>
+      <c r="I10" s="5">
+        <v>12</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17">
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G11" s="5">
+        <v>8</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2020</v>
+      </c>
+      <c r="I11" s="5">
+        <v>6</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17">
+      <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2020</v>
+      </c>
+      <c r="G12" s="5">
+        <v>8</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2020</v>
+      </c>
+      <c r="I12" s="5">
+        <v>12</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5">
-      <c r="A2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="6">
-        <v>30</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="6">
-        <v>2023</v>
-      </c>
-      <c r="G2" s="6">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6">
-        <v>2025</v>
-      </c>
-      <c r="I2" s="6">
+    </row>
+    <row r="13" spans="1:10" ht="17">
+      <c r="A13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="5">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="16.5">
-      <c r="A3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="6">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="6">
-        <v>2020</v>
-      </c>
-      <c r="G3" s="6">
-        <v>6</v>
-      </c>
-      <c r="H3" s="6">
-        <v>2023</v>
-      </c>
-      <c r="I3" s="6">
-        <v>6</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5">
-      <c r="A4" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="6">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="6">
-        <v>2021</v>
-      </c>
-      <c r="G4" s="6">
-        <v>7</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="5">
         <v>2022</v>
       </c>
-      <c r="I4" s="6">
-        <v>6</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="6">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="6">
-        <v>2020</v>
-      </c>
-      <c r="G5" s="6">
-        <v>4</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="G13" s="5">
+        <v>10</v>
+      </c>
+      <c r="H13" s="5">
         <v>2022</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I13" s="5">
         <v>12</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.5">
-      <c r="A6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="6">
-        <v>2016</v>
-      </c>
-      <c r="G6" s="6">
-        <v>9</v>
-      </c>
-      <c r="H6" s="6">
-        <v>2017</v>
-      </c>
-      <c r="I6" s="6">
-        <v>9</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="6">
-        <v>2016</v>
-      </c>
-      <c r="G7" s="6">
-        <v>8</v>
-      </c>
-      <c r="H7" s="6">
-        <v>2016</v>
-      </c>
-      <c r="I7" s="6">
-        <v>12</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5">
-      <c r="A8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="6">
-        <v>2018</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6">
-        <v>2021</v>
-      </c>
-      <c r="I8" s="6">
-        <v>12</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5">
-      <c r="A9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="6">
-        <v>2020</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6">
-        <v>2023</v>
-      </c>
-      <c r="I9" s="6">
-        <v>12</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.5">
-      <c r="A10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="6">
-        <v>2021</v>
-      </c>
-      <c r="G10" s="6">
-        <v>4</v>
-      </c>
-      <c r="H10" s="6">
-        <v>2023</v>
-      </c>
-      <c r="I10" s="6">
-        <v>12</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.5">
-      <c r="A11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="6">
-        <v>2018</v>
-      </c>
-      <c r="G11" s="6">
-        <v>8</v>
-      </c>
-      <c r="H11" s="6">
-        <v>2020</v>
-      </c>
-      <c r="I11" s="6">
-        <v>6</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5">
-      <c r="A12" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="6">
-        <v>2020</v>
-      </c>
-      <c r="G12" s="6">
-        <v>8</v>
-      </c>
-      <c r="H12" s="6">
-        <v>2020</v>
-      </c>
-      <c r="I12" s="6">
-        <v>12</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="16.5">
-      <c r="A13" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="6">
-        <v>15</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="6">
-        <v>2022</v>
-      </c>
-      <c r="G13" s="6">
-        <v>10</v>
-      </c>
-      <c r="H13" s="6">
-        <v>2022</v>
-      </c>
-      <c r="I13" s="6">
-        <v>12</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>66</v>
+      <c r="J13" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2559,46 +2569,46 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2615,16 +2625,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -2641,16 +2651,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -2667,16 +2677,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -2693,16 +2703,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -2717,15 +2727,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5">
+    <row r="7" spans="1:8" ht="17">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2740,12 +2750,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5">
+    <row r="8" spans="1:8" ht="17">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2762,10 +2772,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2782,10 +2792,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2797,12 +2807,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="17">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2816,16 +2826,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -2842,16 +2852,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="D13" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -2868,13 +2878,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="D14" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -2891,10 +2901,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2923,20 +2933,20 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2944,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2955,7 +2965,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2966,7 +2976,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="C4">
         <v>2018</v>
@@ -2977,7 +2987,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="C5">
         <v>2018</v>
@@ -2988,7 +2998,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="C6">
         <v>2024</v>
@@ -2999,7 +3009,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="C7">
         <v>2024</v>
@@ -3019,43 +3029,43 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>40</v>
@@ -3073,15 +3083,15 @@
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>40</v>
@@ -3099,15 +3109,15 @@
         <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>40</v>
@@ -3125,15 +3135,15 @@
         <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>32</v>
@@ -3151,15 +3161,15 @@
         <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -3177,15 +3187,15 @@
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <v>32</v>
@@ -3203,15 +3213,15 @@
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>24</v>
@@ -3230,18 +3240,18 @@
         <v>506</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17">
+      <c r="A9" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.75">
-      <c r="A9" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <v>32</v>
@@ -3259,15 +3269,15 @@
         <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17">
       <c r="A10" s="3" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>32</v>
@@ -3285,15 +3295,15 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17">
       <c r="A11" s="3" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C11">
         <v>32</v>
@@ -3311,15 +3321,15 @@
         <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17">
       <c r="A12" s="2" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -3337,18 +3347,18 @@
         <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17">
       <c r="A13" s="2" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -3366,18 +3376,18 @@
         <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.75">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17">
       <c r="A14" s="2" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C14">
         <v>32</v>
@@ -3395,15 +3405,15 @@
         <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17">
       <c r="A15" s="3" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C15">
         <v>32</v>
@@ -3421,15 +3431,15 @@
         <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17">
       <c r="A16" s="3" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C16">
         <v>32</v>
@@ -3447,15 +3457,15 @@
         <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="18.75">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17">
       <c r="A17" s="2" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -3473,10 +3483,10 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3493,20 +3503,20 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
         <v>91</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3517,10 +3527,10 @@
         <v>2020</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3531,10 +3541,10 @@
         <v>2020</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3545,10 +3555,10 @@
         <v>2020</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3559,10 +3569,10 @@
         <v>2020</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3573,10 +3583,10 @@
         <v>2020</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3587,10 +3597,10 @@
         <v>2021</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3601,10 +3611,10 @@
         <v>2021</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3615,10 +3625,10 @@
         <v>2022</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3629,10 +3639,10 @@
         <v>2022</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3643,10 +3653,10 @@
         <v>2023</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3657,10 +3667,10 @@
         <v>2023</v>
       </c>
       <c r="C12" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3671,10 +3681,10 @@
         <v>2023</v>
       </c>
       <c r="C13" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3685,10 +3695,10 @@
         <v>2024</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3699,10 +3709,10 @@
         <v>2024</v>
       </c>
       <c r="C15" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3719,120 +3729,120 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25">
-      <c r="A2" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="B2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="7">
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25">
-      <c r="A3" s="8">
+    <row r="3" spans="1:4" ht="18">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="B3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="7">
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:4" ht="18">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="B4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="7">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25">
-      <c r="A5" s="8">
+    <row r="5" spans="1:4" ht="18">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="B5" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="7">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.25">
-      <c r="A6" s="8">
+    <row r="6" spans="1:4" ht="18">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="B6" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="7">
         <v>2024</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17.25">
-      <c r="A7" s="8">
+    <row r="7" spans="1:4" ht="18">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="B7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="7">
         <v>2024</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17.25">
-      <c r="A8" s="8">
+    <row r="8" spans="1:4" ht="18">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="B8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="7">
         <v>2024</v>
       </c>
     </row>
@@ -3850,23 +3860,23 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75">
+    </row>
+    <row r="2" spans="1:6" ht="17">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3874,13 +3884,13 @@
         <v>2023</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3888,13 +3898,13 @@
         <v>2023</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3902,13 +3912,13 @@
         <v>2023</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3916,13 +3926,13 @@
         <v>2023</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3930,15 +3940,15 @@
         <v>2024</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="18.75">
+    <row r="7" spans="1:6" ht="17">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3946,15 +3956,15 @@
         <v>2024</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="18.75">
+    <row r="8" spans="1:6" ht="17">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3962,15 +3972,15 @@
         <v>2024</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="18.75">
+    <row r="9" spans="1:6" ht="17">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3978,15 +3988,15 @@
         <v>2024</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="18.75">
+    <row r="10" spans="1:6" ht="17">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3994,10 +4004,10 @@
         <v>2024</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="D10" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/CN-HET-Lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CN-HET-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531F1297-8712-8448-91F8-D6DB76008966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D22B97-20B0-4EBF-A34C-E912BCA3AA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5300" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11520" firstSheet="6" activeTab="9" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="237">
   <si>
     <t>papers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1193,6 +1193,13 @@
   </si>
   <si>
     <t>Zhu Lijing, Lu Huihui, Zhang Qi, Li Hailong, Pan Xunzhang, Wang Ge, Li Yan. Application of crowdfunding on the financing of EV’s charging piles[J/OL]. Energy Procedia, 2016, 104: 336-341. DOI:10.1016/j.egypro.2016.12.057.</t>
+  </si>
+  <si>
+    <t>克拉玛依数字经济发展与低碳转型协同路径研究</t>
+  </si>
+  <si>
+    <t>天山研究院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1364,9 +1371,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1404,7 +1411,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1510,7 +1517,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1652,7 +1659,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1662,11 +1669,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D26B086-2910-434C-AB97-2AC2ABC062E1}">
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="125" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1926,11 +1933,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C14FA6-174E-FB43-BF02-E436B1D6FEA7}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1974,7 +1981,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18">
+    <row r="4" spans="1:4" ht="17.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1988,7 +1995,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18">
+    <row r="5" spans="1:4" ht="17.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2073,9 +2080,9 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="17">
+    <row r="1" spans="1:6" ht="16.5">
       <c r="A1" s="5" t="s">
         <v>166</v>
       </c>
@@ -2143,15 +2150,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA794A-9001-A74B-80D1-3BD53AFA6286}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="17">
+    <row r="1" spans="1:10" ht="16.5">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2183,7 +2190,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17">
+    <row r="2" spans="1:10" ht="16.5">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -2215,7 +2222,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17">
+    <row r="3" spans="1:10" ht="16.5">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -2247,7 +2254,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17">
+    <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="5" t="s">
         <v>132</v>
       </c>
@@ -2279,7 +2286,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17">
+    <row r="5" spans="1:10" ht="16.5">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -2311,7 +2318,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17">
+    <row r="6" spans="1:10" ht="16.5">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -2343,7 +2350,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17">
+    <row r="7" spans="1:10" ht="16.5">
       <c r="A7" s="5" t="s">
         <v>134</v>
       </c>
@@ -2373,7 +2380,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17">
+    <row r="8" spans="1:10" ht="16.5">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -2403,7 +2410,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17">
+    <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -2433,7 +2440,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17">
+    <row r="10" spans="1:10" ht="16.5">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
@@ -2463,7 +2470,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17">
+    <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
@@ -2493,7 +2500,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17">
+    <row r="12" spans="1:10" ht="16.5">
       <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
@@ -2523,7 +2530,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17">
+    <row r="13" spans="1:10" ht="16.5">
       <c r="A13" s="5" t="s">
         <v>83</v>
       </c>
@@ -2552,6 +2559,38 @@
         <v>12</v>
       </c>
       <c r="J13" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16.5">
+      <c r="A14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2024</v>
+      </c>
+      <c r="G14" s="5">
+        <v>11</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2025</v>
+      </c>
+      <c r="I14" s="5">
+        <v>10</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2569,7 +2608,7 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -2727,7 +2766,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17">
+    <row r="7" spans="1:8" ht="16.5">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -2750,7 +2789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17">
+    <row r="8" spans="1:8" ht="16.5">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -2807,7 +2846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -2933,7 +2972,7 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
   </cols>
@@ -3029,7 +3068,7 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -3246,7 +3285,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17">
+    <row r="9" spans="1:9" ht="18.75">
       <c r="A9" s="2" t="s">
         <v>85</v>
       </c>
@@ -3272,7 +3311,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="3" t="s">
         <v>86</v>
       </c>
@@ -3298,7 +3337,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="3" t="s">
         <v>87</v>
       </c>
@@ -3324,7 +3363,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17">
+    <row r="12" spans="1:9" ht="18.75">
       <c r="A12" s="2" t="s">
         <v>127</v>
       </c>
@@ -3353,7 +3392,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17">
+    <row r="13" spans="1:9" ht="18.75">
       <c r="A13" s="2" t="s">
         <v>127</v>
       </c>
@@ -3382,7 +3421,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17">
+    <row r="14" spans="1:9" ht="18.75">
       <c r="A14" s="2" t="s">
         <v>85</v>
       </c>
@@ -3408,7 +3447,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="3" t="s">
         <v>86</v>
       </c>
@@ -3434,7 +3473,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="3" t="s">
         <v>87</v>
       </c>
@@ -3460,7 +3499,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17">
+    <row r="17" spans="1:9" ht="18.75">
       <c r="A17" s="2" t="s">
         <v>127</v>
       </c>
@@ -3503,7 +3542,7 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -3726,12 +3765,12 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="47.83203125" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3748,7 +3787,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18">
+    <row r="2" spans="1:4" ht="17.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -3762,7 +3801,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18">
+    <row r="3" spans="1:4" ht="17.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -3776,7 +3815,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18">
+    <row r="4" spans="1:4" ht="17.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -3790,7 +3829,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18">
+    <row r="5" spans="1:4" ht="17.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -3804,7 +3843,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18">
+    <row r="6" spans="1:4" ht="17.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -3818,7 +3857,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18">
+    <row r="7" spans="1:4" ht="17.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -3832,7 +3871,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18">
+    <row r="8" spans="1:4" ht="17.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -3860,7 +3899,7 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -3876,7 +3915,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17">
+    <row r="2" spans="1:6" ht="18.75">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3890,7 +3929,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17">
+    <row r="3" spans="1:6" ht="18.75">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3904,7 +3943,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17">
+    <row r="4" spans="1:6" ht="18.75">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3918,7 +3957,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17">
+    <row r="5" spans="1:6" ht="18.75">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3932,7 +3971,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17">
+    <row r="6" spans="1:6" ht="18.75">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3948,7 +3987,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="17">
+    <row r="7" spans="1:6" ht="18.75">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3964,7 +4003,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="17">
+    <row r="8" spans="1:6" ht="18.75">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3980,7 +4019,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="17">
+    <row r="9" spans="1:6" ht="18.75">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3996,7 +4035,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="17">
+    <row r="10" spans="1:6" ht="18.75">
       <c r="A10">
         <v>9</v>
       </c>

--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CN-HET-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D22B97-20B0-4EBF-A34C-E912BCA3AA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1162A7C-A6AE-4F0E-A579-3570278A6E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11520" firstSheet="6" activeTab="9" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="-4163" yWindow="-16297" windowWidth="28995" windowHeight="15675" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="研究生获得奖励" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">发表论文!$A$2:$A$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">发表论文!$A$2:$A$80</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="238">
   <si>
     <t>papers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1200,6 +1200,9 @@
   <si>
     <t>天山研究院</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张奇, 王歌, 焦婕. 双碳目标下新疆新能源发展路径及政策创新研究[J]. 克拉玛依学刊, 2025, 15(1): 5-17, 2.</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1327,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1352,6 +1355,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1371,9 +1377,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1411,7 +1417,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1517,7 +1523,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1659,7 +1665,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1667,13 +1673,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D26B086-2910-434C-AB97-2AC2ABC062E1}">
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1880,9 +1886,14 @@
         <v>200</v>
       </c>
     </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A81">
-    <sortCondition descending="1" ref="A2:A81"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A79">
+    <sortCondition descending="1" ref="A2:A79"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1933,11 +1944,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C14FA6-174E-FB43-BF02-E436B1D6FEA7}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1981,7 +1992,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.25">
+    <row r="4" spans="1:4" ht="16.149999999999999">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1995,7 +2006,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25">
+    <row r="5" spans="1:4" ht="16.149999999999999">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2080,9 +2091,9 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>166</v>
       </c>
@@ -2156,9 +2167,9 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2190,7 +2201,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5">
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -2222,7 +2233,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5">
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -2254,7 +2265,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>132</v>
       </c>
@@ -2286,7 +2297,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5">
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -2318,7 +2329,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5">
+    <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -2350,7 +2361,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5">
+    <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
         <v>134</v>
       </c>
@@ -2380,7 +2391,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.5">
+    <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -2410,7 +2421,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5">
+    <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -2440,7 +2451,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5">
+    <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
@@ -2470,7 +2481,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5">
+    <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
@@ -2500,7 +2511,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5">
+    <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
@@ -2530,7 +2541,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5">
+    <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
         <v>83</v>
       </c>
@@ -2562,7 +2573,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.5">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>235</v>
       </c>
@@ -2608,7 +2619,7 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -2766,7 +2777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -2789,7 +2800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -2846,7 +2857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -2972,7 +2983,7 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
   </cols>
@@ -3068,7 +3079,7 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -3285,7 +3296,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75">
+    <row r="9" spans="1:9" ht="17.649999999999999">
       <c r="A9" s="2" t="s">
         <v>85</v>
       </c>
@@ -3363,7 +3374,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75">
+    <row r="12" spans="1:9" ht="17.649999999999999">
       <c r="A12" s="2" t="s">
         <v>127</v>
       </c>
@@ -3392,7 +3403,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75">
+    <row r="13" spans="1:9" ht="17.649999999999999">
       <c r="A13" s="2" t="s">
         <v>127</v>
       </c>
@@ -3421,7 +3432,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75">
+    <row r="14" spans="1:9" ht="17.649999999999999">
       <c r="A14" s="2" t="s">
         <v>85</v>
       </c>
@@ -3499,7 +3510,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.75">
+    <row r="17" spans="1:9" ht="17.649999999999999">
       <c r="A17" s="2" t="s">
         <v>127</v>
       </c>
@@ -3542,7 +3553,7 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -3768,9 +3779,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="3" max="3" width="47.87890625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3787,7 +3798,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25">
+    <row r="2" spans="1:4" ht="16.899999999999999">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -3801,7 +3812,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25">
+    <row r="3" spans="1:4" ht="16.899999999999999">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -3815,7 +3826,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.25">
+    <row r="4" spans="1:4" ht="16.899999999999999">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -3829,7 +3840,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25">
+    <row r="5" spans="1:4" ht="16.899999999999999">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -3843,7 +3854,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.25">
+    <row r="6" spans="1:4" ht="16.899999999999999">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -3857,7 +3868,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17.25">
+    <row r="7" spans="1:4" ht="16.899999999999999">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -3871,7 +3882,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17.25">
+    <row r="8" spans="1:4" ht="16.899999999999999">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -3899,7 +3910,7 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -3915,7 +3926,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75">
+    <row r="2" spans="1:6" ht="17.649999999999999">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3929,7 +3940,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75">
+    <row r="3" spans="1:6" ht="17.649999999999999">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3943,7 +3954,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75">
+    <row r="4" spans="1:6" ht="17.649999999999999">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3957,7 +3968,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75">
+    <row r="5" spans="1:6" ht="17.649999999999999">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3971,7 +3982,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75">
+    <row r="6" spans="1:6" ht="17.649999999999999">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3987,7 +3998,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="18.75">
+    <row r="7" spans="1:6" ht="17.649999999999999">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4003,7 +4014,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="18.75">
+    <row r="8" spans="1:6" ht="17.649999999999999">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4019,7 +4030,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="18.75">
+    <row r="9" spans="1:6" ht="17.649999999999999">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4035,7 +4046,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="18.75">
+    <row r="10" spans="1:6" ht="17.649999999999999">
       <c r="A10">
         <v>9</v>
       </c>

--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CN-HET-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1162A7C-A6AE-4F0E-A579-3570278A6E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54EDF44-D7AC-4137-A5FE-FAC6CA7ED24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4163" yWindow="-16297" windowWidth="28995" windowHeight="15675" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,11 @@
     <sheet name="教授本科课程" sheetId="3" r:id="rId6"/>
     <sheet name="指导本科生毕业论文" sheetId="5" r:id="rId7"/>
     <sheet name="本科生获得奖励" sheetId="6" r:id="rId8"/>
-    <sheet name="指导研究生毕业论文" sheetId="7" r:id="rId9"/>
+    <sheet name="指导研究生毕业论文" sheetId="11" r:id="rId9"/>
     <sheet name="研究生获得奖励" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">发表论文!$A$2:$A$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">发表论文!$A$2:$A$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="266">
   <si>
     <t>papers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -876,340 +876,442 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>吴泽文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳中和关键金属技术-经济-政策决策优化系统软件</t>
+  </si>
+  <si>
+    <t>油气生产和消费革命战略分析软件平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天然气产供储销系统安全模拟与分析软件平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harnessing nudge interventions on blockchain energy sharing for promoting distributed PV diffusion in the post-subsidy era</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Theoretical modelling and guarantee mechanism simulation for renewable subsidy reverse auction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国技术经济学会优秀论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源生产和消费革命战略实施方案研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以立德树人为目标的问题链教学育人基地的创新与实践</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市课程思政示范课程教学名师和团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理学原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱嘉琪</t>
+  </si>
+  <si>
+    <t>生命周期视角下煤炭运输的碳排放测算及优化研究</t>
+  </si>
+  <si>
+    <t>面向碳中和的氢能货运汽车多区域协同发展研究</t>
+  </si>
+  <si>
+    <t>李智</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向碳中和的区域绿氢供应链网络优化研究</t>
+  </si>
+  <si>
+    <t>郑越</t>
+  </si>
+  <si>
+    <t>面向碳中和的煤炭行业碳市场机制模拟与路径分析</t>
+  </si>
+  <si>
+    <t>晏嘉泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>著作标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>著作类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专著</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张奇，王歌，刘江枫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出版社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济管理出版社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛瑀璇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向碳中和的氢能重卡与加氢站协同发展优化研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭宇璇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第八届全国青年能源环境政策与管理学术会议优秀论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳中和技术决策优化与政策分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十届全国大学生能源经济学术创意大赛华北电力大学校赛研究生组三等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国学术英语教学研究会“中国大学生 5 分钟科研英语演讲”全国总决赛特等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华北电力大学2022届校级优秀毕业生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵云瑞, 罗艺, 方桢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨儒楠、王致远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第九届全国大学生能源经济学术创意大赛北京赛区二等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第九届全国大学生能源经济学术创意大赛全国二等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵云瑞, 薛春晖, 罗艺, 方桢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十届全国大学生能源经济学术创意大赛北京赛区一等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十届全国大学生能源经济学术创意大赛全国三等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十届全国大学生能源经济学术创意大赛华北电力大学校赛本科生组二等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全国碳捕集、利用与封存（CCUS）技术研讨会优秀论文二等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳管理学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李彦斌,王辉, 张硕, 李赟, 王歌, 张峰, 薛晓达, 张玥, 陈思源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国电力出版社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈思源, 张奇, 王歌, 李彦. 基于博弈分析的我国天然气储气库开发策略及运营模式研究[J]. 石油科学通报, 2016(01): 175-182.</t>
+  </si>
+  <si>
+    <t>刘玮, 万燕鸣, 陈思源, 刘畅, 刘琦, 张岩, 王歌. 基于场景模拟的公路货运新能源车成本效益分析研究[J/OL]. 中国环境科学, 2023, 43(10): 5624-5632. DOI:10.19674/j.cnki.issn1000-6923.20230808.003.</t>
+  </si>
+  <si>
+    <t>刘雪飞, 张奇, 李彦, 余乐安, 王歌. 普惠金融支持光伏发电发展的空间效应研究[J/OL]. 中国管理科学, 2021, 29(8): 24-34. DOI:10.16381/j.cnki.issn1003-207x.2019.2128.</t>
+  </si>
+  <si>
+    <t>王歌, 张奇, 李彦, 余乐安. 区块链共享模式下的分布式光伏扩散演化模拟[J/OL]. 系统工程学报, 2024, 39(2): 189-199. DOI:10.13383/j.cnki.jse.2024.02.003.</t>
+  </si>
+  <si>
+    <t>张奇, 李彦, 王歌, 朱丽晶, 胡滢, 王乐. 基于复杂网络的电动汽车充电桩众筹市场信用风险建模与分析[J]. 中国管理科学, 2019, 27(08): 66-74.</t>
+  </si>
+  <si>
+    <t>Chen Siyuan, Zhang Qi, Wang Ge, Zhu Lijing, Li Yan. Investment strategy for underground gas storage facilities based on real option model considering gas market reform in china[J/OL]. Energy Economics, 2018, 70: 132-142. DOI:10.1016/j.eneco.2017.12.034.</t>
+  </si>
+  <si>
+    <t>Gao Zhihui, Zhang Qi, Liu Boyu, Liu Jiangfeng, Wang Ge, Ni Ruiyan, Yang Kexin. The driving factors and mitigation strategy of CO2 emissions from China’s passenger vehicle sector towards carbon neutrality[J/OL]. Energy, 2024, 294: 130830. DOI:10.1016/j.energy.2024.130830.</t>
+  </si>
+  <si>
+    <t>Li Yan, Li Hailong, Wang Ge, Liu Xuefei, Zhang Qi. Study on the optimal deployment for photovoltaic components recycle in china[J/OL]. Energy Procedia, 2019, 158: 4298-4303. DOI:10.1016/j.egypro.2019.01.794.</t>
+  </si>
+  <si>
+    <t>Li Yan, Wang Ge, Mclellan Benjamin, Chen Si-Yuan, Zhang Qi. Study of the impacts of upstream natural gas market reform in china on infrastructure deployment and social welfare using an SVM-based rolling horizon stochastic game analysis[J/OL]. Petroleum Science, 2018, 15(4): 898-911. DOI:10.1007/s12182-018-0238-x.</t>
+  </si>
+  <si>
+    <t>Li Yan, Wang Ge, Shen Bo, Zhang Qi, Liu Boyu, Xu Ruoxi. Conception and policy implications of photovoltaic modules end-of-life management in China[J/OL]. WIREs Energy and Environment, 2021, 10(1): e387. DOI:https://doi.org/10.1002/wene.387.</t>
+  </si>
+  <si>
+    <t>Li Yan, Zhang Qi, Wang Ge, McLellan Benjamin, Liu Xue Fei, Wang Le. A review of photovoltaic poverty alleviation projects in china: current status, challenge and policy recommendations[J/OL]. Renewable and Sustainable Energy Reviews, 2018, 94: 214-223. DOI:10.1016/j.rser.2018.06.012.</t>
+  </si>
+  <si>
+    <t>Li Yan, Zhang Qi, Wang Ge, Liu Xuefei, Mclellan Benjamin. Promotion policies for third party financing in photovoltaic poverty alleviation projects considering social reputation[J/OL]. Journal of Cleaner Production, 2019, 211: 350-359. DOI:10.1016/j.jclepro.2018.11.179.</t>
+  </si>
+  <si>
+    <t>Li Yan, Zhang Qi, Wang Ge, Liu Xuefei, McLellan Benjamin. Modeling and Policy Study for Information Asymmetry Problem of Photovoltaic Module Quality in China[J/OL]. Emerging Markets Finance and Trade, 2021, 57(3): 653-667. DOI:10.1080/1540496X.2019.1604337.</t>
+  </si>
+  <si>
+    <t>Li Yan, Zhang Qi, Wang Ge, Lu Xi. Recycling schemes and supporting policies modeling for photovoltaic modules considering heterogeneous risks[J/OL]. Resources, Conservation and Recycling, 2022, 180: 106165. DOI:10.1016/j.resconrec.2022.106165.</t>
+  </si>
+  <si>
+    <t>Liu Jiangfeng, Zhang Qi, Teng Fei, Wang Lu, Wang Ge. A New Investment Decision-Making Model of Hydrogen Energy Storage Technology Based on Real-Time Operation Optimization and Learning Effects[J/OL]. Journal of Energy Storage, 2024, 96: 112745. DOI:10.2139/ssrn.4761945.</t>
+  </si>
+  <si>
+    <t>Qian Jiaqi, Wang Ge, Yin Ting, Mao Yuxuan, Chen Siyuan, Li Yan, Liu Jiangfeng, Zhang Qi. Policy implications of electrifying land freight transport towards carbon-neutral in China[J/OL]. Transport Policy, 2025, 160: 116-124. DOI:10.1016/j.tranpol.2024.11.004.</t>
+  </si>
+  <si>
+    <t>Su Difei, Zhang Qi, Wang Ge, Li Hailong. Market analysis of natural gas for district heating in china[J/OL]. Energy Procedia, 2015, 75: 2713-2717. DOI:10.1016/j.egypro.2015.07.693.</t>
+  </si>
+  <si>
+    <t>Tang Yanyan, Zhang Qi, Li Yaoming, Wang Ge, Li Yan. Recycling mechanisms and policy suggestions for spent electric vehicles’ power battery -a case of beijing[J/OL]. Journal of Cleaner Production, 2018, 186: 388-406. DOI:10.1016/j.jclepro.2018.03.043.</t>
+  </si>
+  <si>
+    <t>Teng Fei, Zhang Qi, Chen Siyuan, Wang Ge, Huang Zhenyue, Wang Lu. Comprehensive effects of policy mixes on the diffusion of heavy-duty hydrogen fuel cell electric trucks in China considering technology learning[J/OL]. Energy Policy, 2024, 185: 113961. DOI:10.1016/j.enpol.2023.113961.</t>
+  </si>
+  <si>
+    <t>Teng Fei, Zhang Qi, Wang Ge, Liu Jiangfeng, Li Hailong. A comprehensive review of energy blockchain: Application scenarios and development trends[J/OL]. International Journal of Energy Research, 2021: er.7109. DOI:10.1002/er.7109.</t>
+  </si>
+  <si>
+    <t>Tian Ruijie, Zhang Qi, Wang Ge. Market analysis of natural gas for power generation in china[J/OL]. Energy Procedia, 2015, 75: 2718-2723. DOI:10.1016/j.egypro.2015.07.699.</t>
+  </si>
+  <si>
+    <t>Tian Ruijie, Zhang Qi, Wang Ge, Li Hailong, Chen Siyuan, Li Yan, Tian Yulu. Study on the promotion of natural gas-fired electricity with energy market reform in china using a dynamic game-theoretic model[J/OL]. Applied Energy, 2017, 185, Part 2: 1832-1839. DOI:10.1016/j.apenergy.2015.11.079.</t>
+  </si>
+  <si>
+    <t>Wang Ge, Zhang Qi, Li Hailong, McLellan Benjamin C., Chen Siyuan, Li Yan, Tian Yulu. Study on the promotion impact of demand response on distributed PV penetration by using non-cooperative game theoretical analysis[J/OL]. Applied Energy, 2017, 185: 1869-1878. DOI:10.1016/j.apenergy.2016.01.016.</t>
+  </si>
+  <si>
+    <t>Wang Ge, Zhang Qi, Li Hailong, Li Yan, Chen Siyuan. The impact of social network on the adoption of real-time electricity pricing mechanism[J/OL]. Energy Procedia, 2017, 142: 3154-3159. DOI:10.1016/j.egypro.2017.12.383.</t>
+  </si>
+  <si>
+    <t>Wang Ge, Zhang Qi, Li Yan, Li Hailong. Policy simulation for promoting residential PV considering anecdotal information exchanges based on social network modelling[J/OL]. Applied Energy, 2018, 223: 1-10. DOI:10.1016/j.apenergy.2018.04.028.</t>
+  </si>
+  <si>
+    <t>Wang Ge, Zhang Qi, Li Yan, Mclellan Benjamin C. Efficient and equitable allocation of renewable portfolio standards targets among china’s provinces[J/OL]. Energy Policy, 2019, 125: 170-180. DOI:10.1016/j.enpol.2018.10.044.</t>
+  </si>
+  <si>
+    <t>Wang Ge, Zhang Qi, Li Yan, Mclellan Benjamin C., Pan Xunzhang. Corrective regulations on renewable energy certificates trading: pursuing an equity-efficiency trade-off[J/OL]. Energy Economics, 2019, 80: 970-982. DOI:10.1016/j.eneco.2019.03.008.</t>
+  </si>
+  <si>
+    <t>Wang Ge, Zhang Qi, Mclellan Benjamin C., Li Hailong. Multi-region optimal deployment of renewable energy considering different interregional transmission scenarios[J/OL]. Energy, 2016, 108: 108-118. DOI:10.1016/j.energy.2015.08.060.</t>
+  </si>
+  <si>
+    <t>Wang Ge, Zhang Qi, Su Bin, Shen Bo, Li Yan, Li Zhengjun. Coordination of tradable carbon emission permits market and renewable electricity certificates market in China[J/OL]. Energy Economics, 2021, 93: 105038. DOI:10.1016/j.eneco.2020.105038.</t>
+  </si>
+  <si>
+    <t>Wang Ge, Zhang Qi, Tian Ruijie, Li Hailong. Combined impacts of RTP and FIT on optimal management for a residential micro-grid[J/OL]. Energy Procedia, 2015, 75: 1666-1672. DOI:10.1016/j.egypro.2015.07.410.</t>
+  </si>
+  <si>
+    <t>Wang Lu, Zhang Qi, Liu Jiangfeng, Wang Ge. Science mapping the knowledge domain of electrochemical energy storage technology: A bibliometric review[J/OL]. Journal of Energy Storage, 2024, 77: 109819. DOI:10.1016/j.est.2023.109819.</t>
+  </si>
+  <si>
+    <t>Yan Jiaze, Wang Ge, Chen Siyuan, Zhang He, Qian Jiaqi, Mao Yuxuan. Harnessing freight platforms to promote the penetration of long-haul heavy-duty hydrogen fuel-cell trucks[J/OL]. Energy, 2022, 254: 124225. DOI:10.1016/j.energy.2022.124225.</t>
+  </si>
+  <si>
+    <t>Yin Ting, Chen Siyuan, Wang Ge, Tan Yuxuan, Teng Fei, Zhang Qi. Can Subsidy Policies Achieve Fuel Cell Logistics Vehicle (FCLV) Promotion Targets? Evidence from the Beijing-Tianjin-Hebei Fuel Cell Vehicle Demonstration City Cluster in China[J/OL]. Energy, 2024: 133270. DOI:10.1016/j.energy.2024.133270.</t>
+  </si>
+  <si>
+    <t>Zhang Qi, Li Yan, Li Hailong, Wang Ge, Chen Siyuan. Study on the impacts of the LNG market reform in china using a SVM based rolling horizon stochastic game analysis[J/OL]. Energy Procedia, 2017, 105: 3850-3855. DOI:10.1016/j.egypro.2017.03.786.</t>
+  </si>
+  <si>
+    <t>Zhang Qi, Li Zhan, Wang Ge, Li Hailong. Study on the impacts of natural gas supply cost on gas flow and infrastructure deployment in china[J/OL]. Applied Energy, 2016, 162: 1385-1398. DOI:10.1016/j.apenergy.2015.06.058.</t>
+  </si>
+  <si>
+    <t>Zhang Qi, Liu Jiangfeng, Wang Ge, Gao Zhihui. A new optimization model for carbon capture utilization and storage (CCUS) layout based on high-resolution geological variability[J/OL]. Applied Energy, 2024, 363: 123065. DOI:10.1016/j.apenergy.2024.123065.</t>
+  </si>
+  <si>
+    <t>Zhang Qi, Liu Jiangfeng, Yang Kexin, Liu Boyu, Wang Ge. Market adoption simulation of electric vehicle based on social network model considering nudge policies[J/OL]. Energy, 2022, 259: 124984. DOI:10.1016/j.energy.2022.124984.</t>
+  </si>
+  <si>
+    <t>Zhang Qi, Wang Ge, Li Hailong, Li Yan, Chen Siyuan. Study on the implementation pathways and key impacts of RPS target in china using a dynamic game-theoretical equilibrium power market model[J/OL]. Energy Procedia, 2017, 105: 3844-3849. DOI:10.1016/j.egypro.2017.03.784.</t>
+  </si>
+  <si>
+    <t>Zhang Qi, Wang Ge, Li Yan, Li Hailong, McLellan Benjamin, Chen Siyuan. Substitution effect of renewable portfolio standards and renewable energy certificate trading for feed-in tariff[J/OL]. Applied Energy, 2018, 227: 426-435. DOI:10.1016/j.apenergy.2017.07.118.</t>
+  </si>
+  <si>
+    <t>Zhu Lijing, Lu Huihui, Zhang Qi, Li Hailong, Pan Xunzhang, Wang Ge, Li Yan. Application of crowdfunding on the financing of EV’s charging piles[J/OL]. Energy Procedia, 2016, 104: 336-341. DOI:10.1016/j.egypro.2016.12.057.</t>
+  </si>
+  <si>
+    <t>克拉玛依数字经济发展与低碳转型协同路径研究</t>
+  </si>
+  <si>
+    <t>天山研究院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张奇, 王歌, 焦婕. 双碳目标下新疆新能源发展路径及政策创新研究[J]. 克拉玛依学刊, 2025, 15(1): 5-17, 2.</t>
+  </si>
+  <si>
+    <t>王歌, 赵云瑞, 罗艺, 等, 2025. “氢”还是“电”？——考虑线路异质性的公交车脱碳路径成本效益分析[J]. 克拉玛依学刊, 15(2): 58-68, 2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氢能耦合场景技术经济决策优化模型研究咨询服务</t>
+  </si>
+  <si>
+    <t>国能氢创科技(北京)有限责任公司</t>
+  </si>
+  <si>
+    <t>工商管理导论</t>
+  </si>
+  <si>
+    <t>承担2学时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工商管理大一</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>咖啡饮料市场价格竞争策略有效性与可持续性研究 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>国货崛起背景下电商平台服装市场营销策略研究 </t>
-  </si>
-  <si>
-    <t>吴泽文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碳中和关键金属技术-经济-政策决策优化系统软件</t>
-  </si>
-  <si>
-    <t>油气生产和消费革命战略分析软件平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天然气产供储销系统安全模拟与分析软件平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Harnessing nudge interventions on blockchain energy sharing for promoting distributed PV diffusion in the post-subsidy era</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一等奖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Theoretical modelling and guarantee mechanism simulation for renewable subsidy reverse auction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国技术经济学会优秀论文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能源生产和消费革命战略实施方案研究</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以立德树人为目标的问题链教学育人基地的创新与实践</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市课程思政示范课程教学名师和团队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理学原理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱嘉琪</t>
-  </si>
-  <si>
-    <t>生命周期视角下煤炭运输的碳排放测算及优化研究</t>
-  </si>
-  <si>
-    <t>面向碳中和的氢能货运汽车多区域协同发展研究</t>
-  </si>
-  <si>
-    <t>李智</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面向碳中和的区域绿氢供应链网络优化研究</t>
-  </si>
-  <si>
-    <t>郑越</t>
-  </si>
-  <si>
-    <t>面向碳中和的煤炭行业碳市场机制模拟与路径分析</t>
-  </si>
-  <si>
-    <t>晏嘉泽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>著作标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>著作类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专著</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张奇，王歌，刘江枫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出版社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经济管理出版社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛瑀璇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面向碳中和的氢能重卡与加氢站协同发展优化研究</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双碳转型中算力中心商业模式创新研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄钰谦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑舆情反馈的资生堂化妆品营销策略研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhang Qi, Chen Siyuan, Teng Fei, Hao Yawei, Liu Boyu, Wang Ge. The impacts of financial support on technological innovation in fuel cell electric vehicles (FCEVs) from a national inter-comparative perspective[J/OL]. Energy, 2025, 320: 135034. DOI:10.1016/j.energy.2025.135034.</t>
+  </si>
+  <si>
+    <t>Yang Kexin, Zhang Qi, Wang Ge, Li Hailong, McLellan Benjamin. A new model for comprehensively evaluating the economic and environmental effects of vehicle-to-grid(V2G) towards carbon neutrality[J/OL]. Journal of Energy Storage, 2024, 98: 113067. DOI:10.1016/j.est.2024.113067.</t>
+  </si>
+  <si>
+    <t>考虑技术进步的储能技术经济分析与场景匹配研究</t>
+  </si>
+  <si>
+    <t>环境-可靠性双重约束下电氢耦合系统配置优化研究</t>
+  </si>
+  <si>
+    <t>基于技术学习曲线和物流路径优化的加氢站选址研究</t>
+  </si>
+  <si>
+    <t>基于演化博弈的物流行业绿色配送服务发展策略研究</t>
+  </si>
+  <si>
+    <t>程煜</t>
   </si>
   <si>
     <t>谭宇璇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第八届全国青年能源环境政策与管理学术会议优秀论文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碳中和技术决策优化与政策分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十届全国大学生能源经济学术创意大赛华北电力大学校赛研究生组三等奖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国学术英语教学研究会“中国大学生 5 分钟科研英语演讲”全国总决赛特等奖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华北电力大学2022届校级优秀毕业生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵云瑞, 罗艺, 方桢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨儒楠、王致远</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第九届全国大学生能源经济学术创意大赛北京赛区二等奖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第九届全国大学生能源经济学术创意大赛全国二等奖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵云瑞, 薛春晖, 罗艺, 方桢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十届全国大学生能源经济学术创意大赛北京赛区一等奖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十届全国大学生能源经济学术创意大赛全国三等奖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十届全国大学生能源经济学术创意大赛华北电力大学校赛本科生组二等奖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全国碳捕集、利用与封存（CCUS）技术研讨会优秀论文二等奖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碳管理学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教材</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李彦斌,王辉, 张硕, 李赟, 王歌, 张峰, 薛晓达, 张玥, 陈思源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国电力出版社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈思源, 张奇, 王歌, 李彦. 基于博弈分析的我国天然气储气库开发策略及运营模式研究[J]. 石油科学通报, 2016(01): 175-182.</t>
-  </si>
-  <si>
-    <t>刘玮, 万燕鸣, 陈思源, 刘畅, 刘琦, 张岩, 王歌. 基于场景模拟的公路货运新能源车成本效益分析研究[J/OL]. 中国环境科学, 2023, 43(10): 5624-5632. DOI:10.19674/j.cnki.issn1000-6923.20230808.003.</t>
-  </si>
-  <si>
-    <t>刘雪飞, 张奇, 李彦, 余乐安, 王歌. 普惠金融支持光伏发电发展的空间效应研究[J/OL]. 中国管理科学, 2021, 29(8): 24-34. DOI:10.16381/j.cnki.issn1003-207x.2019.2128.</t>
-  </si>
-  <si>
-    <t>王歌, 张奇, 李彦, 余乐安. 区块链共享模式下的分布式光伏扩散演化模拟[J/OL]. 系统工程学报, 2024, 39(2): 189-199. DOI:10.13383/j.cnki.jse.2024.02.003.</t>
-  </si>
-  <si>
-    <t>张奇, 李彦, 王歌, 朱丽晶, 胡滢, 王乐. 基于复杂网络的电动汽车充电桩众筹市场信用风险建模与分析[J]. 中国管理科学, 2019, 27(08): 66-74.</t>
-  </si>
-  <si>
-    <t>Chen Siyuan, Zhang Qi, Wang Ge, Zhu Lijing, Li Yan. Investment strategy for underground gas storage facilities based on real option model considering gas market reform in china[J/OL]. Energy Economics, 2018, 70: 132-142. DOI:10.1016/j.eneco.2017.12.034.</t>
-  </si>
-  <si>
-    <t>Gao Zhihui, Zhang Qi, Liu Boyu, Liu Jiangfeng, Wang Ge, Ni Ruiyan, Yang Kexin. The driving factors and mitigation strategy of CO2 emissions from China’s passenger vehicle sector towards carbon neutrality[J/OL]. Energy, 2024, 294: 130830. DOI:10.1016/j.energy.2024.130830.</t>
-  </si>
-  <si>
-    <t>Li Yan, Li Hailong, Wang Ge, Liu Xuefei, Zhang Qi. Study on the optimal deployment for photovoltaic components recycle in china[J/OL]. Energy Procedia, 2019, 158: 4298-4303. DOI:10.1016/j.egypro.2019.01.794.</t>
-  </si>
-  <si>
-    <t>Li Yan, Wang Ge, Mclellan Benjamin, Chen Si-Yuan, Zhang Qi. Study of the impacts of upstream natural gas market reform in china on infrastructure deployment and social welfare using an SVM-based rolling horizon stochastic game analysis[J/OL]. Petroleum Science, 2018, 15(4): 898-911. DOI:10.1007/s12182-018-0238-x.</t>
-  </si>
-  <si>
-    <t>Li Yan, Wang Ge, Shen Bo, Zhang Qi, Liu Boyu, Xu Ruoxi. Conception and policy implications of photovoltaic modules end-of-life management in China[J/OL]. WIREs Energy and Environment, 2021, 10(1): e387. DOI:https://doi.org/10.1002/wene.387.</t>
-  </si>
-  <si>
-    <t>Li Yan, Zhang Qi, Wang Ge, McLellan Benjamin, Liu Xue Fei, Wang Le. A review of photovoltaic poverty alleviation projects in china: current status, challenge and policy recommendations[J/OL]. Renewable and Sustainable Energy Reviews, 2018, 94: 214-223. DOI:10.1016/j.rser.2018.06.012.</t>
-  </si>
-  <si>
-    <t>Li Yan, Zhang Qi, Wang Ge, Liu Xuefei, Mclellan Benjamin. Promotion policies for third party financing in photovoltaic poverty alleviation projects considering social reputation[J/OL]. Journal of Cleaner Production, 2019, 211: 350-359. DOI:10.1016/j.jclepro.2018.11.179.</t>
-  </si>
-  <si>
-    <t>Li Yan, Zhang Qi, Wang Ge, Liu Xuefei, McLellan Benjamin. Modeling and Policy Study for Information Asymmetry Problem of Photovoltaic Module Quality in China[J/OL]. Emerging Markets Finance and Trade, 2021, 57(3): 653-667. DOI:10.1080/1540496X.2019.1604337.</t>
-  </si>
-  <si>
-    <t>Li Yan, Zhang Qi, Wang Ge, Lu Xi. Recycling schemes and supporting policies modeling for photovoltaic modules considering heterogeneous risks[J/OL]. Resources, Conservation and Recycling, 2022, 180: 106165. DOI:10.1016/j.resconrec.2022.106165.</t>
-  </si>
-  <si>
-    <t>Liu Jiangfeng, Zhang Qi, Teng Fei, Wang Lu, Wang Ge. A New Investment Decision-Making Model of Hydrogen Energy Storage Technology Based on Real-Time Operation Optimization and Learning Effects[J/OL]. Journal of Energy Storage, 2024, 96: 112745. DOI:10.2139/ssrn.4761945.</t>
-  </si>
-  <si>
-    <t>Qian Jiaqi, Wang Ge, Yin Ting, Mao Yuxuan, Chen Siyuan, Li Yan, Liu Jiangfeng, Zhang Qi. Policy implications of electrifying land freight transport towards carbon-neutral in China[J/OL]. Transport Policy, 2025, 160: 116-124. DOI:10.1016/j.tranpol.2024.11.004.</t>
-  </si>
-  <si>
-    <t>Su Difei, Zhang Qi, Wang Ge, Li Hailong. Market analysis of natural gas for district heating in china[J/OL]. Energy Procedia, 2015, 75: 2713-2717. DOI:10.1016/j.egypro.2015.07.693.</t>
-  </si>
-  <si>
-    <t>Tang Yanyan, Zhang Qi, Li Yaoming, Wang Ge, Li Yan. Recycling mechanisms and policy suggestions for spent electric vehicles’ power battery -a case of beijing[J/OL]. Journal of Cleaner Production, 2018, 186: 388-406. DOI:10.1016/j.jclepro.2018.03.043.</t>
-  </si>
-  <si>
-    <t>Teng Fei, Zhang Qi, Chen Siyuan, Wang Ge, Huang Zhenyue, Wang Lu. Comprehensive effects of policy mixes on the diffusion of heavy-duty hydrogen fuel cell electric trucks in China considering technology learning[J/OL]. Energy Policy, 2024, 185: 113961. DOI:10.1016/j.enpol.2023.113961.</t>
-  </si>
-  <si>
-    <t>Teng Fei, Zhang Qi, Wang Ge, Liu Jiangfeng, Li Hailong. A comprehensive review of energy blockchain: Application scenarios and development trends[J/OL]. International Journal of Energy Research, 2021: er.7109. DOI:10.1002/er.7109.</t>
-  </si>
-  <si>
-    <t>Tian Ruijie, Zhang Qi, Wang Ge. Market analysis of natural gas for power generation in china[J/OL]. Energy Procedia, 2015, 75: 2718-2723. DOI:10.1016/j.egypro.2015.07.699.</t>
-  </si>
-  <si>
-    <t>Tian Ruijie, Zhang Qi, Wang Ge, Li Hailong, Chen Siyuan, Li Yan, Tian Yulu. Study on the promotion of natural gas-fired electricity with energy market reform in china using a dynamic game-theoretic model[J/OL]. Applied Energy, 2017, 185, Part 2: 1832-1839. DOI:10.1016/j.apenergy.2015.11.079.</t>
-  </si>
-  <si>
-    <t>Wang Ge, Zhang Qi, Li Hailong, McLellan Benjamin C., Chen Siyuan, Li Yan, Tian Yulu. Study on the promotion impact of demand response on distributed PV penetration by using non-cooperative game theoretical analysis[J/OL]. Applied Energy, 2017, 185: 1869-1878. DOI:10.1016/j.apenergy.2016.01.016.</t>
-  </si>
-  <si>
-    <t>Wang Ge, Zhang Qi, Li Hailong, Li Yan, Chen Siyuan. The impact of social network on the adoption of real-time electricity pricing mechanism[J/OL]. Energy Procedia, 2017, 142: 3154-3159. DOI:10.1016/j.egypro.2017.12.383.</t>
-  </si>
-  <si>
-    <t>Wang Ge, Zhang Qi, Li Yan, Li Hailong. Policy simulation for promoting residential PV considering anecdotal information exchanges based on social network modelling[J/OL]. Applied Energy, 2018, 223: 1-10. DOI:10.1016/j.apenergy.2018.04.028.</t>
-  </si>
-  <si>
-    <t>Wang Ge, Zhang Qi, Li Yan, Mclellan Benjamin C. Efficient and equitable allocation of renewable portfolio standards targets among china’s provinces[J/OL]. Energy Policy, 2019, 125: 170-180. DOI:10.1016/j.enpol.2018.10.044.</t>
-  </si>
-  <si>
-    <t>Wang Ge, Zhang Qi, Li Yan, Mclellan Benjamin C., Pan Xunzhang. Corrective regulations on renewable energy certificates trading: pursuing an equity-efficiency trade-off[J/OL]. Energy Economics, 2019, 80: 970-982. DOI:10.1016/j.eneco.2019.03.008.</t>
-  </si>
-  <si>
-    <t>Wang Ge, Zhang Qi, Mclellan Benjamin C., Li Hailong. Multi-region optimal deployment of renewable energy considering different interregional transmission scenarios[J/OL]. Energy, 2016, 108: 108-118. DOI:10.1016/j.energy.2015.08.060.</t>
-  </si>
-  <si>
-    <t>Wang Ge, Zhang Qi, Su Bin, Shen Bo, Li Yan, Li Zhengjun. Coordination of tradable carbon emission permits market and renewable electricity certificates market in China[J/OL]. Energy Economics, 2021, 93: 105038. DOI:10.1016/j.eneco.2020.105038.</t>
-  </si>
-  <si>
-    <t>Wang Ge, Zhang Qi, Tian Ruijie, Li Hailong. Combined impacts of RTP and FIT on optimal management for a residential micro-grid[J/OL]. Energy Procedia, 2015, 75: 1666-1672. DOI:10.1016/j.egypro.2015.07.410.</t>
-  </si>
-  <si>
-    <t>Wang Lu, Zhang Qi, Liu Jiangfeng, Wang Ge. Science mapping the knowledge domain of electrochemical energy storage technology: A bibliometric review[J/OL]. Journal of Energy Storage, 2024, 77: 109819. DOI:10.1016/j.est.2023.109819.</t>
-  </si>
-  <si>
-    <t>Yan Jiaze, Wang Ge, Chen Siyuan, Zhang He, Qian Jiaqi, Mao Yuxuan. Harnessing freight platforms to promote the penetration of long-haul heavy-duty hydrogen fuel-cell trucks[J/OL]. Energy, 2022, 254: 124225. DOI:10.1016/j.energy.2022.124225.</t>
-  </si>
-  <si>
-    <t>Yin Ting, Chen Siyuan, Wang Ge, Tan Yuxuan, Teng Fei, Zhang Qi. Can Subsidy Policies Achieve Fuel Cell Logistics Vehicle (FCLV) Promotion Targets? Evidence from the Beijing-Tianjin-Hebei Fuel Cell Vehicle Demonstration City Cluster in China[J/OL]. Energy, 2024: 133270. DOI:10.1016/j.energy.2024.133270.</t>
-  </si>
-  <si>
-    <t>Zhang Qi, Li Yan, Li Hailong, Wang Ge, Chen Siyuan. Study on the impacts of the LNG market reform in china using a SVM based rolling horizon stochastic game analysis[J/OL]. Energy Procedia, 2017, 105: 3850-3855. DOI:10.1016/j.egypro.2017.03.786.</t>
-  </si>
-  <si>
-    <t>Zhang Qi, Li Zhan, Wang Ge, Li Hailong. Study on the impacts of natural gas supply cost on gas flow and infrastructure deployment in china[J/OL]. Applied Energy, 2016, 162: 1385-1398. DOI:10.1016/j.apenergy.2015.06.058.</t>
-  </si>
-  <si>
-    <t>Zhang Qi, Liu Jiangfeng, Wang Ge, Gao Zhihui. A new optimization model for carbon capture utilization and storage (CCUS) layout based on high-resolution geological variability[J/OL]. Applied Energy, 2024, 363: 123065. DOI:10.1016/j.apenergy.2024.123065.</t>
-  </si>
-  <si>
-    <t>Zhang Qi, Liu Jiangfeng, Yang Kexin, Liu Boyu, Wang Ge. Market adoption simulation of electric vehicle based on social network model considering nudge policies[J/OL]. Energy, 2022, 259: 124984. DOI:10.1016/j.energy.2022.124984.</t>
-  </si>
-  <si>
-    <t>Zhang Qi, Wang Ge, Li Hailong, Li Yan, Chen Siyuan. Study on the implementation pathways and key impacts of RPS target in china using a dynamic game-theoretical equilibrium power market model[J/OL]. Energy Procedia, 2017, 105: 3844-3849. DOI:10.1016/j.egypro.2017.03.784.</t>
-  </si>
-  <si>
-    <t>Zhang Qi, Wang Ge, Li Yan, Li Hailong, McLellan Benjamin, Chen Siyuan. Substitution effect of renewable portfolio standards and renewable energy certificate trading for feed-in tariff[J/OL]. Applied Energy, 2018, 227: 426-435. DOI:10.1016/j.apenergy.2017.07.118.</t>
-  </si>
-  <si>
-    <t>Zhu Lijing, Lu Huihui, Zhang Qi, Li Hailong, Pan Xunzhang, Wang Ge, Li Yan. Application of crowdfunding on the financing of EV’s charging piles[J/OL]. Energy Procedia, 2016, 104: 336-341. DOI:10.1016/j.egypro.2016.12.057.</t>
-  </si>
-  <si>
-    <t>克拉玛依数字经济发展与低碳转型协同路径研究</t>
-  </si>
-  <si>
-    <t>天山研究院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张奇, 王歌, 焦婕. 双碳目标下新疆新能源发展路径及政策创新研究[J]. 克拉玛依学刊, 2025, 15(1): 5-17, 2.</t>
+  </si>
+  <si>
+    <t>冯楚怡</t>
+  </si>
+  <si>
+    <t>尹亭</t>
+  </si>
+  <si>
+    <t>康晓杰</t>
+  </si>
+  <si>
+    <t>生命周期视角下氮肥生产脱碳路径优选与成本测度</t>
+  </si>
+  <si>
+    <t>赵铭路</t>
+  </si>
+  <si>
+    <t>全产业链视角下电动汽车一体压铸技术经济分析</t>
+  </si>
+  <si>
+    <t>李梓熙</t>
+  </si>
+  <si>
+    <t>F公司公路货运氢车替代综合效益与商业模式研究</t>
+  </si>
+  <si>
+    <t>周舟</t>
+  </si>
+  <si>
+    <t>基于全产业链视角的绿氢供应分析控制</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1301,6 +1403,19 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FF272727"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1327,7 +1442,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1356,6 +1471,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1673,10 +1791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D26B086-2910-434C-AB97-2AC2ABC062E1}">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
@@ -1688,212 +1806,227 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="9" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A79">
-    <sortCondition descending="1" ref="A2:A79"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A77">
+    <sortCondition descending="1" ref="A2:A77"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1935,6 +2068,8 @@
     <hyperlink ref="A9" r:id="rId36" display="https://doi.org/10.1016/j.egypro.2017.03.784" xr:uid="{D753D908-32D2-7E49-A534-15401F2BB4F2}"/>
     <hyperlink ref="A8" r:id="rId37" display="https://doi.org/10.1016/j.apenergy.2017.07.118" xr:uid="{661092D1-CF00-CD4A-99E7-AD0C07DA78FF}"/>
     <hyperlink ref="A7" r:id="rId38" display="https://doi.org/10.1016/j.egypro.2016.12.057" xr:uid="{90B8C809-78BA-7643-BBF7-7B2B000B6ACB}"/>
+    <hyperlink ref="A44" r:id="rId39" display="https://doi.org/10.1016/j.energy.2025.135034" xr:uid="{B6AC6070-72F1-4FD9-B496-C7DB6FD9B20F}"/>
+    <hyperlink ref="A45" r:id="rId40" display="https://doi.org/10.1016/j.est.2024.113067" xr:uid="{33FF4E00-CD92-45BA-B4B0-5DE8442DF55C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1969,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
         <v>122</v>
@@ -1983,7 +2118,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
         <v>123</v>
@@ -2028,7 +2163,7 @@
         <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D6">
         <v>2024</v>
@@ -2053,10 +2188,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D8">
         <v>2024</v>
@@ -2070,7 +2205,7 @@
         <v>129</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D9">
         <v>2024</v>
@@ -2095,19 +2230,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
         <v>167</v>
-      </c>
-      <c r="C1" t="s">
-        <v>169</v>
       </c>
       <c r="D1" t="s">
         <v>135</v>
       </c>
       <c r="E1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F1" t="s">
         <v>52</v>
@@ -2115,42 +2250,42 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s">
         <v>168</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
       </c>
       <c r="D2">
         <v>2024</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" t="s">
         <v>191</v>
-      </c>
-      <c r="B3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" t="s">
-        <v>193</v>
       </c>
       <c r="D3">
         <v>2023</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2161,10 +2296,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA794A-9001-A74B-80D1-3BD53AFA6286}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
@@ -2574,13 +2709,13 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>235</v>
+      <c r="A14" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C14">
+        <v>234</v>
+      </c>
+      <c r="C14" s="5">
         <v>10</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -2602,6 +2737,38 @@
         <v>10</v>
       </c>
       <c r="J14" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="5">
+        <v>28.5</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2025</v>
+      </c>
+      <c r="G15" s="5">
+        <v>4</v>
+      </c>
+      <c r="H15" s="5">
+        <v>2026</v>
+      </c>
+      <c r="I15" s="5">
+        <v>3</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2658,7 +2825,7 @@
         <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2681,10 +2848,10 @@
         <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -2704,7 +2871,7 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
@@ -2733,7 +2900,7 @@
         <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
         <v>68</v>
@@ -2885,7 +3052,7 @@
         <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -2908,10 +3075,10 @@
         <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -2931,10 +3098,10 @@
         <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -3026,7 +3193,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C4">
         <v>2018</v>
@@ -3037,7 +3204,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C5">
         <v>2018</v>
@@ -3059,7 +3226,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7">
         <v>2024</v>
@@ -3073,10 +3240,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F2145B-3863-3D45-AEBD-0C0EC00F327D}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
@@ -3537,6 +3704,142 @@
       </c>
       <c r="I17" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17.649999999999999">
+      <c r="A18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>2024</v>
+      </c>
+      <c r="E18">
+        <v>2025</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5">
+      <c r="A19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>32</v>
+      </c>
+      <c r="D19">
+        <v>2024</v>
+      </c>
+      <c r="E19">
+        <v>2025</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5">
+      <c r="A20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>2024</v>
+      </c>
+      <c r="E20">
+        <v>2025</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17.649999999999999">
+      <c r="A21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>2024</v>
+      </c>
+      <c r="E21">
+        <v>2025</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>242</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5">
+      <c r="A22" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>2024</v>
+      </c>
+      <c r="E22">
+        <v>2025</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>223</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3547,7 +3850,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043C31DB-9752-464C-8454-299AF5C51F83}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
@@ -3745,10 +4048,10 @@
         <v>2024</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3759,10 +4062,38 @@
         <v>2024</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2025</v>
+      </c>
+      <c r="C16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2025</v>
+      </c>
+      <c r="C17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D17" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3806,7 +4137,7 @@
         <v>94</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D2" s="7">
         <v>2021</v>
@@ -3820,7 +4151,7 @@
         <v>94</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D3" s="7">
         <v>2022</v>
@@ -3831,10 +4162,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="D4" s="7">
         <v>2023</v>
@@ -3845,10 +4176,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D5" s="7">
         <v>2023</v>
@@ -3859,10 +4190,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D6" s="7">
         <v>2024</v>
@@ -3873,10 +4204,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="D7" s="7">
         <v>2024</v>
@@ -3887,10 +4218,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D8" s="7">
         <v>2024</v>
@@ -3903,16 +4234,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D8C139-ACC1-6D4D-BEB1-4CC3D49C0724}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98788439-86AF-4930-AA31-26894588CD29}">
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>112</v>
       </c>
@@ -3926,7 +4257,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.649999999999999">
+    <row r="2" spans="1:7" ht="17.649999999999999">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3940,7 +4271,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.649999999999999">
+    <row r="3" spans="1:7" ht="17.649999999999999">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3954,7 +4285,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.649999999999999">
+    <row r="4" spans="1:7" ht="17.649999999999999">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3968,7 +4299,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.649999999999999">
+    <row r="5" spans="1:7" ht="17.649999999999999">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3982,7 +4313,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.649999999999999">
+    <row r="6" spans="1:7" ht="17.649999999999999">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3990,15 +4321,15 @@
         <v>2024</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="17.649999999999999">
+    <row r="7" spans="1:7" ht="17.649999999999999">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4009,12 +4340,12 @@
         <v>124</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="17.649999999999999">
+    <row r="8" spans="1:7" ht="17.649999999999999">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4022,15 +4353,15 @@
         <v>2024</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="17.649999999999999">
+    <row r="9" spans="1:7" ht="17.649999999999999">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4038,15 +4369,15 @@
         <v>2024</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="17.649999999999999">
+    <row r="10" spans="1:7" ht="17.649999999999999">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4054,11 +4385,147 @@
         <v>2024</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
-        <v>175</v>
-      </c>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.649999999999999">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="17.649999999999999">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="17.649999999999999">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="17.649999999999999">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="17.649999999999999">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="17.649999999999999">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="17.649999999999999">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="17.649999999999999">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CN-HET-Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/CN-HET-Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54EDF44-D7AC-4137-A5FE-FAC6CA7ED24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B2E809-6637-1447-B8CE-056B60F5CB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="-2920" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="267">
   <si>
     <t>papers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1305,6 +1305,10 @@
   </si>
   <si>
     <t>基于全产业链视角的绿氢供应分析控制</t>
+  </si>
+  <si>
+    <t>氢储能时空布局优化与市场协同机制研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1442,7 +1446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1468,9 +1472,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1793,11 +1794,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D26B086-2910-434C-AB97-2AC2ABC062E1}">
   <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="125" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -2005,22 +2006,22 @@
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="9" t="s">
+      <c r="A42" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="9" t="s">
+      <c r="A43" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="9" t="s">
+      <c r="A44" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="9" t="s">
+      <c r="A45" t="s">
         <v>249</v>
       </c>
     </row>
@@ -2083,7 +2084,7 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -2127,7 +2128,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.149999999999999">
+    <row r="4" spans="1:4" ht="18">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2141,7 +2142,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.149999999999999">
+    <row r="5" spans="1:4" ht="18">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2226,9 +2227,9 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="17">
       <c r="A1" s="5" t="s">
         <v>164</v>
       </c>
@@ -2296,15 +2297,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA794A-9001-A74B-80D1-3BD53AFA6286}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="17">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2336,7 +2337,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="17">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -2368,7 +2369,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="17">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="17">
       <c r="A4" s="5" t="s">
         <v>132</v>
       </c>
@@ -2432,7 +2433,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="17">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -2464,7 +2465,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="17">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="17">
       <c r="A7" s="5" t="s">
         <v>134</v>
       </c>
@@ -2526,7 +2527,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="17">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -2556,7 +2557,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="17">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="17">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
@@ -2616,7 +2617,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="17">
       <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
@@ -2646,7 +2647,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="17">
       <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
@@ -2676,7 +2677,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="17">
       <c r="A13" s="5" t="s">
         <v>83</v>
       </c>
@@ -2708,7 +2709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="17">
       <c r="A14" s="5" t="s">
         <v>233</v>
       </c>
@@ -2740,7 +2741,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="17">
       <c r="A15" s="5" t="s">
         <v>237</v>
       </c>
@@ -2770,6 +2771,38 @@
       </c>
       <c r="J15" s="5" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17">
+      <c r="A16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="5">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2025</v>
+      </c>
+      <c r="G16" s="5">
+        <v>5</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2027</v>
+      </c>
+      <c r="I16" s="5">
+        <v>6</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2786,7 +2819,7 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -2944,7 +2977,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="17">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -2967,7 +3000,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="17">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -3024,7 +3057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="17">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -3150,7 +3183,7 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
   </cols>
@@ -3246,7 +3279,7 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -3463,7 +3496,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.649999999999999">
+    <row r="9" spans="1:9" ht="17">
       <c r="A9" s="2" t="s">
         <v>85</v>
       </c>
@@ -3489,7 +3522,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5">
+    <row r="10" spans="1:9" ht="17">
       <c r="A10" s="3" t="s">
         <v>86</v>
       </c>
@@ -3515,7 +3548,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
+    <row r="11" spans="1:9" ht="17">
       <c r="A11" s="3" t="s">
         <v>87</v>
       </c>
@@ -3541,7 +3574,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.649999999999999">
+    <row r="12" spans="1:9" ht="17">
       <c r="A12" s="2" t="s">
         <v>127</v>
       </c>
@@ -3570,7 +3603,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.649999999999999">
+    <row r="13" spans="1:9" ht="17">
       <c r="A13" s="2" t="s">
         <v>127</v>
       </c>
@@ -3599,7 +3632,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.649999999999999">
+    <row r="14" spans="1:9" ht="17">
       <c r="A14" s="2" t="s">
         <v>85</v>
       </c>
@@ -3625,7 +3658,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5">
+    <row r="15" spans="1:9" ht="17">
       <c r="A15" s="3" t="s">
         <v>86</v>
       </c>
@@ -3651,7 +3684,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5">
+    <row r="16" spans="1:9" ht="17">
       <c r="A16" s="3" t="s">
         <v>87</v>
       </c>
@@ -3677,7 +3710,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.649999999999999">
+    <row r="17" spans="1:9" ht="17">
       <c r="A17" s="2" t="s">
         <v>127</v>
       </c>
@@ -3706,7 +3739,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17.649999999999999">
+    <row r="18" spans="1:9" ht="17">
       <c r="A18" s="2" t="s">
         <v>85</v>
       </c>
@@ -3732,7 +3765,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5">
+    <row r="19" spans="1:9" ht="17">
       <c r="A19" s="3" t="s">
         <v>86</v>
       </c>
@@ -3758,7 +3791,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5">
+    <row r="20" spans="1:9" ht="17">
       <c r="A20" s="3" t="s">
         <v>87</v>
       </c>
@@ -3784,7 +3817,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17.649999999999999">
+    <row r="21" spans="1:9" ht="17">
       <c r="A21" s="2" t="s">
         <v>127</v>
       </c>
@@ -3813,8 +3846,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.5">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:9" ht="17">
+      <c r="A22" s="9" t="s">
         <v>239</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -3856,7 +3889,7 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -4110,9 +4143,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1171875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="47.87890625" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4129,7 +4162,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.899999999999999">
+    <row r="2" spans="1:4" ht="18">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -4143,7 +4176,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.899999999999999">
+    <row r="3" spans="1:4" ht="18">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -4157,7 +4190,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.899999999999999">
+    <row r="4" spans="1:4" ht="18">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -4171,7 +4204,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.899999999999999">
+    <row r="5" spans="1:4" ht="18">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -4185,7 +4218,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.899999999999999">
+    <row r="6" spans="1:4" ht="18">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -4199,7 +4232,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.899999999999999">
+    <row r="7" spans="1:4" ht="18">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -4213,7 +4246,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.899999999999999">
+    <row r="8" spans="1:4" ht="18">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -4241,7 +4274,7 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -4257,7 +4290,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.649999999999999">
+    <row r="2" spans="1:7" ht="17">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4271,7 +4304,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.649999999999999">
+    <row r="3" spans="1:7" ht="17">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4285,7 +4318,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.649999999999999">
+    <row r="4" spans="1:7" ht="17">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4299,7 +4332,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.649999999999999">
+    <row r="5" spans="1:7" ht="17">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4313,7 +4346,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.649999999999999">
+    <row r="6" spans="1:7" ht="17">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4329,7 +4362,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="17.649999999999999">
+    <row r="7" spans="1:7" ht="17">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4345,7 +4378,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="17.649999999999999">
+    <row r="8" spans="1:7" ht="17">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4361,7 +4394,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="17.649999999999999">
+    <row r="9" spans="1:7" ht="17">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4377,7 +4410,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="17.649999999999999">
+    <row r="10" spans="1:7" ht="17">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4391,7 +4424,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.649999999999999">
+    <row r="11" spans="1:7" ht="17">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -4408,7 +4441,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="17.649999999999999">
+    <row r="12" spans="1:7" ht="17">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4425,7 +4458,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="17.649999999999999">
+    <row r="13" spans="1:7" ht="17">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -4442,7 +4475,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="17.649999999999999">
+    <row r="14" spans="1:7" ht="17">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4459,7 +4492,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="17.649999999999999">
+    <row r="15" spans="1:7" ht="17">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -4476,7 +4509,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="17.649999999999999">
+    <row r="16" spans="1:7" ht="17">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4493,7 +4526,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="17.649999999999999">
+    <row r="17" spans="1:7" ht="17">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -4510,7 +4543,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="17.649999999999999">
+    <row r="18" spans="1:7" ht="17">
       <c r="A18">
         <v>17</v>
       </c>

--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/CN-HET-Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B2E809-6637-1447-B8CE-056B60F5CB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CF4C96-0C1E-BE46-A6A8-57DD9946334A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2920" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="-6140" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="9" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
@@ -2080,11 +2080,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C14FA6-174E-FB43-BF02-E436B1D6FEA7}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="59.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -2299,7 +2302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA794A-9001-A74B-80D1-3BD53AFA6286}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -4271,7 +4274,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="B15" sqref="B15:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>

--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/CN-HET-Lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CN-HET-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CF4C96-0C1E-BE46-A6A8-57DD9946334A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C006F8-CE5E-4AF9-8992-0A8BF4C6B84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6140" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="9" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="2" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="271">
   <si>
     <t>papers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1308,6 +1308,22 @@
   </si>
   <si>
     <t>氢储能时空布局优化与市场协同机制研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华北电力大学优秀毕业生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李梓熙、叶辉辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十一届全国大学生能源经济学术创意大赛北京赛区三等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战杯首都大学生课外学术科技作品竞赛一等奖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1798,7 +1814,7 @@
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -2078,15 +2094,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C14FA6-174E-FB43-BF02-E436B1D6FEA7}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="59.1640625" customWidth="1"/>
+    <col min="3" max="3" width="59.17578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2131,7 +2147,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18">
+    <row r="4" spans="1:4" ht="16.149999999999999">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2145,7 +2161,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18">
+    <row r="5" spans="1:4" ht="16.149999999999999">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2213,6 +2229,48 @@
       </c>
       <c r="D9">
         <v>2024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12">
+        <v>2025</v>
       </c>
     </row>
   </sheetData>
@@ -2230,9 +2288,9 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="17">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>164</v>
       </c>
@@ -2302,13 +2360,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA794A-9001-A74B-80D1-3BD53AFA6286}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="17">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2340,7 +2398,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17">
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -2372,7 +2430,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17">
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -2404,7 +2462,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>132</v>
       </c>
@@ -2436,7 +2494,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17">
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -2468,7 +2526,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17">
+    <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -2500,7 +2558,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17">
+    <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
         <v>134</v>
       </c>
@@ -2530,7 +2588,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17">
+    <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -2560,7 +2618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17">
+    <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -2590,7 +2648,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17">
+    <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
@@ -2620,7 +2678,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17">
+    <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
@@ -2650,7 +2708,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17">
+    <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
@@ -2680,7 +2738,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17">
+    <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
         <v>83</v>
       </c>
@@ -2712,7 +2770,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17">
+    <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
         <v>233</v>
       </c>
@@ -2744,7 +2802,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17">
+    <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
         <v>237</v>
       </c>
@@ -2776,7 +2834,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>266</v>
       </c>
@@ -2819,10 +2877,10 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -2980,7 +3038,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -3003,7 +3061,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -3060,7 +3118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -3186,7 +3244,7 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
   </cols>
@@ -3282,7 +3340,7 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -3499,7 +3557,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17">
+    <row r="9" spans="1:9" ht="17.649999999999999">
       <c r="A9" s="2" t="s">
         <v>85</v>
       </c>
@@ -3525,7 +3583,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="3" t="s">
         <v>86</v>
       </c>
@@ -3551,7 +3609,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="3" t="s">
         <v>87</v>
       </c>
@@ -3577,7 +3635,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17">
+    <row r="12" spans="1:9" ht="17.649999999999999">
       <c r="A12" s="2" t="s">
         <v>127</v>
       </c>
@@ -3606,7 +3664,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17">
+    <row r="13" spans="1:9" ht="17.649999999999999">
       <c r="A13" s="2" t="s">
         <v>127</v>
       </c>
@@ -3635,7 +3693,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17">
+    <row r="14" spans="1:9" ht="17.649999999999999">
       <c r="A14" s="2" t="s">
         <v>85</v>
       </c>
@@ -3661,7 +3719,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="3" t="s">
         <v>86</v>
       </c>
@@ -3687,7 +3745,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="3" t="s">
         <v>87</v>
       </c>
@@ -3713,7 +3771,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17">
+    <row r="17" spans="1:9" ht="17.649999999999999">
       <c r="A17" s="2" t="s">
         <v>127</v>
       </c>
@@ -3742,7 +3800,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17">
+    <row r="18" spans="1:9" ht="17.649999999999999">
       <c r="A18" s="2" t="s">
         <v>85</v>
       </c>
@@ -3768,7 +3826,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="3" t="s">
         <v>86</v>
       </c>
@@ -3794,7 +3852,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="17">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="3" t="s">
         <v>87</v>
       </c>
@@ -3820,7 +3878,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17">
+    <row r="21" spans="1:9" ht="17.649999999999999">
       <c r="A21" s="2" t="s">
         <v>127</v>
       </c>
@@ -3849,7 +3907,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17">
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="9" t="s">
         <v>239</v>
       </c>
@@ -3889,10 +3947,10 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -4140,15 +4198,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48A253F-20F1-5F40-90A5-ADDA6B988307}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="47.83203125" customWidth="1"/>
+    <col min="3" max="3" width="47.8203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4165,7 +4223,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18">
+    <row r="2" spans="1:4" ht="16.899999999999999">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -4179,7 +4237,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18">
+    <row r="3" spans="1:4" ht="16.899999999999999">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -4193,7 +4251,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18">
+    <row r="4" spans="1:4" ht="16.899999999999999">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -4207,7 +4265,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18">
+    <row r="5" spans="1:4" ht="16.899999999999999">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -4221,7 +4279,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18">
+    <row r="6" spans="1:4" ht="16.899999999999999">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -4235,7 +4293,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18">
+    <row r="7" spans="1:4" ht="16.899999999999999">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -4249,7 +4307,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18">
+    <row r="8" spans="1:4" ht="16.899999999999999">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -4262,6 +4320,40 @@
       <c r="D8" s="7">
         <v>2024</v>
       </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.899999999999999">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.899999999999999">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.899999999999999">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4274,10 +4366,10 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:I16"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -4293,7 +4385,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17">
+    <row r="2" spans="1:7" ht="17.649999999999999">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4307,7 +4399,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17">
+    <row r="3" spans="1:7" ht="17.649999999999999">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4321,7 +4413,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17">
+    <row r="4" spans="1:7" ht="17.649999999999999">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4335,7 +4427,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17">
+    <row r="5" spans="1:7" ht="17.649999999999999">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4349,7 +4441,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17">
+    <row r="6" spans="1:7" ht="17.649999999999999">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4365,7 +4457,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="17">
+    <row r="7" spans="1:7" ht="17.649999999999999">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4381,7 +4473,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="17">
+    <row r="8" spans="1:7" ht="17.649999999999999">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4397,7 +4489,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="17">
+    <row r="9" spans="1:7" ht="17.649999999999999">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4413,7 +4505,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="17">
+    <row r="10" spans="1:7" ht="17.649999999999999">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4427,7 +4519,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17">
+    <row r="11" spans="1:7" ht="17.649999999999999">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -4444,7 +4536,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="17">
+    <row r="12" spans="1:7" ht="17.649999999999999">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4461,7 +4553,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="17">
+    <row r="13" spans="1:7" ht="17.649999999999999">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -4478,7 +4570,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="17">
+    <row r="14" spans="1:7" ht="17.649999999999999">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4495,7 +4587,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="17">
+    <row r="15" spans="1:7" ht="17.649999999999999">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -4512,7 +4604,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="17">
+    <row r="16" spans="1:7" ht="17.649999999999999">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4529,7 +4621,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="17">
+    <row r="17" spans="1:7" ht="17.649999999999999">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -4546,7 +4638,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="17">
+    <row r="18" spans="1:7" ht="17.649999999999999">
       <c r="A18">
         <v>17</v>
       </c>

--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CN-HET-Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/CN-HET-Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C006F8-CE5E-4AF9-8992-0A8BF4C6B84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09193A37-DBAE-BD47-A6B7-2432244AFD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="2" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29000" windowHeight="15680" activeTab="3" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="276">
   <si>
     <t>papers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1326,12 +1326,30 @@
     <t>挑战杯首都大学生课外学术科技作品竞赛一等奖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>京津冀绿氢储能资源时空布局优化与市场协同机制研究</t>
+  </si>
+  <si>
+    <t>河北省自然科学基金面上项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学技术奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆自治区科学技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“双碳”目标下光伏与电动汽车耦合发展决策优化关键方法与应用</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1436,6 +1454,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1462,7 +1487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1491,6 +1516,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1814,7 +1842,7 @@
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -2100,9 +2128,9 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="59.17578125" customWidth="1"/>
+    <col min="3" max="3" width="59.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2147,7 +2175,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.149999999999999">
+    <row r="4" spans="1:4" ht="18">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2161,7 +2189,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.149999999999999">
+    <row r="5" spans="1:4" ht="18">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2288,9 +2316,9 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="17">
       <c r="A1" s="5" t="s">
         <v>164</v>
       </c>
@@ -2358,15 +2386,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA794A-9001-A74B-80D1-3BD53AFA6286}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="17">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2398,7 +2426,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="17">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -2430,7 +2458,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="17">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -2462,7 +2490,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="17">
       <c r="A4" s="5" t="s">
         <v>132</v>
       </c>
@@ -2494,7 +2522,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="17">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -2526,7 +2554,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="17">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -2558,7 +2586,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="17">
       <c r="A7" s="5" t="s">
         <v>134</v>
       </c>
@@ -2588,7 +2616,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="17">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -2618,7 +2646,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="17">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -2648,7 +2676,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="17">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
@@ -2678,7 +2706,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="17">
       <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
@@ -2708,7 +2736,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="17">
       <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
@@ -2738,7 +2766,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="17">
       <c r="A13" s="5" t="s">
         <v>83</v>
       </c>
@@ -2770,7 +2798,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="17">
       <c r="A14" s="5" t="s">
         <v>233</v>
       </c>
@@ -2802,7 +2830,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="17">
       <c r="A15" s="5" t="s">
         <v>237</v>
       </c>
@@ -2834,7 +2862,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="17">
       <c r="A16" t="s">
         <v>266</v>
       </c>
@@ -2863,6 +2891,38 @@
         <v>6</v>
       </c>
       <c r="J16" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="5" customFormat="1" ht="17">
+      <c r="A17" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" s="5">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2025</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>2026</v>
+      </c>
+      <c r="I17" s="5">
+        <v>12</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2874,13 +2934,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2095B75-DB61-6845-8E62-D94BF38E48B3}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M12:M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -3038,7 +3098,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="17">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -3061,7 +3121,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="17">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -3118,7 +3178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="17">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -3228,6 +3288,32 @@
       </c>
       <c r="H15">
         <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2025</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3244,7 +3330,7 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
   </cols>
@@ -3340,7 +3426,7 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -3557,7 +3643,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.649999999999999">
+    <row r="9" spans="1:9" ht="17">
       <c r="A9" s="2" t="s">
         <v>85</v>
       </c>
@@ -3583,7 +3669,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5">
+    <row r="10" spans="1:9" ht="17">
       <c r="A10" s="3" t="s">
         <v>86</v>
       </c>
@@ -3609,7 +3695,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
+    <row r="11" spans="1:9" ht="17">
       <c r="A11" s="3" t="s">
         <v>87</v>
       </c>
@@ -3635,7 +3721,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.649999999999999">
+    <row r="12" spans="1:9" ht="17">
       <c r="A12" s="2" t="s">
         <v>127</v>
       </c>
@@ -3664,7 +3750,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.649999999999999">
+    <row r="13" spans="1:9" ht="17">
       <c r="A13" s="2" t="s">
         <v>127</v>
       </c>
@@ -3693,7 +3779,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.649999999999999">
+    <row r="14" spans="1:9" ht="17">
       <c r="A14" s="2" t="s">
         <v>85</v>
       </c>
@@ -3719,7 +3805,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5">
+    <row r="15" spans="1:9" ht="17">
       <c r="A15" s="3" t="s">
         <v>86</v>
       </c>
@@ -3745,7 +3831,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5">
+    <row r="16" spans="1:9" ht="17">
       <c r="A16" s="3" t="s">
         <v>87</v>
       </c>
@@ -3771,7 +3857,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.649999999999999">
+    <row r="17" spans="1:9" ht="17">
       <c r="A17" s="2" t="s">
         <v>127</v>
       </c>
@@ -3800,7 +3886,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17.649999999999999">
+    <row r="18" spans="1:9" ht="17">
       <c r="A18" s="2" t="s">
         <v>85</v>
       </c>
@@ -3826,7 +3912,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5">
+    <row r="19" spans="1:9" ht="17">
       <c r="A19" s="3" t="s">
         <v>86</v>
       </c>
@@ -3852,7 +3938,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5">
+    <row r="20" spans="1:9" ht="17">
       <c r="A20" s="3" t="s">
         <v>87</v>
       </c>
@@ -3878,7 +3964,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17.649999999999999">
+    <row r="21" spans="1:9" ht="17">
       <c r="A21" s="2" t="s">
         <v>127</v>
       </c>
@@ -3907,7 +3993,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.5">
+    <row r="22" spans="1:9" ht="17">
       <c r="A22" s="9" t="s">
         <v>239</v>
       </c>
@@ -3950,7 +4036,7 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -4204,9 +4290,9 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="47.8203125" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4223,7 +4309,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.899999999999999">
+    <row r="2" spans="1:4" ht="18">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -4237,7 +4323,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.899999999999999">
+    <row r="3" spans="1:4" ht="18">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -4251,7 +4337,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.899999999999999">
+    <row r="4" spans="1:4" ht="18">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -4265,7 +4351,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.899999999999999">
+    <row r="5" spans="1:4" ht="18">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -4279,7 +4365,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.899999999999999">
+    <row r="6" spans="1:4" ht="18">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -4293,7 +4379,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.899999999999999">
+    <row r="7" spans="1:4" ht="18">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -4307,7 +4393,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.899999999999999">
+    <row r="8" spans="1:4" ht="18">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -4321,7 +4407,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.899999999999999">
+    <row r="9" spans="1:4" ht="18">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -4335,7 +4421,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.899999999999999">
+    <row r="10" spans="1:4" ht="18">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -4349,7 +4435,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.899999999999999">
+    <row r="11" spans="1:4" ht="18">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -4369,7 +4455,7 @@
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -4385,7 +4471,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.649999999999999">
+    <row r="2" spans="1:7" ht="18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4399,7 +4485,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.649999999999999">
+    <row r="3" spans="1:7" ht="18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4413,7 +4499,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.649999999999999">
+    <row r="4" spans="1:7" ht="18">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4427,7 +4513,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.649999999999999">
+    <row r="5" spans="1:7" ht="18">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4441,7 +4527,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.649999999999999">
+    <row r="6" spans="1:7" ht="18">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4457,7 +4543,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="17.649999999999999">
+    <row r="7" spans="1:7" ht="18">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4473,7 +4559,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="17.649999999999999">
+    <row r="8" spans="1:7" ht="18">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4489,7 +4575,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="17.649999999999999">
+    <row r="9" spans="1:7" ht="18">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4505,7 +4591,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="17.649999999999999">
+    <row r="10" spans="1:7" ht="18">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4519,7 +4605,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.649999999999999">
+    <row r="11" spans="1:7" ht="18">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -4536,7 +4622,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="17.649999999999999">
+    <row r="12" spans="1:7" ht="18">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4553,7 +4639,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="17.649999999999999">
+    <row r="13" spans="1:7" ht="18">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -4570,7 +4656,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="17.649999999999999">
+    <row r="14" spans="1:7" ht="18">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4587,7 +4673,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="17.649999999999999">
+    <row r="15" spans="1:7" ht="18">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -4604,7 +4690,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="17.649999999999999">
+    <row r="16" spans="1:7" ht="18">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4621,7 +4707,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="17.649999999999999">
+    <row r="17" spans="1:7" ht="18">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -4638,7 +4724,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="17.649999999999999">
+    <row r="18" spans="1:7" ht="18">
       <c r="A18">
         <v>17</v>
       </c>

--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/CN-HET-Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09193A37-DBAE-BD47-A6B7-2432244AFD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35D0BCD-7EDE-C74D-B111-A60935209D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29000" windowHeight="15680" activeTab="3" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29000" windowHeight="15680" activeTab="7" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="279">
   <si>
     <t>papers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1343,6 +1343,18 @@
   </si>
   <si>
     <t>“双碳”目标下光伏与电动汽车耦合发展决策优化关键方法与应用</t>
+  </si>
+  <si>
+    <t>中国国际大学生创新大赛(2025)北京赛区高教主赛道二等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李梓熙 ，叶辉辉，姜尧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四届高校电气电子工程创新大赛北京赛区二等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2936,7 +2948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2095B75-DB61-6845-8E62-D94BF38E48B3}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M12:M13"/>
     </sheetView>
   </sheetViews>
@@ -4284,10 +4296,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48A253F-20F1-5F40-90A5-ADDA6B988307}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -4295,7 +4307,7 @@
     <col min="3" max="3" width="47.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>112</v>
       </c>
@@ -4309,7 +4321,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18">
+    <row r="2" spans="1:6" ht="18">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -4323,7 +4335,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18">
+    <row r="3" spans="1:6" ht="18">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -4337,7 +4349,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18">
+    <row r="4" spans="1:6" ht="18">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -4351,7 +4363,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18">
+    <row r="5" spans="1:6" ht="18">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -4365,7 +4377,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18">
+    <row r="6" spans="1:6" ht="18">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -4379,7 +4391,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18">
+    <row r="7" spans="1:6" ht="18">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -4393,7 +4405,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18">
+    <row r="8" spans="1:6" ht="18">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -4407,7 +4419,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18">
+    <row r="9" spans="1:6" ht="18">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -4420,8 +4432,10 @@
       <c r="D9" s="7">
         <v>2025</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="18">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="18">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -4434,12 +4448,40 @@
       <c r="D10" s="7">
         <v>2025</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="18">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="18">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2025</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="18">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2025</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4471,7 +4513,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18">
+    <row r="2" spans="1:7" ht="17">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4485,7 +4527,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18">
+    <row r="3" spans="1:7" ht="17">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4499,7 +4541,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18">
+    <row r="4" spans="1:7" ht="17">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4513,7 +4555,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18">
+    <row r="5" spans="1:7" ht="17">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4527,7 +4569,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18">
+    <row r="6" spans="1:7" ht="17">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4543,7 +4585,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="18">
+    <row r="7" spans="1:7" ht="17">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4559,7 +4601,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="18">
+    <row r="8" spans="1:7" ht="17">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4575,7 +4617,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="18">
+    <row r="9" spans="1:7" ht="17">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4591,7 +4633,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="18">
+    <row r="10" spans="1:7" ht="17">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4605,7 +4647,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18">
+    <row r="11" spans="1:7" ht="17">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -4622,7 +4664,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="18">
+    <row r="12" spans="1:7" ht="17">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4639,7 +4681,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="18">
+    <row r="13" spans="1:7" ht="17">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -4656,7 +4698,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="18">
+    <row r="14" spans="1:7" ht="17">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4673,7 +4715,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="18">
+    <row r="15" spans="1:7" ht="17">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -4690,7 +4732,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="18">
+    <row r="16" spans="1:7" ht="17">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4707,7 +4749,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="18">
+    <row r="17" spans="1:7" ht="17">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -4724,7 +4766,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="18">
+    <row r="18" spans="1:7" ht="17">
       <c r="A18">
         <v>17</v>
       </c>

--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/CN-HET-Lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CN-HET-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35D0BCD-7EDE-C74D-B111-A60935209D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5227882-351F-4EF2-B3FB-0F8251A30143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29000" windowHeight="15680" activeTab="7" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
@@ -41,12 +41,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="283">
   <si>
     <t>papers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>国家自然科学基金青年项目</t>
-  </si>
-  <si>
-    <t>绿色电氢耦合的价值识别、布局优化与政策协同研究</t>
   </si>
   <si>
     <t>主持</t>
@@ -1327,33 +1327,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>河北省自然科学基金面上项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学技术奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆自治区科学技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“双碳”目标下光伏与电动汽车耦合发展决策优化关键方法与应用</t>
+  </si>
+  <si>
+    <t>中国国际大学生创新大赛(2025)北京赛区高教主赛道二等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李梓熙 ，叶辉辉，姜尧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四届高校电气电子工程创新大赛北京赛区二等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优秀指导教师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二届全国大学生电力市场交易能力大赛优秀指导教师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱海婷、谢含宇、缪春雨</t>
+  </si>
+  <si>
+    <t>第二届全国大学生电力市场交易能力大赛全国特等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>京津冀绿氢储能资源时空布局优化与市场协同机制研究</t>
-  </si>
-  <si>
-    <t>河北省自然科学基金面上项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科学技术奖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新疆自治区科学技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“双碳”目标下光伏与电动汽车耦合发展决策优化关键方法与应用</t>
-  </si>
-  <si>
-    <t>中国国际大学生创新大赛(2025)北京赛区高教主赛道二等奖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李梓熙 ，叶辉辉，姜尧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四届高校电气电子工程创新大赛北京赛区二等奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色电氢耦合的价值识别、布局优化与政策协同研究</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1854,7 +1874,7 @@
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1863,222 +1883,222 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2140,23 +2160,23 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="59.1640625" customWidth="1"/>
+    <col min="3" max="3" width="59.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
         <v>112</v>
       </c>
-      <c r="B1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" t="s">
-        <v>113</v>
-      </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2164,10 +2184,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2">
         <v>2023</v>
@@ -2178,38 +2198,38 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18">
+    <row r="4" spans="1:4" ht="17.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18">
+    <row r="5" spans="1:4" ht="17.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
         <v>125</v>
-      </c>
-      <c r="C5" t="s">
-        <v>126</v>
       </c>
       <c r="D5">
         <v>2023</v>
@@ -2220,10 +2240,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D6">
         <v>2024</v>
@@ -2234,10 +2254,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" t="s">
         <v>129</v>
-      </c>
-      <c r="C7" t="s">
-        <v>130</v>
       </c>
       <c r="D7">
         <v>2023</v>
@@ -2248,10 +2268,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" t="s">
         <v>174</v>
-      </c>
-      <c r="C8" t="s">
-        <v>175</v>
       </c>
       <c r="D8">
         <v>2024</v>
@@ -2262,10 +2282,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9">
         <v>2024</v>
@@ -2276,10 +2296,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10">
         <v>2025</v>
@@ -2290,10 +2310,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11">
         <v>2025</v>
@@ -2304,10 +2324,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D12">
         <v>2025</v>
@@ -2324,70 +2344,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FFF91B-78E0-4A8D-AC15-0F3D3EB2758B}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="17">
+    <row r="1" spans="1:6" ht="16.5">
       <c r="A1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="C1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D2">
         <v>2024</v>
       </c>
       <c r="E2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" t="s">
         <v>170</v>
-      </c>
-      <c r="F2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
         <v>189</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>190</v>
-      </c>
-      <c r="C3" t="s">
-        <v>191</v>
       </c>
       <c r="D3">
         <v>2023</v>
       </c>
       <c r="E3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2401,12 +2421,12 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="17">
+    <row r="1" spans="1:10" ht="16.5">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2435,12 +2455,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>282</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
@@ -2449,10 +2469,10 @@
         <v>30</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="F2" s="5">
         <v>2023</v>
@@ -2467,24 +2487,24 @@
         <v>12</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5">
       <c r="A3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5">
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="F3" s="5">
         <v>2020</v>
@@ -2499,24 +2519,24 @@
         <v>6</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="5">
         <v>2021</v>
@@ -2531,24 +2551,24 @@
         <v>6</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="5">
         <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="5">
         <v>2020</v>
@@ -2563,24 +2583,24 @@
         <v>12</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="5">
         <v>2016</v>
@@ -2595,22 +2615,22 @@
         <v>9</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5">
       <c r="A7" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="5">
         <v>2016</v>
@@ -2625,22 +2645,22 @@
         <v>12</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5">
       <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="5">
         <v>2018</v>
@@ -2655,22 +2675,22 @@
         <v>12</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="5">
         <v>2020</v>
@@ -2685,22 +2705,22 @@
         <v>12</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5">
       <c r="A10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="5">
         <v>2021</v>
@@ -2715,22 +2735,22 @@
         <v>12</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="5">
         <v>2018</v>
@@ -2745,22 +2765,22 @@
         <v>6</v>
       </c>
       <c r="J11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5">
+      <c r="A12" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="17">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="5">
         <v>2020</v>
@@ -2775,24 +2795,24 @@
         <v>12</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.5">
       <c r="A13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="C13" s="5">
         <v>15</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="F13" s="5">
         <v>2022</v>
@@ -2807,24 +2827,24 @@
         <v>12</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16.5">
       <c r="A14" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="C14" s="5">
         <v>10</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="F14" s="5">
         <v>2024</v>
@@ -2839,24 +2859,24 @@
         <v>10</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.5">
       <c r="A15" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="C15" s="5">
         <v>28.5</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="F15" s="5">
         <v>2025</v>
@@ -2871,24 +2891,24 @@
         <v>3</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5">
       <c r="A16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="5">
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="F16" s="5">
         <v>2025</v>
@@ -2903,24 +2923,24 @@
         <v>6</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="5" customFormat="1" ht="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A17" s="5" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C17" s="5">
         <v>6</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="F17" s="5">
         <v>2025</v>
@@ -2935,7 +2955,7 @@
         <v>12</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2946,52 +2966,52 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2095B75-DB61-6845-8E62-D94BF38E48B3}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M12:M13"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
-        <v>56</v>
-      </c>
       <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>61</v>
-      </c>
-      <c r="H1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3008,16 +3028,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" t="s">
         <v>149</v>
-      </c>
-      <c r="D3" t="s">
-        <v>150</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -3034,16 +3054,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -3060,16 +3080,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" t="s">
         <v>67</v>
-      </c>
-      <c r="C5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -3086,16 +3106,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -3110,15 +3130,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17">
+    <row r="7" spans="1:8" ht="16.5">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3133,12 +3153,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17">
+    <row r="8" spans="1:8" ht="16.5">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3155,10 +3175,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3175,10 +3195,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -3190,12 +3210,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3209,16 +3229,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -3235,16 +3255,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -3261,13 +3281,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" t="s">
         <v>154</v>
-      </c>
-      <c r="D14" t="s">
-        <v>155</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -3284,10 +3304,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3304,16 +3324,16 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>273</v>
-      </c>
-      <c r="B16" t="s">
-        <v>274</v>
-      </c>
-      <c r="C16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>275</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -3326,6 +3346,26 @@
       </c>
       <c r="H16">
         <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17" t="s">
+        <v>278</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2025</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3342,20 +3382,20 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3363,7 +3403,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3374,7 +3414,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3385,7 +3425,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4">
         <v>2018</v>
@@ -3396,7 +3436,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5">
         <v>2018</v>
@@ -3407,7 +3447,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6">
         <v>2024</v>
@@ -3418,7 +3458,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7">
         <v>2024</v>
@@ -3435,46 +3475,46 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
       <c r="I1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
         <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
       </c>
       <c r="C2">
         <v>40</v>
@@ -3492,15 +3532,15 @@
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
         <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
       </c>
       <c r="C3">
         <v>40</v>
@@ -3518,15 +3558,15 @@
         <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
         <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
       </c>
       <c r="C4">
         <v>40</v>
@@ -3544,15 +3584,15 @@
         <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <v>32</v>
@@ -3570,15 +3610,15 @@
         <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -3596,15 +3636,15 @@
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>32</v>
@@ -3622,15 +3662,15 @@
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>24</v>
@@ -3649,18 +3689,18 @@
         <v>506</v>
       </c>
       <c r="H8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" t="s">
         <v>53</v>
       </c>
-      <c r="I8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17">
+    </row>
+    <row r="9" spans="1:9" ht="18.75">
       <c r="A9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>32</v>
@@ -3678,15 +3718,15 @@
         <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>32</v>
@@ -3704,15 +3744,15 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="C11">
         <v>32</v>
@@ -3730,15 +3770,15 @@
         <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75">
       <c r="A12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -3756,18 +3796,18 @@
         <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.75">
       <c r="A13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -3785,18 +3825,18 @@
         <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18.75">
       <c r="A14" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14">
         <v>32</v>
@@ -3814,15 +3854,15 @@
         <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>32</v>
@@ -3840,15 +3880,15 @@
         <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="C16">
         <v>32</v>
@@ -3866,15 +3906,15 @@
         <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18.75">
       <c r="A17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -3892,18 +3932,18 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18.75">
       <c r="A18" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18">
         <v>32</v>
@@ -3921,15 +3961,15 @@
         <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19">
         <v>32</v>
@@ -3947,15 +3987,15 @@
         <v>100</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="C20">
         <v>32</v>
@@ -3973,15 +4013,15 @@
         <v>36</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18.75">
       <c r="A21" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -3999,18 +4039,18 @@
         <v>242</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="17">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -4028,10 +4068,10 @@
         <v>223</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4048,20 +4088,20 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
         <v>90</v>
-      </c>
-      <c r="D1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4072,10 +4112,10 @@
         <v>2020</v>
       </c>
       <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
         <v>102</v>
-      </c>
-      <c r="D2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4086,10 +4126,10 @@
         <v>2020</v>
       </c>
       <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
         <v>104</v>
-      </c>
-      <c r="D3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4100,10 +4140,10 @@
         <v>2020</v>
       </c>
       <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
         <v>106</v>
-      </c>
-      <c r="D4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4114,10 +4154,10 @@
         <v>2020</v>
       </c>
       <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
         <v>108</v>
-      </c>
-      <c r="D5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4128,10 +4168,10 @@
         <v>2020</v>
       </c>
       <c r="C6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
         <v>110</v>
-      </c>
-      <c r="D6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4142,10 +4182,10 @@
         <v>2021</v>
       </c>
       <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
         <v>98</v>
-      </c>
-      <c r="D7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4156,10 +4196,10 @@
         <v>2021</v>
       </c>
       <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
         <v>100</v>
-      </c>
-      <c r="D8" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4170,10 +4210,10 @@
         <v>2022</v>
       </c>
       <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s">
         <v>94</v>
-      </c>
-      <c r="D9" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4184,10 +4224,10 @@
         <v>2022</v>
       </c>
       <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
         <v>96</v>
-      </c>
-      <c r="D10" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4198,10 +4238,10 @@
         <v>2023</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4212,10 +4252,10 @@
         <v>2023</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4226,10 +4266,10 @@
         <v>2023</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4240,10 +4280,10 @@
         <v>2024</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4254,10 +4294,10 @@
         <v>2024</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4268,10 +4308,10 @@
         <v>2025</v>
       </c>
       <c r="C16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4282,10 +4322,10 @@
         <v>2025</v>
       </c>
       <c r="C17" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17" t="s">
         <v>246</v>
-      </c>
-      <c r="D17" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -4296,138 +4336,138 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48A253F-20F1-5F40-90A5-ADDA6B988307}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="47.83203125" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
         <v>112</v>
       </c>
-      <c r="B1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" t="s">
-        <v>113</v>
-      </c>
       <c r="D1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D2" s="7">
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18">
+    <row r="3" spans="1:6" ht="17.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D3" s="7">
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18">
+    <row r="4" spans="1:6" ht="17.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D4" s="7">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18">
+    <row r="5" spans="1:6" ht="17.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" s="7">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18">
+    <row r="6" spans="1:6" ht="17.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="D6" s="7">
         <v>2024</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18">
+    <row r="7" spans="1:6" ht="17.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D7" s="7">
         <v>2024</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18">
+    <row r="8" spans="1:6" ht="17.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D8" s="7">
         <v>2024</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18">
+    <row r="9" spans="1:6" ht="17.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="D9" s="7">
         <v>2025</v>
@@ -4435,15 +4475,15 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="18">
+    <row r="10" spans="1:6" ht="17.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D10" s="7">
         <v>2025</v>
@@ -4451,15 +4491,15 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="18">
+    <row r="11" spans="1:6" ht="17.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D11" s="7">
         <v>2025</v>
@@ -4467,21 +4507,35 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="18">
+    <row r="12" spans="1:6" ht="17.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D12" s="7">
         <v>2025</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="17.25">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2025</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4494,26 +4548,26 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17">
+    </row>
+    <row r="2" spans="1:7" ht="18.75">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4521,13 +4575,13 @@
         <v>2023</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="17">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4535,13 +4589,13 @@
         <v>2023</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4549,13 +4603,13 @@
         <v>2023</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17">
+    </row>
+    <row r="5" spans="1:7" ht="18.75">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4563,13 +4617,13 @@
         <v>2023</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17">
+    </row>
+    <row r="6" spans="1:7" ht="18.75">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4577,15 +4631,15 @@
         <v>2024</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="17">
+    <row r="7" spans="1:7" ht="18.75">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4593,15 +4647,15 @@
         <v>2024</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="17">
+    <row r="8" spans="1:7" ht="18.75">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4609,15 +4663,15 @@
         <v>2024</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="17">
+    <row r="9" spans="1:7" ht="18.75">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4625,15 +4679,15 @@
         <v>2024</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="17">
+    <row r="10" spans="1:7" ht="18.75">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4641,13 +4695,13 @@
         <v>2024</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" t="s">
         <v>172</v>
       </c>
-      <c r="D10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="17">
+    </row>
+    <row r="11" spans="1:7" ht="18.75">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -4655,16 +4709,16 @@
         <v>2025</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="17">
+    <row r="12" spans="1:7" ht="18.75">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4672,16 +4726,16 @@
         <v>2025</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="17">
+    <row r="13" spans="1:7" ht="18.75">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -4689,16 +4743,16 @@
         <v>2025</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="17">
+    <row r="14" spans="1:7" ht="18.75">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4706,16 +4760,16 @@
         <v>2025</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="17">
+    <row r="15" spans="1:7" ht="18.75">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -4723,16 +4777,16 @@
         <v>2025</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="17">
+    <row r="16" spans="1:7" ht="18.75">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4740,16 +4794,16 @@
         <v>2025</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>261</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="17">
+    <row r="17" spans="1:7" ht="18.75">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -4757,16 +4811,16 @@
         <v>2025</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="17">
+    <row r="18" spans="1:7" ht="18.75">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4774,10 +4828,10 @@
         <v>2025</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>

--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CN-HET-Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/CN-HET-Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5227882-351F-4EF2-B3FB-0F8251A30143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4811FD22-CD66-4942-8CF8-D6BE2CCA0841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="3740" yWindow="-18320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
@@ -41,15 +41,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="286">
   <si>
     <t>papers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1376,12 +1373,23 @@
     <t>绿色电氢耦合的价值识别、布局优化与政策协同研究</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>风光储能算力一体化配置软件</t>
+  </si>
+  <si>
+    <t>沙河高校联盟"碳管理学"微专业课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承担12学时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1474,12 +1482,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="5"/>
-      <color rgb="FF272727"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="13"/>
       <color rgb="FF333333"/>
       <name val="等线"/>
@@ -1491,6 +1493,19 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="SimSun"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1519,7 +1534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1547,10 +1562,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1870,11 +1888,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D26B086-2910-434C-AB97-2AC2ABC062E1}">
   <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="125" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -2160,9 +2178,9 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="59.125" customWidth="1"/>
+    <col min="3" max="3" width="59.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2207,7 +2225,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.25">
+    <row r="4" spans="1:4" ht="18">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2221,7 +2239,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25">
+    <row r="5" spans="1:4" ht="18">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2344,13 +2362,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FFF91B-78E0-4A8D-AC15-0F3D3EB2758B}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5">
+    <row r="1" spans="1:6" ht="17">
       <c r="A1" s="5" t="s">
         <v>163</v>
       </c>
@@ -2420,13 +2438,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA794A-9001-A74B-80D1-3BD53AFA6286}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="40.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5">
+    <row r="1" spans="1:10" ht="17">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2458,7 +2479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5">
+    <row r="2" spans="1:10" ht="17">
       <c r="A2" s="5" t="s">
         <v>282</v>
       </c>
@@ -2490,7 +2511,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5">
+    <row r="3" spans="1:10" ht="17">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -2522,7 +2543,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5">
+    <row r="4" spans="1:10" ht="17">
       <c r="A4" s="5" t="s">
         <v>131</v>
       </c>
@@ -2554,7 +2575,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5">
+    <row r="5" spans="1:10" ht="17">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -2586,7 +2607,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5">
+    <row r="6" spans="1:10" ht="17">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -2618,7 +2639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5">
+    <row r="7" spans="1:10" ht="17">
       <c r="A7" s="5" t="s">
         <v>133</v>
       </c>
@@ -2648,7 +2669,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.5">
+    <row r="8" spans="1:10" ht="17">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -2678,7 +2699,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5">
+    <row r="9" spans="1:10" ht="17">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -2690,7 +2711,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F9" s="5">
         <v>2020</v>
@@ -2708,7 +2729,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5">
+    <row r="10" spans="1:10" ht="17">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -2720,7 +2741,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F10" s="5">
         <v>2021</v>
@@ -2738,7 +2759,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5">
+    <row r="11" spans="1:10" ht="17">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
@@ -2768,7 +2789,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5">
+    <row r="12" spans="1:10" ht="17">
       <c r="A12" s="5" t="s">
         <v>32</v>
       </c>
@@ -2798,7 +2819,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5">
+    <row r="13" spans="1:10" ht="17">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -2812,7 +2833,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F13" s="5">
         <v>2022</v>
@@ -2830,7 +2851,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.5">
+    <row r="14" spans="1:10" ht="17">
       <c r="A14" s="5" t="s">
         <v>232</v>
       </c>
@@ -2862,7 +2883,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16.5">
+    <row r="15" spans="1:10" ht="17">
       <c r="A15" s="5" t="s">
         <v>236</v>
       </c>
@@ -2894,7 +2915,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.5">
+    <row r="16" spans="1:10" ht="17">
       <c r="A16" t="s">
         <v>265</v>
       </c>
@@ -2926,7 +2947,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="5" customFormat="1" ht="16.5">
+    <row r="17" spans="1:10" s="5" customFormat="1" ht="17">
       <c r="A17" s="5" t="s">
         <v>281</v>
       </c>
@@ -2972,7 +2993,7 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -3130,7 +3151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5">
+    <row r="7" spans="1:8" ht="17">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -3153,7 +3174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5">
+    <row r="8" spans="1:8" ht="17">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -3210,7 +3231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="17">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -3332,7 +3353,7 @@
       <c r="C16" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>273</v>
       </c>
       <c r="E16">
@@ -3376,13 +3397,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97835992-E917-4687-8577-521ABE5EB3AA}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
   </cols>
@@ -3462,6 +3483,17 @@
       </c>
       <c r="C7">
         <v>2024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8">
+        <v>2025</v>
       </c>
     </row>
   </sheetData>
@@ -3472,13 +3504,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F2145B-3863-3D45-AEBD-0C0EC00F327D}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -3695,7 +3727,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75">
+    <row r="9" spans="1:9" ht="17">
       <c r="A9" s="2" t="s">
         <v>84</v>
       </c>
@@ -3721,7 +3753,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5">
+    <row r="10" spans="1:9" ht="17">
       <c r="A10" s="3" t="s">
         <v>85</v>
       </c>
@@ -3747,7 +3779,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
+    <row r="11" spans="1:9" ht="17">
       <c r="A11" s="3" t="s">
         <v>86</v>
       </c>
@@ -3773,7 +3805,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75">
+    <row r="12" spans="1:9" ht="17">
       <c r="A12" s="2" t="s">
         <v>126</v>
       </c>
@@ -3802,7 +3834,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75">
+    <row r="13" spans="1:9" ht="17">
       <c r="A13" s="2" t="s">
         <v>126</v>
       </c>
@@ -3831,7 +3863,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75">
+    <row r="14" spans="1:9" ht="17">
       <c r="A14" s="2" t="s">
         <v>84</v>
       </c>
@@ -3857,7 +3889,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5">
+    <row r="15" spans="1:9" ht="17">
       <c r="A15" s="3" t="s">
         <v>85</v>
       </c>
@@ -3883,7 +3915,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5">
+    <row r="16" spans="1:9" ht="17">
       <c r="A16" s="3" t="s">
         <v>86</v>
       </c>
@@ -3909,7 +3941,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.75">
+    <row r="17" spans="1:9" ht="17">
       <c r="A17" s="2" t="s">
         <v>126</v>
       </c>
@@ -3938,7 +3970,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18.75">
+    <row r="18" spans="1:9" ht="17">
       <c r="A18" s="2" t="s">
         <v>84</v>
       </c>
@@ -3964,7 +3996,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5">
+    <row r="19" spans="1:9" ht="17">
       <c r="A19" s="3" t="s">
         <v>85</v>
       </c>
@@ -3990,7 +4022,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5">
+    <row r="20" spans="1:9" ht="17">
       <c r="A20" s="3" t="s">
         <v>86</v>
       </c>
@@ -4016,7 +4048,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18.75">
+    <row r="21" spans="1:9" ht="17">
       <c r="A21" s="2" t="s">
         <v>126</v>
       </c>
@@ -4045,8 +4077,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.5">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:9" ht="17">
+      <c r="A22" s="3" t="s">
         <v>238</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -4072,6 +4104,64 @@
       </c>
       <c r="I22" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17">
+      <c r="A23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>2025</v>
+      </c>
+      <c r="E23">
+        <v>2026</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17">
+      <c r="A24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>2025</v>
+      </c>
+      <c r="E24">
+        <v>2026</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4085,10 +4175,10 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -4339,12 +4429,12 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4361,7 +4451,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25">
+    <row r="2" spans="1:6" ht="18">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -4375,7 +4465,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.25">
+    <row r="3" spans="1:6" ht="18">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -4389,7 +4479,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.25">
+    <row r="4" spans="1:6" ht="18">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -4403,7 +4493,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.25">
+    <row r="5" spans="1:6" ht="18">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -4417,7 +4507,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25">
+    <row r="6" spans="1:6" ht="18">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -4431,7 +4521,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.25">
+    <row r="7" spans="1:6" ht="18">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -4445,7 +4535,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.25">
+    <row r="8" spans="1:6" ht="18">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -4459,7 +4549,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.25">
+    <row r="9" spans="1:6" ht="18">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -4475,7 +4565,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="17.25">
+    <row r="10" spans="1:6" ht="18">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -4491,7 +4581,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="17.25">
+    <row r="11" spans="1:6" ht="18">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -4507,7 +4597,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="17.25">
+    <row r="12" spans="1:6" ht="18">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -4523,7 +4613,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="17.25">
+    <row r="13" spans="1:6" ht="18">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -4551,7 +4641,7 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -4567,7 +4657,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75">
+    <row r="2" spans="1:7" ht="17">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4581,7 +4671,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75">
+    <row r="3" spans="1:7" ht="17">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4595,7 +4685,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75">
+    <row r="4" spans="1:7" ht="17">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4609,7 +4699,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75">
+    <row r="5" spans="1:7" ht="17">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4623,7 +4713,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75">
+    <row r="6" spans="1:7" ht="17">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4639,7 +4729,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="18.75">
+    <row r="7" spans="1:7" ht="17">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4655,7 +4745,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="18.75">
+    <row r="8" spans="1:7" ht="17">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4671,7 +4761,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="18.75">
+    <row r="9" spans="1:7" ht="17">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4687,7 +4777,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="18.75">
+    <row r="10" spans="1:7" ht="17">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4701,7 +4791,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75">
+    <row r="11" spans="1:7" ht="17">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -4718,7 +4808,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="18.75">
+    <row r="12" spans="1:7" ht="17">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4735,7 +4825,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="18.75">
+    <row r="13" spans="1:7" ht="17">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -4752,7 +4842,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="18.75">
+    <row r="14" spans="1:7" ht="17">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4769,7 +4859,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="18.75">
+    <row r="15" spans="1:7" ht="17">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -4786,7 +4876,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="18.75">
+    <row r="16" spans="1:7" ht="17">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4803,7 +4893,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="18.75">
+    <row r="17" spans="1:7" ht="17">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -4820,7 +4910,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="18.75">
+    <row r="18" spans="1:7" ht="17">
       <c r="A18">
         <v>17</v>
       </c>

--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/CN-HET-Lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CN-HET-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4811FD22-CD66-4942-8CF8-D6BE2CCA0841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB34CF0-1E2B-467B-9555-4EB02794339F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="-18320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="研究生获得奖励" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">发表论文!$A$2:$A$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">发表论文!$A$2:$A$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,12 +41,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="287">
   <si>
     <t>papers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1382,6 +1385,10 @@
   </si>
   <si>
     <t>承担12学时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He Xiaoyu, Gao Wenqing, Lu Taojie, Ruan Ziwen, Wang Ge, Yang Kexin, Li Yan. Navigating closed-loop recycling technologies for a circular economy of wind turbine blades[J/OL]. Energy &amp; Environmental Sustainability, 2025, 1(4): 100056. DOI:10.1016/j.eesus.2025.100056.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1886,13 +1893,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D26B086-2910-434C-AB97-2AC2ABC062E1}">
-  <dimension ref="A1:A45"/>
+  <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -2119,9 +2126,14 @@
         <v>248</v>
       </c>
     </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>286</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A77">
-    <sortCondition descending="1" ref="A2:A77"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A76">
+    <sortCondition descending="1" ref="A2:A76"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2165,6 +2177,7 @@
     <hyperlink ref="A7" r:id="rId38" display="https://doi.org/10.1016/j.egypro.2016.12.057" xr:uid="{90B8C809-78BA-7643-BBF7-7B2B000B6ACB}"/>
     <hyperlink ref="A44" r:id="rId39" display="https://doi.org/10.1016/j.energy.2025.135034" xr:uid="{B6AC6070-72F1-4FD9-B496-C7DB6FD9B20F}"/>
     <hyperlink ref="A45" r:id="rId40" display="https://doi.org/10.1016/j.est.2024.113067" xr:uid="{33FF4E00-CD92-45BA-B4B0-5DE8442DF55C}"/>
+    <hyperlink ref="A46" r:id="rId41" display="https://doi.org/10.1016/j.eesus.2025.100056" xr:uid="{F07FA2F7-86DA-455A-88CE-C935E0CF2E7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2178,9 +2191,9 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="59.1640625" customWidth="1"/>
+    <col min="3" max="3" width="59.17578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2225,7 +2238,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18">
+    <row r="4" spans="1:4" ht="16.149999999999999">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2239,7 +2252,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18">
+    <row r="5" spans="1:4" ht="16.149999999999999">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2366,9 +2379,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="17">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>163</v>
       </c>
@@ -2438,16 +2451,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA794A-9001-A74B-80D1-3BD53AFA6286}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.5" customWidth="1"/>
+    <col min="1" max="1" width="40.46875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2479,7 +2492,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17">
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>282</v>
       </c>
@@ -2511,7 +2524,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17">
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -2543,7 +2556,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>131</v>
       </c>
@@ -2575,7 +2588,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17">
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -2607,7 +2620,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17">
+    <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -2639,7 +2652,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17">
+    <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
         <v>133</v>
       </c>
@@ -2669,7 +2682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17">
+    <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -2699,7 +2712,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17">
+    <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -2729,7 +2742,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17">
+    <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -2759,7 +2772,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17">
+    <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
@@ -2789,7 +2802,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17">
+    <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
         <v>32</v>
       </c>
@@ -2819,7 +2832,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17">
+    <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -2851,7 +2864,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17">
+    <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
         <v>232</v>
       </c>
@@ -2883,7 +2896,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17">
+    <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
         <v>236</v>
       </c>
@@ -2915,7 +2928,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>265</v>
       </c>
@@ -2947,7 +2960,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="5" customFormat="1" ht="17">
+    <row r="17" spans="1:10" s="5" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>281</v>
       </c>
@@ -2993,7 +3006,7 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -3151,7 +3164,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -3174,7 +3187,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -3231,7 +3244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -3403,7 +3416,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
   </cols>
@@ -3485,7 +3498,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18">
+    <row r="8" spans="1:3" ht="17.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3510,7 +3523,7 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -3727,7 +3740,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17">
+    <row r="9" spans="1:9" ht="17.649999999999999">
       <c r="A9" s="2" t="s">
         <v>84</v>
       </c>
@@ -3753,7 +3766,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="3" t="s">
         <v>85</v>
       </c>
@@ -3779,7 +3792,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="3" t="s">
         <v>86</v>
       </c>
@@ -3805,7 +3818,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17">
+    <row r="12" spans="1:9" ht="17.649999999999999">
       <c r="A12" s="2" t="s">
         <v>126</v>
       </c>
@@ -3834,7 +3847,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17">
+    <row r="13" spans="1:9" ht="17.649999999999999">
       <c r="A13" s="2" t="s">
         <v>126</v>
       </c>
@@ -3863,7 +3876,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17">
+    <row r="14" spans="1:9" ht="17.649999999999999">
       <c r="A14" s="2" t="s">
         <v>84</v>
       </c>
@@ -3889,7 +3902,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="3" t="s">
         <v>85</v>
       </c>
@@ -3915,7 +3928,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="3" t="s">
         <v>86</v>
       </c>
@@ -3941,7 +3954,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17">
+    <row r="17" spans="1:9" ht="17.649999999999999">
       <c r="A17" s="2" t="s">
         <v>126</v>
       </c>
@@ -3970,7 +3983,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17">
+    <row r="18" spans="1:9" ht="17.649999999999999">
       <c r="A18" s="2" t="s">
         <v>84</v>
       </c>
@@ -3996,7 +4009,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="3" t="s">
         <v>85</v>
       </c>
@@ -4022,7 +4035,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="17">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="3" t="s">
         <v>86</v>
       </c>
@@ -4048,7 +4061,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17">
+    <row r="21" spans="1:9" ht="17.649999999999999">
       <c r="A21" s="2" t="s">
         <v>126</v>
       </c>
@@ -4077,7 +4090,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17">
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="3" t="s">
         <v>238</v>
       </c>
@@ -4106,7 +4119,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17">
+    <row r="23" spans="1:9" ht="17.649999999999999">
       <c r="A23" s="2" t="s">
         <v>126</v>
       </c>
@@ -4135,7 +4148,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17">
+    <row r="24" spans="1:9" ht="17.649999999999999">
       <c r="A24" s="2" t="s">
         <v>126</v>
       </c>
@@ -4178,7 +4191,7 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -4432,9 +4445,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="47.83203125" customWidth="1"/>
+    <col min="3" max="3" width="47.8203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4451,7 +4464,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18">
+    <row r="2" spans="1:6" ht="16.899999999999999">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -4465,7 +4478,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18">
+    <row r="3" spans="1:6" ht="16.899999999999999">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -4479,7 +4492,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18">
+    <row r="4" spans="1:6" ht="16.899999999999999">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -4493,7 +4506,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18">
+    <row r="5" spans="1:6" ht="16.899999999999999">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -4507,7 +4520,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18">
+    <row r="6" spans="1:6" ht="16.899999999999999">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -4521,7 +4534,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18">
+    <row r="7" spans="1:6" ht="16.899999999999999">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -4535,7 +4548,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18">
+    <row r="8" spans="1:6" ht="16.899999999999999">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -4549,7 +4562,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18">
+    <row r="9" spans="1:6" ht="16.899999999999999">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -4565,7 +4578,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="18">
+    <row r="10" spans="1:6" ht="16.899999999999999">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -4581,7 +4594,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="18">
+    <row r="11" spans="1:6" ht="16.899999999999999">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -4597,7 +4610,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="18">
+    <row r="12" spans="1:6" ht="16.899999999999999">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -4613,7 +4626,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="18">
+    <row r="13" spans="1:6" ht="16.899999999999999">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -4641,7 +4654,7 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -4657,7 +4670,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17">
+    <row r="2" spans="1:7" ht="17.649999999999999">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4671,7 +4684,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17">
+    <row r="3" spans="1:7" ht="17.649999999999999">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4685,7 +4698,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17">
+    <row r="4" spans="1:7" ht="17.649999999999999">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4699,7 +4712,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17">
+    <row r="5" spans="1:7" ht="17.649999999999999">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4713,7 +4726,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17">
+    <row r="6" spans="1:7" ht="17.649999999999999">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4729,7 +4742,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="17">
+    <row r="7" spans="1:7" ht="17.649999999999999">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4745,7 +4758,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="17">
+    <row r="8" spans="1:7" ht="17.649999999999999">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4761,7 +4774,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="17">
+    <row r="9" spans="1:7" ht="17.649999999999999">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4777,7 +4790,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="17">
+    <row r="10" spans="1:7" ht="17.649999999999999">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4791,7 +4804,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17">
+    <row r="11" spans="1:7" ht="17.649999999999999">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -4808,7 +4821,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="17">
+    <row r="12" spans="1:7" ht="17.649999999999999">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4825,7 +4838,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="17">
+    <row r="13" spans="1:7" ht="17.649999999999999">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -4842,7 +4855,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="17">
+    <row r="14" spans="1:7" ht="17.649999999999999">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4859,7 +4872,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="17">
+    <row r="15" spans="1:7" ht="17.649999999999999">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -4876,7 +4889,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="17">
+    <row r="16" spans="1:7" ht="17.649999999999999">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4893,7 +4906,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="17">
+    <row r="17" spans="1:7" ht="17.649999999999999">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -4910,7 +4923,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="17">
+    <row r="18" spans="1:7" ht="17.649999999999999">
       <c r="A18">
         <v>17</v>
       </c>

--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CN-HET-Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/CN-HET-Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB34CF0-1E2B-467B-9555-4EB02794339F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040455EF-3DDC-4D42-8541-86F19C8F5979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
+    <workbookView xWindow="-5300" yWindow="-20980" windowWidth="38400" windowHeight="20980" activeTab="6" xr2:uid="{2265AD8E-7C73-9340-9D54-86819D914AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
@@ -41,15 +41,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="291">
   <si>
     <t>papers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1389,6 +1386,19 @@
   </si>
   <si>
     <t>He Xiaoyu, Gao Wenqing, Lu Taojie, Ruan Ziwen, Wang Ge, Yang Kexin, Li Yan. Navigating closed-loop recycling technologies for a circular economy of wind turbine blades[J/OL]. Energy &amp; Environmental Sustainability, 2025, 1(4): 100056. DOI:10.1016/j.eesus.2025.100056.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电力市场下四川枯水期“内需-外供”协调保障策略研究</t>
+  </si>
+  <si>
+    <t>王嘉靓</t>
+  </si>
+  <si>
+    <t>中国服装品牌与NBA联合营销综合效益与提升策略研究</t>
+  </si>
+  <si>
+    <t>谢天豪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1895,11 +1905,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D26B086-2910-434C-AB97-2AC2ABC062E1}">
   <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="125" workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -2191,9 +2201,9 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="59.17578125" customWidth="1"/>
+    <col min="3" max="3" width="59.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2238,7 +2248,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.149999999999999">
+    <row r="4" spans="1:4" ht="18">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2252,7 +2262,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.149999999999999">
+    <row r="5" spans="1:4" ht="18">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2379,9 +2389,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="17">
       <c r="A1" s="5" t="s">
         <v>163</v>
       </c>
@@ -2455,12 +2465,12 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="40.46875" customWidth="1"/>
+    <col min="1" max="1" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="17">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2492,7 +2502,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="17">
       <c r="A2" s="5" t="s">
         <v>282</v>
       </c>
@@ -2524,7 +2534,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="17">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -2556,7 +2566,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="17">
       <c r="A4" s="5" t="s">
         <v>131</v>
       </c>
@@ -2588,7 +2598,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="17">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -2620,7 +2630,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="17">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -2652,7 +2662,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="17">
       <c r="A7" s="5" t="s">
         <v>133</v>
       </c>
@@ -2682,7 +2692,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="17">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -2712,7 +2722,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="17">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -2742,7 +2752,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="17">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -2772,7 +2782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="17">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
@@ -2802,7 +2812,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="17">
       <c r="A12" s="5" t="s">
         <v>32</v>
       </c>
@@ -2832,7 +2842,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="17">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -2864,7 +2874,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="17">
       <c r="A14" s="5" t="s">
         <v>232</v>
       </c>
@@ -2896,7 +2906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="17">
       <c r="A15" s="5" t="s">
         <v>236</v>
       </c>
@@ -2928,7 +2938,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="17">
       <c r="A16" t="s">
         <v>265</v>
       </c>
@@ -2960,7 +2970,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="5" customFormat="1">
+    <row r="17" spans="1:10" s="5" customFormat="1" ht="17">
       <c r="A17" s="5" t="s">
         <v>281</v>
       </c>
@@ -3003,10 +3013,10 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -3164,7 +3174,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="17">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -3187,7 +3197,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="17">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -3244,7 +3254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="17">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -3416,7 +3426,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
   </cols>
@@ -3498,7 +3508,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.25">
+    <row r="8" spans="1:3" ht="18">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3523,7 +3533,7 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -3740,7 +3750,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.649999999999999">
+    <row r="9" spans="1:9" ht="17">
       <c r="A9" s="2" t="s">
         <v>84</v>
       </c>
@@ -3766,7 +3776,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5">
+    <row r="10" spans="1:9" ht="17">
       <c r="A10" s="3" t="s">
         <v>85</v>
       </c>
@@ -3792,7 +3802,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
+    <row r="11" spans="1:9" ht="17">
       <c r="A11" s="3" t="s">
         <v>86</v>
       </c>
@@ -3818,7 +3828,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.649999999999999">
+    <row r="12" spans="1:9" ht="17">
       <c r="A12" s="2" t="s">
         <v>126</v>
       </c>
@@ -3847,7 +3857,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.649999999999999">
+    <row r="13" spans="1:9" ht="17">
       <c r="A13" s="2" t="s">
         <v>126</v>
       </c>
@@ -3876,7 +3886,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.649999999999999">
+    <row r="14" spans="1:9" ht="17">
       <c r="A14" s="2" t="s">
         <v>84</v>
       </c>
@@ -3902,7 +3912,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5">
+    <row r="15" spans="1:9" ht="17">
       <c r="A15" s="3" t="s">
         <v>85</v>
       </c>
@@ -3928,7 +3938,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5">
+    <row r="16" spans="1:9" ht="17">
       <c r="A16" s="3" t="s">
         <v>86</v>
       </c>
@@ -3954,7 +3964,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.649999999999999">
+    <row r="17" spans="1:9" ht="17">
       <c r="A17" s="2" t="s">
         <v>126</v>
       </c>
@@ -3983,7 +3993,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17.649999999999999">
+    <row r="18" spans="1:9" ht="17">
       <c r="A18" s="2" t="s">
         <v>84</v>
       </c>
@@ -4009,7 +4019,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5">
+    <row r="19" spans="1:9" ht="17">
       <c r="A19" s="3" t="s">
         <v>85</v>
       </c>
@@ -4035,7 +4045,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5">
+    <row r="20" spans="1:9" ht="17">
       <c r="A20" s="3" t="s">
         <v>86</v>
       </c>
@@ -4061,7 +4071,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17.649999999999999">
+    <row r="21" spans="1:9" ht="17">
       <c r="A21" s="2" t="s">
         <v>126</v>
       </c>
@@ -4090,7 +4100,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.5">
+    <row r="22" spans="1:9" ht="17">
       <c r="A22" s="3" t="s">
         <v>238</v>
       </c>
@@ -4119,7 +4129,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17.649999999999999">
+    <row r="23" spans="1:9" ht="17">
       <c r="A23" s="2" t="s">
         <v>126</v>
       </c>
@@ -4148,7 +4158,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.649999999999999">
+    <row r="24" spans="1:9" ht="17">
       <c r="A24" s="2" t="s">
         <v>126</v>
       </c>
@@ -4185,13 +4195,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043C31DB-9752-464C-8454-299AF5C51F83}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -4429,6 +4439,34 @@
       </c>
       <c r="D17" t="s">
         <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2026</v>
+      </c>
+      <c r="C18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2026</v>
+      </c>
+      <c r="C19" t="s">
+        <v>288</v>
+      </c>
+      <c r="D19" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -4445,9 +4483,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="47.8203125" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4464,7 +4502,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.899999999999999">
+    <row r="2" spans="1:6" ht="18">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -4478,7 +4516,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.899999999999999">
+    <row r="3" spans="1:6" ht="18">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -4492,7 +4530,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.899999999999999">
+    <row r="4" spans="1:6" ht="18">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -4506,7 +4544,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.899999999999999">
+    <row r="5" spans="1:6" ht="18">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -4520,7 +4558,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.899999999999999">
+    <row r="6" spans="1:6" ht="18">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -4534,7 +4572,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.899999999999999">
+    <row r="7" spans="1:6" ht="18">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -4548,7 +4586,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.899999999999999">
+    <row r="8" spans="1:6" ht="18">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -4562,7 +4600,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.899999999999999">
+    <row r="9" spans="1:6" ht="18">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -4578,7 +4616,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="16.899999999999999">
+    <row r="10" spans="1:6" ht="18">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -4594,7 +4632,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="16.899999999999999">
+    <row r="11" spans="1:6" ht="18">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -4610,7 +4648,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="16.899999999999999">
+    <row r="12" spans="1:6" ht="18">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -4626,7 +4664,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="16.899999999999999">
+    <row r="13" spans="1:6" ht="18">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -4654,7 +4692,7 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -4670,7 +4708,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.649999999999999">
+    <row r="2" spans="1:7" ht="18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4684,7 +4722,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.649999999999999">
+    <row r="3" spans="1:7" ht="18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4698,7 +4736,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.649999999999999">
+    <row r="4" spans="1:7" ht="18">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4712,7 +4750,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.649999999999999">
+    <row r="5" spans="1:7" ht="18">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4726,7 +4764,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.649999999999999">
+    <row r="6" spans="1:7" ht="18">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4742,7 +4780,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="17.649999999999999">
+    <row r="7" spans="1:7" ht="18">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4758,7 +4796,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="17.649999999999999">
+    <row r="8" spans="1:7" ht="18">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4774,7 +4812,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="17.649999999999999">
+    <row r="9" spans="1:7" ht="18">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4790,7 +4828,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="17.649999999999999">
+    <row r="10" spans="1:7" ht="18">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4804,7 +4842,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.649999999999999">
+    <row r="11" spans="1:7" ht="18">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -4821,7 +4859,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="17.649999999999999">
+    <row r="12" spans="1:7" ht="18">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4838,7 +4876,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="17.649999999999999">
+    <row r="13" spans="1:7" ht="18">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -4855,7 +4893,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="17.649999999999999">
+    <row r="14" spans="1:7" ht="18">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4872,7 +4910,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="17.649999999999999">
+    <row r="15" spans="1:7" ht="18">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -4889,7 +4927,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="17.649999999999999">
+    <row r="16" spans="1:7" ht="18">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4906,7 +4944,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="17.649999999999999">
+    <row r="17" spans="1:7" ht="18">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -4923,7 +4961,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="17.649999999999999">
+    <row r="18" spans="1:7" ht="18">
       <c r="A18">
         <v>17</v>
       </c>

--- a/myworks.xlsx
+++ b/myworks.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cnhet\Documents\GitHub\CN-HET-Lab\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF6E649-759D-4917-B216-4973B4D1EEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11332" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="发表论文" sheetId="1" r:id="rId1"/>
     <sheet name="出版著作" sheetId="10" r:id="rId2"/>
     <sheet name="承担项目" sheetId="2" r:id="rId3"/>
     <sheet name="获得奖项" sheetId="4" r:id="rId4"/>
-    <sheet name="软件著作权" sheetId="9" r:id="rId5"/>
-    <sheet name="教授本科课程" sheetId="3" r:id="rId6"/>
-    <sheet name="指导本科生毕业论文" sheetId="5" r:id="rId7"/>
-    <sheet name="本科生获得奖励" sheetId="6" r:id="rId8"/>
-    <sheet name="指导研究生毕业论文" sheetId="11" r:id="rId9"/>
-    <sheet name="研究生获得奖励" sheetId="8" r:id="rId10"/>
+    <sheet name="专利和软件著作权" sheetId="9" r:id="rId5"/>
+    <sheet name="会议发表" sheetId="12" r:id="rId6"/>
+    <sheet name="媒体报道" sheetId="13" r:id="rId7"/>
+    <sheet name="教授本科课程" sheetId="3" r:id="rId8"/>
+    <sheet name="指导本科生毕业论文" sheetId="5" r:id="rId9"/>
+    <sheet name="本科生获得奖励" sheetId="6" r:id="rId10"/>
+    <sheet name="指导研究生毕业论文" sheetId="11" r:id="rId11"/>
+    <sheet name="研究生获得奖励" sheetId="8" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">发表论文!$A$2:$A$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">发表论文!$A$2:$A$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,12 +42,15 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="358">
   <si>
     <t>papers</t>
   </si>
@@ -165,9 +176,6 @@
   </si>
   <si>
     <t>张奇, 王歌, 焦婕. 双碳目标下新疆新能源发展路径及政策创新研究[J]. 克拉玛依学刊, 2025, 15(1): 5-17, 2.</t>
-  </si>
-  <si>
-    <t>王歌, 赵云瑞, 罗艺, 等, 2025. “氢”还是“电”？——考虑线路异质性的公交车脱碳路径成本效益分析[J]. 克拉玛依学刊, 15(2): 58-68, 2.</t>
   </si>
   <si>
     <t>Zhang Qi, Chen Siyuan, Teng Fei, Hao Yawei, Liu Boyu, Wang Ge. The impacts of financial support on technological innovation in fuel cell electric vehicles (FCEVs) from a national inter-comparative perspective[J/OL]. Energy, 2025, 320: 135034. DOI:10.1016/j.energy.2025.135034.</t>
@@ -445,7 +453,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>(</t>
     </r>
@@ -463,7 +471,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>)</t>
     </r>
@@ -495,7 +503,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -521,7 +529,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>(</t>
     </r>
@@ -539,7 +547,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>)</t>
     </r>
@@ -587,9 +595,6 @@
     <t>“双碳”目标下光伏与电动汽车耦合发展决策优化关键方法与应用</t>
   </si>
   <si>
-    <t>优秀指导教师</t>
-  </si>
-  <si>
     <t>第二届全国大学生电力市场交易能力大赛优秀指导教师</t>
   </si>
   <si>
@@ -694,6 +699,7 @@
         <sz val="13"/>
         <color rgb="FF333333"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>工商管理大一</t>
@@ -726,6 +732,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -737,6 +744,7 @@
         <sz val="12"/>
         <color theme="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -752,6 +760,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -763,6 +772,7 @@
         <sz val="12"/>
         <color theme="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -778,6 +788,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -789,6 +800,7 @@
         <sz val="12"/>
         <color theme="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -804,6 +816,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -815,6 +828,7 @@
         <sz val="12"/>
         <color theme="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -830,6 +844,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -841,6 +856,7 @@
         <sz val="12"/>
         <color theme="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -856,6 +872,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -867,6 +884,7 @@
         <sz val="12"/>
         <color theme="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -882,6 +900,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -893,6 +912,7 @@
         <sz val="12"/>
         <color theme="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -908,6 +928,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -919,6 +940,7 @@
         <sz val="12"/>
         <color theme="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -934,6 +956,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -945,6 +968,7 @@
         <sz val="12"/>
         <color theme="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -960,6 +984,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -971,6 +996,7 @@
         <sz val="12"/>
         <color theme="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -986,6 +1012,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -997,6 +1024,7 @@
         <sz val="12"/>
         <color theme="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1012,6 +1040,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1023,6 +1052,7 @@
         <sz val="12"/>
         <color theme="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1236,6 +1266,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1266,18 +1297,312 @@
   <si>
     <t>华北电力大学优秀毕业生</t>
   </si>
+  <si>
+    <t xml:space="preserve">张奇，刘江枫，王歌. 基于技术进步与碳市场机制内生化的煤电CCUS-EOR发展路径优化研究 [J]. 能源与气候变化, 2025-10-16. 2025-12-27. </t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>张奇, 刘伯瑜, 黄振月, 马甜, 王歌. 市场博弈均衡视角下全球动力电池锂金属贸易格局演化[J/OL]. 资源科学, 2025, 47(7): 1533-1545. DOI:10.18402/resci.2025.07.11.</t>
+  </si>
+  <si>
+    <t>王歌, 赵云瑞, 罗艺, 方桢. “氢”还是“电”？——考虑线路异质性的公交车脱碳路径成本效益分析[J/OL]. 克拉玛依学刊, 2025, 15(2): 58-68, 2. DOI:10.13677/j.cnki.cn65-1285/c.2025.02.07.</t>
+  </si>
+  <si>
+    <t>特等奖</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件著作权</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>专利-已受理</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>可再生氢的制储输用一体化规划系统及方法、介质、终端</t>
+  </si>
+  <si>
+    <t>会议名称</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表类型</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>主旨演讲</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于多学科交叉的绿氢与石化产业耦合技术经济决策优化研究</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>商务部约旦能源效率与节能技术及方法研修班</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>口头发表</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyoto</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六届能源经济与管理学术年会暨第九届中国能源资源开发利用战略学术研讨会</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Study on the real-time 
+pricing for an off-grid zero_x0002_emission power system based 
+on game theory</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时电价与上网电价补贴政策对智能微电网优化管理的混合效应</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二届全国青年能源环境政策与管理学术会议</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七届能源经济与管理学术年会</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于动态博弈均衡电力市场模型的中国RPS实施路径和关键影响研究</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>The impact of rural social network on the adoption of Photovoltaic poverty alleviation projects</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六届中国能源模型论坛年会</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向碳中和的中国电力系统技术-市场-政策综合分析模型</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>内生供电可靠性约束的中国电-碳-绿多市场多区域均衡模型</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>延安</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育部碳中和能源管理虚拟教研室2024年会暨能源转型论坛</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳中和绿色电氢耦合模型与政策</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国可再生能源发展政策研究</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国石油大学(北京)克拉玛依校区青蓝学术沙龙第十一期</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>克拉玛依</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲座</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色能源化工生态链技术研讨大会</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>电网经济运行技术管理</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国石化中原油田电网新技术培训班</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>发展中国家应对全球能源格局转变的可持续发展路径</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Study on the Implementation Pathways and Key Impacts of RPS Target in China using a Dynamic Game-Theoretical Equilibrium Power Market Model</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>8th International Conference on Applied Energy</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Small modular reactors based off-grid zero-emission power system</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Symposium on Symbiotic Nuclear Power Systems</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimal Management for a Residential Micro-Grid</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>7th International Conference on Applied Energy</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAE Abu Dhabi</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五届全国低碳发展管理学术术年年会</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国碳交易与可再生能源配额政策协同作用研究</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>The impact of social network on the adoption of real-time electricity pricing mechanism</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二届能源资源系统工程学术年</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022 年度宏观管理与政策学科青年基金项目交流会</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>氢燃料电池在地面交通领域应用趋势</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023 氢能及燃料电池汽车商业化精品论坛</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">新能源电力与低碳重点实验室2023年度会议  </t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十二届中国能源经济与管理学术年会</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向碳中和的绿色电氢耦合模型与政策</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于平台经济的长途货运氢能重卡替代机制研究</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>“创新氢能技术”校内交流会</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三届碳中和（西安）国际论坛会议</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于电力市场-规划-调度一体决策模型的电氢耦合价值分析</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>媒体</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤电市场化提速</t>
+  </si>
+  <si>
+    <t>《人民政协报》（2021年10月19日 第 7 版）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://share.183read.cc/article/3920973/5.html?t=163464004527089</t>
+  </si>
+  <si>
+    <t>采访</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1294,12 +1619,14 @@
     <font>
       <sz val="12"/>
       <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1313,7 +1640,7 @@
       <sz val="13"/>
       <color rgb="FF333333"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
@@ -1322,20 +1649,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1343,150 +1666,8 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1499,20 +1680,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF333333"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1521,202 +1695,45 @@
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="FZSongS-SIP"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1724,255 +1741,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2000,71 +1778,43 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2322,19 +2072,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A28" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -2347,17 +2097,17 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2367,177 +2117,177 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2563,87 +2313,607 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A76">
-    <sortCondition ref="A2:A76" descending="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A69">
+    <sortCondition descending="1" ref="A2:A69"/>
   </sortState>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" display="刘玮, 万燕鸣, 陈思源, 刘畅, 刘琦, 张岩, 王歌. 基于场景模拟的公路货运新能源车成本效益分析研究[J/OL]. 中国环境科学, 2023, 43(10): 5624-5632. DOI:10.19674/j.cnki.issn1000-6923.20230808.003."/>
-    <hyperlink ref="A4" r:id="rId2" display="刘雪飞, 张奇, 李彦, 余乐安, 王歌. 普惠金融支持光伏发电发展的空间效应研究[J/OL]. 中国管理科学, 2021, 29(8): 24-34. DOI:10.16381/j.cnki.issn1003-207x.2019.2128."/>
-    <hyperlink ref="A3" r:id="rId3" display="王歌, 张奇, 李彦, 余乐安. 区块链共享模式下的分布式光伏扩散演化模拟[J/OL]. 系统工程学报, 2024, 39(2): 189-199. DOI:10.13383/j.cnki.jse.2024.02.003."/>
-    <hyperlink ref="A41" r:id="rId4" display="Chen Siyuan, Zhang Qi, Wang Ge, Zhu Lijing, Li Yan. Investment strategy for underground gas storage facilities based on real option model considering gas market reform in china[J/OL]. Energy Economics, 2018, 70: 132-142. DOI:10.1016/j.eneco.2017.12.034."/>
-    <hyperlink ref="A40" r:id="rId5" display="Gao Zhihui, Zhang Qi, Liu Boyu, Liu Jiangfeng, Wang Ge, Ni Ruiyan, Yang Kexin. The driving factors and mitigation strategy of CO2 emissions from China’s passenger vehicle sector towards carbon neutrality[J/OL]. Energy, 2024, 294: 130830. DOI:10.1016/j.energy.2024.130830."/>
-    <hyperlink ref="A39" r:id="rId6" display="Li Yan, Li Hailong, Wang Ge, Liu Xuefei, Zhang Qi. Study on the optimal deployment for photovoltaic components recycle in china[J/OL]. Energy Procedia, 2019, 158: 4298-4303. DOI:10.1016/j.egypro.2019.01.794."/>
-    <hyperlink ref="A38" r:id="rId7" display="Li Yan, Wang Ge, Mclellan Benjamin, Chen Si-Yuan, Zhang Qi. Study of the impacts of upstream natural gas market reform in china on infrastructure deployment and social welfare using an SVM-based rolling horizon stochastic game analysis[J/OL]. Petroleum Science, 2018, 15(4): 898-911. DOI:10.1007/s12182-018-0238-x."/>
-    <hyperlink ref="A37" r:id="rId8" display="Li Yan, Wang Ge, Shen Bo, Zhang Qi, Liu Boyu, Xu Ruoxi. Conception and policy implications of photovoltaic modules end-of-life management in China[J/OL]. WIREs Energy and Environment, 2021, 10(1): e387. DOI:https://doi.org/10.1002/wene.387."/>
-    <hyperlink ref="A33" r:id="rId9" display="Li Yan, Zhang Qi, Wang Ge, McLellan Benjamin, Liu Xue Fei, Wang Le. A review of photovoltaic poverty alleviation projects in china: current status, challenge and policy recommendations[J/OL]. Renewable and Sustainable Energy Reviews, 2018, 94: 214-223. DOI:10.1016/j.rser.2018.06.012."/>
-    <hyperlink ref="A35" r:id="rId10" display="Li Yan, Zhang Qi, Wang Ge, Liu Xuefei, Mclellan Benjamin. Promotion policies for third party financing in photovoltaic poverty alleviation projects considering social reputation[J/OL]. Journal of Cleaner Production, 2019, 211: 350-359. DOI:10.1016/j.jclepro.2018.11.179."/>
-    <hyperlink ref="A36" r:id="rId11" display="Li Yan, Zhang Qi, Wang Ge, Liu Xuefei, McLellan Benjamin. Modeling and Policy Study for Information Asymmetry Problem of Photovoltaic Module Quality in China[J/OL]. Emerging Markets Finance and Trade, 2021, 57(3): 653-667. DOI:10.1080/1540496X.2019.1604337."/>
-    <hyperlink ref="A34" r:id="rId12" display="Li Yan, Zhang Qi, Wang Ge, Lu Xi. Recycling schemes and supporting policies modeling for photovoltaic modules considering heterogeneous risks[J/OL]. Resources, Conservation and Recycling, 2022, 180: 106165. DOI:10.1016/j.resconrec.2022.106165."/>
-    <hyperlink ref="A32" r:id="rId13" display="Liu Jiangfeng, Zhang Qi, Teng Fei, Wang Lu, Wang Ge. A New Investment Decision-Making Model of Hydrogen Energy Storage Technology Based on Real-Time Operation Optimization and Learning Effects[J/OL]. Journal of Energy Storage, 2024, 96: 112745. DOI:10.2139/ssrn.4761945."/>
-    <hyperlink ref="A31" r:id="rId14" display="Qian Jiaqi, Wang Ge, Yin Ting, Mao Yuxuan, Chen Siyuan, Li Yan, Liu Jiangfeng, Zhang Qi. Policy implications of electrifying land freight transport towards carbon-neutral in China[J/OL]. Transport Policy, 2025, 160: 116-124. DOI:10.1016/j.tranpol.2024.11.004."/>
-    <hyperlink ref="A30" r:id="rId15" display="Su Difei, Zhang Qi, Wang Ge, Li Hailong. Market analysis of natural gas for district heating in china[J/OL]. Energy Procedia, 2015, 75: 2713-2717. DOI:10.1016/j.egypro.2015.07.693."/>
-    <hyperlink ref="A29" r:id="rId16" display="Tang Yanyan, Zhang Qi, Li Yaoming, Wang Ge, Li Yan. Recycling mechanisms and policy suggestions for spent electric vehicles’ power battery -a case of beijing[J/OL]. Journal of Cleaner Production, 2018, 186: 388-406. DOI:10.1016/j.jclepro.2018.03.043."/>
-    <hyperlink ref="A28" r:id="rId17" display="Teng Fei, Zhang Qi, Chen Siyuan, Wang Ge, Huang Zhenyue, Wang Lu. Comprehensive effects of policy mixes on the diffusion of heavy-duty hydrogen fuel cell electric trucks in China considering technology learning[J/OL]. Energy Policy, 2024, 185: 113961. DOI:10.1016/j.enpol.2023.113961."/>
-    <hyperlink ref="A27" r:id="rId18" display="Teng Fei, Zhang Qi, Wang Ge, Liu Jiangfeng, Li Hailong. A comprehensive review of energy blockchain: Application scenarios and development trends[J/OL]. International Journal of Energy Research, 2021: er.7109. DOI:10.1002/er.7109."/>
-    <hyperlink ref="A25" r:id="rId19" display="Tian Ruijie, Zhang Qi, Wang Ge. Market analysis of natural gas for power generation in china[J/OL]. Energy Procedia, 2015, 75: 2718-2723. DOI:10.1016/j.egypro.2015.07.699."/>
-    <hyperlink ref="A26" r:id="rId20" display="Tian Ruijie, Zhang Qi, Wang Ge, Li Hailong, Chen Siyuan, Li Yan, Tian Yulu. Study on the promotion of natural gas-fired electricity with energy market reform in china using a dynamic game-theoretic model[J/OL]. Applied Energy, 2017, 185, Part 2: 1832-1839. DOI:10.1016/j.apenergy.2015.11.079."/>
-    <hyperlink ref="A23" r:id="rId21" display="Wang Ge, Zhang Qi, Li Hailong, McLellan Benjamin C., Chen Siyuan, Li Yan, Tian Yulu. Study on the promotion impact of demand response on distributed PV penetration by using non-cooperative game theoretical analysis[J/OL]. Applied Energy, 2017, 185: 1869-1878. DOI:10.1016/j.apenergy.2016.01.016."/>
-    <hyperlink ref="A24" r:id="rId22" display="Wang Ge, Zhang Qi, Li Hailong, Li Yan, Chen Siyuan. The impact of social network on the adoption of real-time electricity pricing mechanism[J/OL]. Energy Procedia, 2017, 142: 3154-3159. DOI:10.1016/j.egypro.2017.12.383."/>
-    <hyperlink ref="A22" r:id="rId23" display="Wang Ge, Zhang Qi, Li Yan, Li Hailong. Policy simulation for promoting residential PV considering anecdotal information exchanges based on social network modelling[J/OL]. Applied Energy, 2018, 223: 1-10. DOI:10.1016/j.apenergy.2018.04.028."/>
-    <hyperlink ref="A21" r:id="rId24" display="Wang Ge, Zhang Qi, Li Yan, Mclellan Benjamin C. Efficient and equitable allocation of renewable portfolio standards targets among china’s provinces[J/OL]. Energy Policy, 2019, 125: 170-180. DOI:10.1016/j.enpol.2018.10.044."/>
-    <hyperlink ref="A20" r:id="rId25" display="Wang Ge, Zhang Qi, Li Yan, Mclellan Benjamin C., Pan Xunzhang. Corrective regulations on renewable energy certificates trading: pursuing an equity-efficiency trade-off[J/OL]. Energy Economics, 2019, 80: 970-982. DOI:10.1016/j.eneco.2019.03.008."/>
-    <hyperlink ref="A19" r:id="rId26" display="Wang Ge, Zhang Qi, Mclellan Benjamin C., Li Hailong. Multi-region optimal deployment of renewable energy considering different interregional transmission scenarios[J/OL]. Energy, 2016, 108: 108-118. DOI:10.1016/j.energy.2015.08.060."/>
-    <hyperlink ref="A18" r:id="rId27" display="Wang Ge, Zhang Qi, Su Bin, Shen Bo, Li Yan, Li Zhengjun. Coordination of tradable carbon emission permits market and renewable electricity certificates market in China[J/OL]. Energy Economics, 2021, 93: 105038. DOI:10.1016/j.eneco.2020.105038."/>
-    <hyperlink ref="A17" r:id="rId28" display="Wang Ge, Zhang Qi, Tian Ruijie, Li Hailong. Combined impacts of RTP and FIT on optimal management for a residential micro-grid[J/OL]. Energy Procedia, 2015, 75: 1666-1672. DOI:10.1016/j.egypro.2015.07.410."/>
-    <hyperlink ref="A16" r:id="rId29" display="Wang Lu, Zhang Qi, Liu Jiangfeng, Wang Ge. Science mapping the knowledge domain of electrochemical energy storage technology: A bibliometric review[J/OL]. Journal of Energy Storage, 2024, 77: 109819. DOI:10.1016/j.est.2023.109819."/>
-    <hyperlink ref="A15" r:id="rId30" display="Yan Jiaze, Wang Ge, Chen Siyuan, Zhang He, Qian Jiaqi, Mao Yuxuan. Harnessing freight platforms to promote the penetration of long-haul heavy-duty hydrogen fuel-cell trucks[J/OL]. Energy, 2022, 254: 124225. DOI:10.1016/j.energy.2022.124225."/>
-    <hyperlink ref="A14" r:id="rId31" display="Yin Ting, Chen Siyuan, Wang Ge, Tan Yuxuan, Teng Fei, Zhang Qi. Can Subsidy Policies Achieve Fuel Cell Logistics Vehicle (FCLV) Promotion Targets? Evidence from the Beijing-Tianjin-Hebei Fuel Cell Vehicle Demonstration City Cluster in China[J/OL]. Energy, 2024: 133270. DOI:10.1016/j.energy.2024.133270."/>
-    <hyperlink ref="A13" r:id="rId32" display="Zhang Qi, Li Yan, Li Hailong, Wang Ge, Chen Siyuan. Study on the impacts of the LNG market reform in china using a SVM based rolling horizon stochastic game analysis[J/OL]. Energy Procedia, 2017, 105: 3850-3855. DOI:10.1016/j.egypro.2017.03.786."/>
-    <hyperlink ref="A12" r:id="rId33" display="Zhang Qi, Li Zhan, Wang Ge, Li Hailong. Study on the impacts of natural gas supply cost on gas flow and infrastructure deployment in china[J/OL]. Applied Energy, 2016, 162: 1385-1398. DOI:10.1016/j.apenergy.2015.06.058."/>
-    <hyperlink ref="A11" r:id="rId34" display="Zhang Qi, Liu Jiangfeng, Wang Ge, Gao Zhihui. A new optimization model for carbon capture utilization and storage (CCUS) layout based on high-resolution geological variability[J/OL]. Applied Energy, 2024, 363: 123065. DOI:10.1016/j.apenergy.2024.123065."/>
-    <hyperlink ref="A10" r:id="rId35" display="Zhang Qi, Liu Jiangfeng, Yang Kexin, Liu Boyu, Wang Ge. Market adoption simulation of electric vehicle based on social network model considering nudge policies[J/OL]. Energy, 2022, 259: 124984. DOI:10.1016/j.energy.2022.124984."/>
-    <hyperlink ref="A9" r:id="rId36" display="Zhang Qi, Wang Ge, Li Hailong, Li Yan, Chen Siyuan. Study on the implementation pathways and key impacts of RPS target in china using a dynamic game-theoretical equilibrium power market model[J/OL]. Energy Procedia, 2017, 105: 3844-3849. DOI:10.1016/j.egypro.2017.03.784."/>
-    <hyperlink ref="A8" r:id="rId37" display="Zhang Qi, Wang Ge, Li Yan, Li Hailong, McLellan Benjamin, Chen Siyuan. Substitution effect of renewable portfolio standards and renewable energy certificate trading for feed-in tariff[J/OL]. Applied Energy, 2018, 227: 426-435. DOI:10.1016/j.apenergy.2017.07.118."/>
-    <hyperlink ref="A7" r:id="rId38" display="Zhu Lijing, Lu Huihui, Zhang Qi, Li Hailong, Pan Xunzhang, Wang Ge, Li Yan. Application of crowdfunding on the financing of EV’s charging piles[J/OL]. Energy Procedia, 2016, 104: 336-341. DOI:10.1016/j.egypro.2016.12.057."/>
-    <hyperlink ref="A44" r:id="rId39" display="Zhang Qi, Chen Siyuan, Teng Fei, Hao Yawei, Liu Boyu, Wang Ge. The impacts of financial support on technological innovation in fuel cell electric vehicles (FCEVs) from a national inter-comparative perspective[J/OL]. Energy, 2025, 320: 135034. DOI:10.1016/j.energy.2025.135034."/>
-    <hyperlink ref="A45" r:id="rId40" display="Yang Kexin, Zhang Qi, Wang Ge, Li Hailong, McLellan Benjamin. A new model for comprehensively evaluating the economic and environmental effects of vehicle-to-grid(V2G) towards carbon neutrality[J/OL]. Journal of Energy Storage, 2024, 98: 113067. DOI:10.1016/j.est.2024.113067."/>
-    <hyperlink ref="A46" r:id="rId41" display="He Xiaoyu, Gao Wenqing, Lu Taojie, Ruan Ziwen, Wang Ge, Yang Kexin, Li Yan. Navigating closed-loop recycling technologies for a circular economy of wind turbine blades[J/OL]. Energy &amp; Environmental Sustainability, 2025, 1(4): 100056. DOI:10.1016/j.eesus.2025.100056."/>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A41" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A40" r:id="rId5" display="Gao Zhihui, Zhang Qi, Liu Boyu, Liu Jiangfeng, Wang Ge, Ni Ruiyan, Yang Kexin. The driving factors and mitigation strategy of CO2 emissions from China’s passenger vehicle sector towards carbon neutrality[J/OL]. Energy, 2024, 294: 130830. DOI:10.1016/j.energy.2024.130830." xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A39" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A38" r:id="rId7" display="Li Yan, Wang Ge, Mclellan Benjamin, Chen Si-Yuan, Zhang Qi. Study of the impacts of upstream natural gas market reform in china on infrastructure deployment and social welfare using an SVM-based rolling horizon stochastic game analysis[J/OL]. Petroleum Science, 2018, 15(4): 898-911. DOI:10.1007/s12182-018-0238-x." xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A37" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A33" r:id="rId9" display="Li Yan, Zhang Qi, Wang Ge, McLellan Benjamin, Liu Xue Fei, Wang Le. A review of photovoltaic poverty alleviation projects in china: current status, challenge and policy recommendations[J/OL]. Renewable and Sustainable Energy Reviews, 2018, 94: 214-223. DOI:10.1016/j.rser.2018.06.012." xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A35" r:id="rId10" display="Li Yan, Zhang Qi, Wang Ge, Liu Xuefei, Mclellan Benjamin. Promotion policies for third party financing in photovoltaic poverty alleviation projects considering social reputation[J/OL]. Journal of Cleaner Production, 2019, 211: 350-359. DOI:10.1016/j.jclepro.2018.11.179." xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A36" r:id="rId11" display="Li Yan, Zhang Qi, Wang Ge, Liu Xuefei, McLellan Benjamin. Modeling and Policy Study for Information Asymmetry Problem of Photovoltaic Module Quality in China[J/OL]. Emerging Markets Finance and Trade, 2021, 57(3): 653-667. DOI:10.1080/1540496X.2019.1604337." xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A34" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A32" r:id="rId13" display="Liu Jiangfeng, Zhang Qi, Teng Fei, Wang Lu, Wang Ge. A New Investment Decision-Making Model of Hydrogen Energy Storage Technology Based on Real-Time Operation Optimization and Learning Effects[J/OL]. Journal of Energy Storage, 2024, 96: 112745. DOI:10.2139/ssrn.4761945." xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A31" r:id="rId14" display="Qian Jiaqi, Wang Ge, Yin Ting, Mao Yuxuan, Chen Siyuan, Li Yan, Liu Jiangfeng, Zhang Qi. Policy implications of electrifying land freight transport towards carbon-neutral in China[J/OL]. Transport Policy, 2025, 160: 116-124. DOI:10.1016/j.tranpol.2024.11.004." xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A30" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A29" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A28" r:id="rId17" display="Teng Fei, Zhang Qi, Chen Siyuan, Wang Ge, Huang Zhenyue, Wang Lu. Comprehensive effects of policy mixes on the diffusion of heavy-duty hydrogen fuel cell electric trucks in China considering technology learning[J/OL]. Energy Policy, 2024, 185: 113961. DOI:10.1016/j.enpol.2023.113961." xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A27" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A26" r:id="rId20" display="Tian Ruijie, Zhang Qi, Wang Ge, Li Hailong, Chen Siyuan, Li Yan, Tian Yulu. Study on the promotion of natural gas-fired electricity with energy market reform in china using a dynamic game-theoretic model[J/OL]. Applied Energy, 2017, 185, Part 2: 1832-1839. DOI:10.1016/j.apenergy.2015.11.079." xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A23" r:id="rId21" display="Wang Ge, Zhang Qi, Li Hailong, McLellan Benjamin C., Chen Siyuan, Li Yan, Tian Yulu. Study on the promotion impact of demand response on distributed PV penetration by using non-cooperative game theoretical analysis[J/OL]. Applied Energy, 2017, 185: 1869-1878. DOI:10.1016/j.apenergy.2016.01.016." xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A22" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A21" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A20" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A19" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A18" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A17" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A15" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A14" r:id="rId31" display="Yin Ting, Chen Siyuan, Wang Ge, Tan Yuxuan, Teng Fei, Zhang Qi. Can Subsidy Policies Achieve Fuel Cell Logistics Vehicle (FCLV) Promotion Targets? Evidence from the Beijing-Tianjin-Hebei Fuel Cell Vehicle Demonstration City Cluster in China[J/OL]. Energy, 2024: 133270. DOI:10.1016/j.energy.2024.133270." xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A13" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A12" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A11" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A10" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A9" r:id="rId36" display="Zhang Qi, Wang Ge, Li Hailong, Li Yan, Chen Siyuan. Study on the implementation pathways and key impacts of RPS target in china using a dynamic game-theoretical equilibrium power market model[J/OL]. Energy Procedia, 2017, 105: 3844-3849. DOI:10.1016/j.egypro.2017.03.784." xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A8" r:id="rId37" display="Zhang Qi, Wang Ge, Li Yan, Li Hailong, McLellan Benjamin, Chen Siyuan. Substitution effect of renewable portfolio standards and renewable energy certificate trading for feed-in tariff[J/OL]. Applied Energy, 2018, 227: 426-435. DOI:10.1016/j.apenergy.2017.07.118." xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A7" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A43" r:id="rId39" display="Zhang Qi, Chen Siyuan, Teng Fei, Hao Yawei, Liu Boyu, Wang Ge. The impacts of financial support on technological innovation in fuel cell electric vehicles (FCEVs) from a national inter-comparative perspective[J/OL]. Energy, 2025, 320: 135034. DOI:10.1016/j.energy.2025.135034." xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A44" r:id="rId40" display="Yang Kexin, Zhang Qi, Wang Ge, Li Hailong, McLellan Benjamin. A new model for comprehensively evaluating the economic and environmental effects of vehicle-to-grid(V2G) towards carbon neutrality[J/OL]. Journal of Energy Storage, 2024, 98: 113067. DOI:10.1016/j.est.2024.113067." xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A45" r:id="rId41" display="He Xiaoyu, Gao Wenqing, Lu Taojie, Ruan Ziwen, Wang Ge, Yang Kexin, Li Yan. Navigating closed-loop recycling technologies for a circular economy of wind turbine blades[J/OL]. Energy &amp; Environmental Sustainability, 2025, 1(4): 100056. DOI:10.1016/j.eesus.2025.100056." xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A47" r:id="rId42" display="https://doi.org/10.18402/resci.2025.07.11" xr:uid="{B55B0BA0-A642-456E-99E7-50B5C53DA626}"/>
+    <hyperlink ref="A48" r:id="rId43" display="https://doi.org/10.13677/j.cnki.cn65-1285/c.2025.02.07" xr:uid="{897BA58E-29A4-4437-AAC1-FF10C1254435}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="47.8203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.899999999999999">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.899999999999999">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.899999999999999">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.899999999999999">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.899999999999999">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.899999999999999">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.899999999999999">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.899999999999999">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2025</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.899999999999999">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2025</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.899999999999999">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2025</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.899999999999999">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2025</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.899999999999999">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2025</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.649999999999999">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2023</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.649999999999999">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2023</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.649999999999999">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2023</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.649999999999999">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2023</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.649999999999999">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="17.649999999999999">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="17.649999999999999">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="17.649999999999999">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="17.649999999999999">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2024</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.649999999999999">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="17.649999999999999">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="17.649999999999999">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="17.649999999999999">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="17.649999999999999">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="17.649999999999999">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="17.649999999999999">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="17.649999999999999">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="59.1640625" customWidth="1"/>
+    <col min="3" max="3" width="59.17578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2651,10 +2921,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D2">
         <v>2023</v>
@@ -2665,38 +2935,38 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D3">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" ht="16.15" spans="1:4">
+    <row r="4" spans="1:4" ht="16.149999999999999">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D4">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" ht="16.15" spans="1:4">
+    <row r="5" spans="1:4" ht="16.149999999999999">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D5">
         <v>2023</v>
@@ -2707,10 +2977,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D6">
         <v>2024</v>
@@ -2721,10 +2991,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D7">
         <v>2023</v>
@@ -2735,10 +3005,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D8">
         <v>2024</v>
@@ -2749,10 +3019,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D9">
         <v>2024</v>
@@ -2763,10 +3033,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D10">
         <v>2025</v>
@@ -2777,10 +3047,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D11">
         <v>2025</v>
@@ -2791,700 +3061,697 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D12">
         <v>2025</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
       </c>
       <c r="D2">
         <v>2024</v>
       </c>
       <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
         <v>55</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
       </c>
       <c r="D3">
         <v>2023</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.5" customWidth="1"/>
+    <col min="1" max="1" width="40.46875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="8">
+        <v>30</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="9">
-        <v>30</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>2025</v>
+      </c>
+      <c r="I2" s="8">
+        <v>12</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="9">
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="8">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G3" s="8">
+        <v>6</v>
+      </c>
+      <c r="H3" s="8">
         <v>2023</v>
       </c>
-      <c r="G2" s="9">
+      <c r="I3" s="8">
+        <v>6</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2021</v>
+      </c>
+      <c r="G4" s="8">
+        <v>7</v>
+      </c>
+      <c r="H4" s="8">
+        <v>2022</v>
+      </c>
+      <c r="I4" s="8">
+        <v>6</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="8">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4</v>
+      </c>
+      <c r="H5" s="8">
+        <v>2022</v>
+      </c>
+      <c r="I5" s="8">
+        <v>12</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2016</v>
+      </c>
+      <c r="G6" s="8">
+        <v>9</v>
+      </c>
+      <c r="H6" s="8">
+        <v>2017</v>
+      </c>
+      <c r="I6" s="8">
+        <v>9</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2016</v>
+      </c>
+      <c r="G7" s="8">
+        <v>8</v>
+      </c>
+      <c r="H7" s="8">
+        <v>2016</v>
+      </c>
+      <c r="I7" s="8">
+        <v>12</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2018</v>
+      </c>
+      <c r="G8" s="8">
         <v>1</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H8" s="8">
+        <v>2021</v>
+      </c>
+      <c r="I8" s="8">
+        <v>12</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8">
+        <v>2023</v>
+      </c>
+      <c r="I9" s="8">
+        <v>12</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2021</v>
+      </c>
+      <c r="G10" s="8">
+        <v>4</v>
+      </c>
+      <c r="H10" s="8">
+        <v>2023</v>
+      </c>
+      <c r="I10" s="8">
+        <v>12</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="8">
+        <v>2018</v>
+      </c>
+      <c r="G11" s="8">
+        <v>8</v>
+      </c>
+      <c r="H11" s="8">
+        <v>2020</v>
+      </c>
+      <c r="I11" s="8">
+        <v>6</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="8">
+        <v>2020</v>
+      </c>
+      <c r="G12" s="8">
+        <v>8</v>
+      </c>
+      <c r="H12" s="8">
+        <v>2020</v>
+      </c>
+      <c r="I12" s="8">
+        <v>12</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="8">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="8">
+        <v>2022</v>
+      </c>
+      <c r="G13" s="8">
+        <v>10</v>
+      </c>
+      <c r="H13" s="8">
+        <v>2022</v>
+      </c>
+      <c r="I13" s="8">
+        <v>12</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="8">
+        <v>10</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G14" s="8">
+        <v>11</v>
+      </c>
+      <c r="H14" s="8">
         <v>2025</v>
       </c>
-      <c r="I2" s="9">
-        <v>12</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="9">
-        <v>6</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="I14" s="8">
+        <v>10</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="8">
+        <v>28.5</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="9">
-        <v>2020</v>
-      </c>
-      <c r="G3" s="9">
-        <v>6</v>
-      </c>
-      <c r="H3" s="9">
-        <v>2023</v>
-      </c>
-      <c r="I3" s="9">
-        <v>6</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="F15" s="8">
+        <v>2025</v>
+      </c>
+      <c r="G15" s="8">
+        <v>4</v>
+      </c>
+      <c r="H15" s="8">
+        <v>2026</v>
+      </c>
+      <c r="I15" s="8">
         <v>3</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="9">
-        <v>2021</v>
-      </c>
-      <c r="G4" s="9">
-        <v>7</v>
-      </c>
-      <c r="H4" s="9">
-        <v>2022</v>
-      </c>
-      <c r="I4" s="9">
-        <v>6</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="9">
-        <v>8</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="9">
-        <v>2020</v>
-      </c>
-      <c r="G5" s="9">
-        <v>4</v>
-      </c>
-      <c r="H5" s="9">
-        <v>2022</v>
-      </c>
-      <c r="I5" s="9">
-        <v>12</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="9">
-        <v>5</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="9">
-        <v>2016</v>
-      </c>
-      <c r="G6" s="9">
-        <v>9</v>
-      </c>
-      <c r="H6" s="9">
-        <v>2017</v>
-      </c>
-      <c r="I6" s="9">
-        <v>9</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="9">
-        <v>2016</v>
-      </c>
-      <c r="G7" s="9">
-        <v>8</v>
-      </c>
-      <c r="H7" s="9">
-        <v>2016</v>
-      </c>
-      <c r="I7" s="9">
-        <v>12</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="9">
-        <v>2018</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9">
-        <v>2021</v>
-      </c>
-      <c r="I8" s="9">
-        <v>12</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="9">
-        <v>2020</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9">
-        <v>2023</v>
-      </c>
-      <c r="I9" s="9">
-        <v>12</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="9">
-        <v>2021</v>
-      </c>
-      <c r="G10" s="9">
-        <v>4</v>
-      </c>
-      <c r="H10" s="9">
-        <v>2023</v>
-      </c>
-      <c r="I10" s="9">
-        <v>12</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="9">
-        <v>2018</v>
-      </c>
-      <c r="G11" s="9">
-        <v>8</v>
-      </c>
-      <c r="H11" s="9">
-        <v>2020</v>
-      </c>
-      <c r="I11" s="9">
-        <v>6</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="J15" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="9">
-        <v>2020</v>
-      </c>
-      <c r="G12" s="9">
-        <v>8</v>
-      </c>
-      <c r="H12" s="9">
-        <v>2020</v>
-      </c>
-      <c r="I12" s="9">
-        <v>12</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="9">
-        <v>15</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="9">
-        <v>2022</v>
-      </c>
-      <c r="G13" s="9">
-        <v>10</v>
-      </c>
-      <c r="H13" s="9">
-        <v>2022</v>
-      </c>
-      <c r="I13" s="9">
-        <v>12</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="9">
-        <v>10</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="9">
-        <v>2024</v>
-      </c>
-      <c r="G14" s="9">
-        <v>11</v>
-      </c>
-      <c r="H14" s="9">
-        <v>2025</v>
-      </c>
-      <c r="I14" s="9">
-        <v>10</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="9">
-        <v>28.5</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="9">
-        <v>2025</v>
-      </c>
-      <c r="G15" s="9">
-        <v>4</v>
-      </c>
-      <c r="H15" s="9">
-        <v>2026</v>
-      </c>
-      <c r="I15" s="9">
-        <v>3</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="8">
+        <v>15</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="8">
+        <v>2025</v>
+      </c>
+      <c r="G16" s="8">
+        <v>5</v>
+      </c>
+      <c r="H16" s="8">
+        <v>2027</v>
+      </c>
+      <c r="I16" s="8">
+        <v>6</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="8" customFormat="1">
+      <c r="A17" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="9">
-        <v>15</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="B17" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="8">
+        <v>5</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="F17" s="8">
+        <v>2025</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8">
+        <v>2026</v>
+      </c>
+      <c r="I17" s="8">
+        <v>12</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="9">
-        <v>2025</v>
-      </c>
-      <c r="G16" s="9">
-        <v>5</v>
-      </c>
-      <c r="H16" s="9">
-        <v>2027</v>
-      </c>
-      <c r="I16" s="9">
-        <v>6</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" s="9" customFormat="1" spans="1:10">
-      <c r="A17" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="9">
-        <v>5</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="9">
-        <v>2025</v>
-      </c>
-      <c r="G17" s="9">
-        <v>1</v>
-      </c>
-      <c r="H17" s="9">
-        <v>2026</v>
-      </c>
-      <c r="I17" s="9">
-        <v>12</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>75</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
         <v>108</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>109</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>110</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>111</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>112</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>113</v>
-      </c>
-      <c r="H1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
         <v>115</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>116</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>117</v>
-      </c>
-      <c r="D2" t="s">
-        <v>118</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3501,16 +3768,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
         <v>119</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>120</v>
-      </c>
-      <c r="D3" t="s">
-        <v>121</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -3527,16 +3794,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
         <v>122</v>
-      </c>
-      <c r="C4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" t="s">
-        <v>123</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -3553,16 +3820,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" t="s">
         <v>124</v>
-      </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" t="s">
-        <v>125</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -3579,16 +3846,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s">
         <v>126</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
         <v>127</v>
-      </c>
-      <c r="C6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" t="s">
-        <v>128</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -3605,13 +3872,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" t="s">
         <v>129</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>130</v>
-      </c>
-      <c r="D7" t="s">
-        <v>131</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3628,10 +3895,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3648,10 +3915,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3668,10 +3935,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -3685,10 +3952,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3702,16 +3969,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" t="s">
         <v>136</v>
-      </c>
-      <c r="C12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" t="s">
-        <v>137</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -3728,16 +3995,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" t="s">
         <v>138</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" t="s">
         <v>139</v>
-      </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" t="s">
-        <v>140</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -3754,13 +4021,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" t="s">
         <v>141</v>
-      </c>
-      <c r="D14" t="s">
-        <v>142</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -3777,10 +4044,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3797,16 +4064,16 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" t="s">
         <v>144</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="C16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>146</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -3822,12 +4089,16 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>147</v>
+      <c r="A17" s="11" t="s">
+        <v>287</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D17" s="11"/>
       <c r="E17">
         <v>1</v>
       </c>
@@ -3842,165 +4113,762 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="2" max="3" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>109</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2">
+        <v>148</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2">
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3">
+        <v>149</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4">
+        <v>150</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5">
+        <v>151</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6">
+        <v>152</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6">
         <v>2024</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7">
+        <v>153</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D7">
         <v>2024</v>
       </c>
     </row>
-    <row r="8" ht="17.25" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8">
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D8">
         <v>2025</v>
       </c>
     </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378CEE04-70C4-4E22-803C-12F719DAC0E1}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="26.3515625" customWidth="1"/>
+    <col min="7" max="7" width="14.9375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2" s="11">
+        <v>2025</v>
+      </c>
+      <c r="G2" s="15">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2025</v>
+      </c>
+      <c r="G3" s="15">
+        <v>45965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="11">
+        <v>2025</v>
+      </c>
+      <c r="G4" s="15">
+        <v>45796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F5" s="11">
+        <v>2016</v>
+      </c>
+      <c r="G5" s="15">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F6" s="11">
+        <v>2015</v>
+      </c>
+      <c r="G6" s="15">
+        <v>42217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2015</v>
+      </c>
+      <c r="G7" s="15">
+        <v>42064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F8" s="11">
+        <v>2015</v>
+      </c>
+      <c r="G8" s="15">
+        <v>42319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F9" s="11">
+        <v>2015</v>
+      </c>
+      <c r="G9" s="15">
+        <v>42161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2016</v>
+      </c>
+      <c r="G10" s="15">
+        <v>42659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2017</v>
+      </c>
+      <c r="G11" s="15">
+        <v>42966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F12" s="11">
+        <v>2020</v>
+      </c>
+      <c r="G12" s="15">
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F13" s="11">
+        <v>2017</v>
+      </c>
+      <c r="G13" s="15">
+        <v>42869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F14" s="11">
+        <v>2023</v>
+      </c>
+      <c r="G14" s="16">
+        <v>45181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="F15" s="11">
+        <v>2023</v>
+      </c>
+      <c r="G15" s="15">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F16" s="11">
+        <v>2023</v>
+      </c>
+      <c r="G16" s="15">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F17" s="11">
+        <v>2023</v>
+      </c>
+      <c r="G17" s="15">
+        <v>45074</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F18" s="11">
+        <v>2024</v>
+      </c>
+      <c r="G18" s="15">
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F19" s="11">
+        <v>2022</v>
+      </c>
+      <c r="G19" s="15">
+        <v>44639</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="F20" s="11">
+        <v>2024</v>
+      </c>
+      <c r="G20" s="15">
+        <v>45595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="F21" s="11">
+        <v>2022</v>
+      </c>
+      <c r="G21" s="15">
+        <v>44852</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B120F39-99C1-4D12-91F3-EF7882AB8E35}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="38.87890625" customWidth="1"/>
+    <col min="3" max="3" width="17.703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D2">
+        <v>2021</v>
+      </c>
+      <c r="E2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
         <v>157</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>158</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>159</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>160</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>161</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>162</v>
       </c>
-      <c r="G1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H1" t="s">
-        <v>164</v>
-      </c>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C2">
         <v>40</v>
@@ -4018,15 +4886,15 @@
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C3">
         <v>40</v>
@@ -4044,15 +4912,15 @@
         <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C4">
         <v>40</v>
@@ -4070,15 +4938,15 @@
         <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C5">
         <v>32</v>
@@ -4096,15 +4964,15 @@
         <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -4122,15 +4990,15 @@
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C7">
         <v>32</v>
@@ -4148,15 +5016,15 @@
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C8">
         <v>24</v>
@@ -4175,18 +5043,18 @@
         <v>506</v>
       </c>
       <c r="H8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" ht="17.6" spans="1:9">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.649999999999999">
       <c r="A9" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C9">
         <v>32</v>
@@ -4204,15 +5072,15 @@
         <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="1:9">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C10">
         <v>32</v>
@@ -4230,15 +5098,15 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:9">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C11">
         <v>32</v>
@@ -4256,15 +5124,15 @@
         <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" ht="17.6" spans="1:9">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.649999999999999">
       <c r="A12" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -4282,18 +5150,18 @@
         <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" ht="17.6" spans="1:9">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.649999999999999">
       <c r="A13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -4311,18 +5179,18 @@
         <v>40</v>
       </c>
       <c r="H13" t="s">
+        <v>165</v>
+      </c>
+      <c r="I13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.649999999999999">
+      <c r="A14" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" t="s">
         <v>167</v>
-      </c>
-      <c r="I13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" ht="17.6" spans="1:9">
-      <c r="A14" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B14" t="s">
-        <v>169</v>
       </c>
       <c r="C14">
         <v>32</v>
@@ -4340,15 +5208,15 @@
         <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="1:9">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C15">
         <v>32</v>
@@ -4366,15 +5234,15 @@
         <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" spans="1:9">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C16">
         <v>32</v>
@@ -4392,15 +5260,15 @@
         <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" ht="17.6" spans="1:9">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17.649999999999999">
       <c r="A17" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -4418,18 +5286,18 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
+        <v>165</v>
+      </c>
+      <c r="I17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17.649999999999999">
+      <c r="A18" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" t="s">
         <v>167</v>
-      </c>
-      <c r="I17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" ht="17.6" spans="1:9">
-      <c r="A18" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B18" t="s">
-        <v>169</v>
       </c>
       <c r="C18">
         <v>32</v>
@@ -4447,15 +5315,15 @@
         <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" spans="1:9">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C19">
         <v>32</v>
@@ -4473,15 +5341,15 @@
         <v>100</v>
       </c>
       <c r="H19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5" spans="1:9">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C20">
         <v>32</v>
@@ -4499,15 +5367,15 @@
         <v>36</v>
       </c>
       <c r="H20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" ht="17.6" spans="1:9">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17.649999999999999">
       <c r="A21" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -4525,18 +5393,18 @@
         <v>242</v>
       </c>
       <c r="H21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5">
+      <c r="A22" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" spans="1:9">
-      <c r="A22" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -4554,18 +5422,18 @@
         <v>223</v>
       </c>
       <c r="H22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I22" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" ht="17.6" spans="1:9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17.649999999999999">
       <c r="A23" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -4583,18 +5451,18 @@
         <v>41</v>
       </c>
       <c r="H23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" ht="17.6" spans="1:9">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17.649999999999999">
       <c r="A24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C24">
         <v>12</v>
@@ -4612,41 +5480,40 @@
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11.17578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" t="s">
         <v>185</v>
-      </c>
-      <c r="B1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4657,10 +5524,10 @@
         <v>2020</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4671,10 +5538,10 @@
         <v>2020</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4685,10 +5552,10 @@
         <v>2020</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4699,10 +5566,10 @@
         <v>2020</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4713,10 +5580,10 @@
         <v>2020</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4727,10 +5594,10 @@
         <v>2021</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4741,10 +5608,10 @@
         <v>2021</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4755,10 +5622,10 @@
         <v>2022</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4769,10 +5636,10 @@
         <v>2022</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4783,10 +5650,10 @@
         <v>2023</v>
       </c>
       <c r="C11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4797,10 +5664,10 @@
         <v>2023</v>
       </c>
       <c r="C12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4811,10 +5678,10 @@
         <v>2023</v>
       </c>
       <c r="C13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4825,10 +5692,10 @@
         <v>2024</v>
       </c>
       <c r="C14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4839,10 +5706,10 @@
         <v>2024</v>
       </c>
       <c r="C15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4853,10 +5720,10 @@
         <v>2025</v>
       </c>
       <c r="C16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4867,10 +5734,10 @@
         <v>2025</v>
       </c>
       <c r="C17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4881,10 +5748,10 @@
         <v>2026</v>
       </c>
       <c r="C18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4895,525 +5762,14 @@
         <v>2026</v>
       </c>
       <c r="C19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15" outlineLevelCol="5"/>
-  <cols>
-    <col min="3" max="3" width="47.8359375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" ht="16.85" spans="1:6">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="3" ht="16.85" spans="1:6">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" ht="16.85" spans="1:6">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="5" ht="16.85" spans="1:6">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="6" ht="16.85" spans="1:6">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="7" ht="16.85" spans="1:6">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="8" ht="16.85" spans="1:6">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="9" ht="16.85" spans="1:6">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2025</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" ht="16.85" spans="1:6">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2025</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" ht="16.85" spans="1:6">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2025</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" ht="16.85" spans="1:6">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2025</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" ht="16.85" spans="1:6">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C13" t="s">
-        <v>242</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2025</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" outlineLevelCol="6"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" ht="17.6" spans="1:7">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2023</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" ht="17.6" spans="1:7">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2023</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" ht="17.6" spans="1:7">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2023</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" ht="17.6" spans="1:7">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2023</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" ht="17.6" spans="1:7">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2024</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" ht="17.6" spans="1:7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>2024</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" ht="17.6" spans="1:7">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>2024</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" ht="17.6" spans="1:7">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2024</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" ht="17.6" spans="1:7">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>2024</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" ht="17.6" spans="1:7">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2025</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" ht="17.6" spans="1:7">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2025</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" ht="17.6" spans="1:7">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2025</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" ht="17.6" spans="1:7">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2025</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" ht="17.6" spans="1:7">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2025</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" ht="17.6" spans="1:7">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2025</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" ht="17.6" spans="1:7">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2025</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" ht="17.6" spans="1:7">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2025</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>